--- a/Protocol/Infini-Solar V&VII&VIII&VIV& V II 6K LV Split-Phase&TWIN protocol 202205....xlsx
+++ b/Protocol/Infini-Solar V&VII&VIII&VIV& V II 6K LV Split-Phase&TWIN protocol 202205....xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -5114,7 +5114,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5147,14 +5147,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
-        <bgColor rgb="FFDDD9C3"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FFC4BD97"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor rgb="FFDDD9C3"/>
       </patternFill>
     </fill>
     <fill>
@@ -5167,18 +5173,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFC4BD97"/>
       </patternFill>
     </fill>
     <fill>
@@ -5367,12 +5361,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5380,7 +5374,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5472,6 +5466,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5528,7 +5526,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5536,7 +5534,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5548,35 +5546,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5584,11 +5574,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5600,10 +5590,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5612,35 +5598,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5648,63 +5630,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5732,11 +5662,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5744,7 +5674,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5752,75 +5682,71 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5868,16 +5794,16 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFDDD9C3"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFEEECE1"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFDDD9C3"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -5894,10 +5820,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6078,16 +6000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M720"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A261" activeCellId="0" sqref="A261"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.87"/>
@@ -6266,7 +6187,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="16" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -6276,7 +6197,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="17" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
@@ -6290,7 +6211,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="144.75" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="18" s="3" customFormat="true" ht="144.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
@@ -6304,7 +6225,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="19" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -6312,12 +6233,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A20" s="14" t="s">
+    <row r="20" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6336,7 +6257,7 @@
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6347,13 +6268,13 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="1"/>
@@ -6361,13 +6282,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1"/>
@@ -6375,13 +6296,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1"/>
@@ -6389,13 +6310,13 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1"/>
@@ -6403,13 +6324,13 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="1"/>
@@ -6417,13 +6338,13 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1"/>
@@ -6449,27 +6370,27 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6488,7 +6409,7 @@
       <c r="A35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -6499,13 +6420,13 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="1"/>
@@ -6513,19 +6434,19 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" s="3" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6544,7 +6465,7 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -6555,13 +6476,13 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="1"/>
@@ -6569,13 +6490,13 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="1"/>
@@ -6583,19 +6504,19 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -6614,7 +6535,7 @@
       <c r="A46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -6625,13 +6546,13 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="1"/>
@@ -6639,13 +6560,13 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="1"/>
@@ -6653,13 +6574,13 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="1"/>
@@ -6667,19 +6588,19 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -6698,7 +6619,7 @@
       <c r="A53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -6709,13 +6630,13 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="1"/>
@@ -6723,13 +6644,13 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="1"/>
@@ -6737,13 +6658,13 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="1"/>
@@ -6751,13 +6672,13 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="1"/>
@@ -6765,9 +6686,9 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6830,7 +6751,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="65" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A65" s="15" t="s">
         <v>71</v>
       </c>
@@ -6840,11 +6761,11 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="66" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A66" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -6854,43 +6775,43 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A67" s="27" t="s">
+    <row r="67" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A67" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="28"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A68" s="27" t="s">
+    <row r="68" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A68" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="28"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A69" s="27" t="s">
+    <row r="69" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A69" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="70" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -6898,7 +6819,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="71" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
       <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
@@ -6908,7 +6829,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" s="3" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="72" s="3" customFormat="true" ht="29.1" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A72" s="15" t="s">
         <v>79</v>
       </c>
@@ -6918,11 +6839,11 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="73" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A73" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -6932,357 +6853,357 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A74" s="27" t="s">
+    <row r="74" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A74" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A75" s="27" t="s">
+    <row r="75" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A75" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A76" s="27" t="s">
+    <row r="76" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A76" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A77" s="27" t="s">
+    <row r="77" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A77" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A78" s="27" t="s">
+    <row r="78" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="29" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A79" s="27" t="s">
+    <row r="79" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A79" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A80" s="27" t="s">
+    <row r="80" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A80" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="29" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A81" s="27" t="s">
+    <row r="81" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A81" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A82" s="27" t="s">
+    <row r="82" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A82" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A83" s="27" t="s">
+    <row r="83" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A83" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A84" s="27" t="s">
+    <row r="84" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A84" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="29" t="s">
         <v>112</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A85" s="27" t="s">
+    <row r="85" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A85" s="28" t="s">
         <v>113</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A86" s="27" t="s">
+    <row r="86" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A86" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A87" s="27" t="s">
+    <row r="87" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A87" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A88" s="33" t="s">
+    <row r="88" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A88" s="34" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A89" s="27" t="s">
+    <row r="89" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A89" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A90" s="27" t="s">
+    <row r="90" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A90" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A91" s="27" t="s">
+    <row r="91" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A91" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A92" s="27" t="s">
+    <row r="92" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A92" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A93" s="27" t="s">
+    <row r="93" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A93" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A94" s="35" t="s">
+    <row r="94" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A94" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="38" t="s">
         <v>141</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A95" s="35" t="s">
+    <row r="95" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A95" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C95" s="38" t="s">
         <v>144</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A96" s="27" t="s">
+    <row r="96" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A96" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="29" t="s">
         <v>147</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A97" s="27" t="s">
+    <row r="97" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A97" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A98" s="27" t="s">
+    <row r="98" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A98" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="29" t="s">
         <v>153</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" s="3" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="99" s="3" customFormat="true" ht="36" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A99" s="21" t="s">
         <v>154</v>
       </c>
@@ -7296,7 +7217,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="100" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -7304,7 +7225,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="101" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
       <c r="A101" s="14" t="s">
         <v>157</v>
       </c>
@@ -7717,13 +7638,13 @@
       <c r="F130" s="1"/>
     </row>
     <row r="131" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="29" t="s">
         <v>216</v>
       </c>
       <c r="D131" s="1"/>
@@ -7739,11 +7660,11 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -8011,9 +7932,9 @@
       <c r="F152" s="1"/>
     </row>
     <row r="153" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A153" s="38"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="38"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8042,7 +7963,7 @@
       <c r="A156" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="19" t="s">
@@ -8053,13 +7974,13 @@
       <c r="F156" s="1"/>
     </row>
     <row r="157" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A157" s="39" t="s">
+      <c r="A157" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B157" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="29" t="s">
         <v>259</v>
       </c>
       <c r="D157" s="1"/>
@@ -8067,11 +7988,11 @@
       <c r="F157" s="1"/>
     </row>
     <row r="158" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A158" s="39"/>
+      <c r="A158" s="40"/>
       <c r="B158" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="29" t="s">
         <v>260</v>
       </c>
       <c r="D158" s="1"/>
@@ -8079,11 +8000,11 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A159" s="39"/>
+      <c r="A159" s="40"/>
       <c r="B159" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="29" t="s">
         <v>261</v>
       </c>
       <c r="D159" s="1"/>
@@ -8091,11 +8012,11 @@
       <c r="F159" s="1"/>
     </row>
     <row r="160" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A160" s="39"/>
+      <c r="A160" s="40"/>
       <c r="B160" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="29" t="s">
         <v>262</v>
       </c>
       <c r="D160" s="1"/>
@@ -8103,11 +8024,11 @@
       <c r="F160" s="1"/>
     </row>
     <row r="161" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A161" s="39"/>
+      <c r="A161" s="40"/>
       <c r="B161" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="29" t="s">
         <v>263</v>
       </c>
       <c r="D161" s="1"/>
@@ -8115,11 +8036,11 @@
       <c r="F161" s="1"/>
     </row>
     <row r="162" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A162" s="39"/>
+      <c r="A162" s="40"/>
       <c r="B162" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="29" t="s">
         <v>264</v>
       </c>
       <c r="D162" s="1"/>
@@ -8127,11 +8048,11 @@
       <c r="F162" s="1"/>
     </row>
     <row r="163" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A163" s="39"/>
+      <c r="A163" s="40"/>
       <c r="B163" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="29" t="s">
         <v>265</v>
       </c>
       <c r="D163" s="1"/>
@@ -8170,7 +8091,7 @@
       <c r="A167" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="19" t="s">
@@ -8181,137 +8102,137 @@
       <c r="F167" s="1"/>
     </row>
     <row r="168" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C168" s="28"/>
-      <c r="D168" s="40"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="41"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="28" t="s">
         <v>269</v>
       </c>
       <c r="B169" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="40" t="s">
+      <c r="C169" s="29"/>
+      <c r="D169" s="41" t="s">
         <v>271</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
     <row r="170" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B170" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="40" t="s">
+      <c r="C170" s="29"/>
+      <c r="D170" s="41" t="s">
         <v>274</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
     <row r="171" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A171" s="27" t="s">
+      <c r="A171" s="28" t="s">
         <v>275</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C171" s="28"/>
-      <c r="D171" s="40" t="s">
+      <c r="C171" s="29"/>
+      <c r="D171" s="41" t="s">
         <v>277</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
     <row r="172" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B172" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="40" t="s">
+      <c r="C172" s="29"/>
+      <c r="D172" s="41" t="s">
         <v>280</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="28" t="s">
         <v>281</v>
       </c>
       <c r="B173" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C173" s="28"/>
-      <c r="D173" s="40" t="s">
+      <c r="C173" s="29"/>
+      <c r="D173" s="41" t="s">
         <v>283</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
     <row r="174" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A174" s="27" t="s">
+      <c r="A174" s="28" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C174" s="28"/>
-      <c r="D174" s="40" t="s">
+      <c r="C174" s="29"/>
+      <c r="D174" s="41" t="s">
         <v>286</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A175" s="27" t="s">
+      <c r="A175" s="28" t="s">
         <v>287</v>
       </c>
       <c r="B175" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C175" s="28"/>
-      <c r="D175" s="40" t="s">
+      <c r="C175" s="29"/>
+      <c r="D175" s="41" t="s">
         <v>289</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
     <row r="176" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="28" t="s">
         <v>290</v>
       </c>
       <c r="B176" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="28"/>
-      <c r="D176" s="40" t="s">
+      <c r="C176" s="29"/>
+      <c r="D176" s="41" t="s">
         <v>292</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="28" t="s">
         <v>293</v>
       </c>
       <c r="B177" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="28"/>
+      <c r="C177" s="29"/>
       <c r="D177" s="1" t="s">
         <v>295</v>
       </c>
@@ -8319,27 +8240,27 @@
       <c r="F177" s="1"/>
     </row>
     <row r="178" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="28" t="s">
         <v>296</v>
       </c>
       <c r="B178" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C178" s="28"/>
-      <c r="D178" s="40" t="s">
+      <c r="C178" s="29"/>
+      <c r="D178" s="41" t="s">
         <v>298</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
     <row r="179" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="28" t="s">
         <v>299</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C179" s="28"/>
+      <c r="C179" s="29"/>
       <c r="D179" s="1" t="s">
         <v>301</v>
       </c>
@@ -8347,13 +8268,13 @@
       <c r="F179" s="1"/>
     </row>
     <row r="180" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="28" t="s">
         <v>302</v>
       </c>
       <c r="B180" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C180" s="28"/>
+      <c r="C180" s="29"/>
       <c r="D180" s="1" t="s">
         <v>304</v>
       </c>
@@ -8361,13 +8282,13 @@
       <c r="F180" s="1"/>
     </row>
     <row r="181" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C181" s="28"/>
+      <c r="C181" s="29"/>
       <c r="D181" s="1" t="s">
         <v>306</v>
       </c>
@@ -8375,13 +8296,13 @@
       <c r="F181" s="1"/>
     </row>
     <row r="182" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="28" t="s">
         <v>307</v>
       </c>
       <c r="B182" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C182" s="28"/>
+      <c r="C182" s="29"/>
       <c r="D182" s="1" t="s">
         <v>309</v>
       </c>
@@ -8389,13 +8310,13 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="28" t="s">
         <v>310</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C183" s="28"/>
+      <c r="C183" s="29"/>
       <c r="D183" s="1" t="s">
         <v>312</v>
       </c>
@@ -8403,13 +8324,13 @@
       <c r="F183" s="1"/>
     </row>
     <row r="184" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A184" s="27" t="s">
+      <c r="A184" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B184" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="28"/>
+      <c r="C184" s="29"/>
       <c r="D184" s="1" t="s">
         <v>314</v>
       </c>
@@ -8417,137 +8338,137 @@
       <c r="F184" s="1"/>
     </row>
     <row r="185" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B185" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C185" s="41" t="s">
+      <c r="C185" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D185" s="40" t="s">
+      <c r="D185" s="41" t="s">
         <v>317</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
     <row r="186" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="B186" s="42"/>
-      <c r="C186" s="42"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="43"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
     <row r="187" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A187" s="27" t="n">
+      <c r="A187" s="28" t="n">
         <v>1</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C187" s="28"/>
-      <c r="D187" s="40" t="s">
+      <c r="C187" s="29"/>
+      <c r="D187" s="41" t="s">
         <v>280</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
     <row r="188" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A188" s="27" t="n">
+      <c r="A188" s="28" t="n">
         <v>2</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C188" s="28"/>
-      <c r="D188" s="40" t="s">
+      <c r="C188" s="29"/>
+      <c r="D188" s="41" t="s">
         <v>277</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
     <row r="189" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A189" s="27" t="n">
+      <c r="A189" s="28" t="n">
         <v>3</v>
       </c>
       <c r="B189" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="28"/>
-      <c r="D189" s="40" t="s">
+      <c r="C189" s="29"/>
+      <c r="D189" s="41" t="s">
         <v>283</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
     <row r="190" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A190" s="27" t="n">
+      <c r="A190" s="28" t="n">
         <v>4</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C190" s="28"/>
-      <c r="D190" s="40" t="s">
+      <c r="C190" s="29"/>
+      <c r="D190" s="41" t="s">
         <v>286</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
     <row r="191" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A191" s="27" t="n">
+      <c r="A191" s="28" t="n">
         <v>5</v>
       </c>
       <c r="B191" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="40" t="s">
+      <c r="C191" s="29"/>
+      <c r="D191" s="41" t="s">
         <v>274</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
     <row r="192" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A192" s="27" t="n">
+      <c r="A192" s="28" t="n">
         <v>6</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C192" s="28"/>
-      <c r="D192" s="40" t="s">
+      <c r="C192" s="29"/>
+      <c r="D192" s="41" t="s">
         <v>325</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
     <row r="193" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A193" s="27" t="n">
+      <c r="A193" s="28" t="n">
         <v>7</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C193" s="28"/>
-      <c r="D193" s="40" t="s">
+      <c r="C193" s="29"/>
+      <c r="D193" s="41" t="s">
         <v>292</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
     <row r="194" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A194" s="27" t="n">
+      <c r="A194" s="28" t="n">
         <v>8</v>
       </c>
       <c r="B194" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C194" s="28"/>
+      <c r="C194" s="29"/>
       <c r="D194" s="1" t="s">
         <v>328</v>
       </c>
@@ -8555,13 +8476,13 @@
       <c r="F194" s="1"/>
     </row>
     <row r="195" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A195" s="27" t="n">
+      <c r="A195" s="28" t="n">
         <v>9</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="28"/>
+      <c r="C195" s="29"/>
       <c r="D195" s="1" t="s">
         <v>330</v>
       </c>
@@ -8569,41 +8490,41 @@
       <c r="F195" s="1"/>
     </row>
     <row r="196" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A196" s="27" t="n">
+      <c r="A196" s="28" t="n">
         <v>11</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C196" s="28"/>
-      <c r="D196" s="40" t="s">
+      <c r="C196" s="29"/>
+      <c r="D196" s="41" t="s">
         <v>332</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
     <row r="197" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A197" s="27" t="n">
+      <c r="A197" s="28" t="n">
         <v>51</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C197" s="28"/>
-      <c r="D197" s="40" t="s">
+      <c r="C197" s="29"/>
+      <c r="D197" s="41" t="s">
         <v>334</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
     <row r="198" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A198" s="27" t="n">
+      <c r="A198" s="28" t="n">
         <v>52</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C198" s="28"/>
+      <c r="C198" s="29"/>
       <c r="D198" s="1" t="s">
         <v>336</v>
       </c>
@@ -8611,139 +8532,139 @@
       <c r="F198" s="1"/>
     </row>
     <row r="199" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A199" s="27" t="n">
+      <c r="A199" s="28" t="n">
         <v>53</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C199" s="28"/>
-      <c r="D199" s="40" t="s">
+      <c r="C199" s="29"/>
+      <c r="D199" s="41" t="s">
         <v>338</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A200" s="43" t="n">
+      <c r="A200" s="44" t="n">
         <v>54</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="C200" s="28"/>
-      <c r="D200" s="40" t="s">
+      <c r="C200" s="29"/>
+      <c r="D200" s="41" t="s">
         <v>340</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
     <row r="201" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A201" s="27" t="n">
+      <c r="A201" s="28" t="n">
         <v>55</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C201" s="28"/>
-      <c r="D201" s="40" t="s">
+      <c r="C201" s="29"/>
+      <c r="D201" s="41" t="s">
         <v>342</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
     <row r="202" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A202" s="43" t="n">
+      <c r="A202" s="44" t="n">
         <v>56</v>
       </c>
-      <c r="B202" s="44" t="s">
+      <c r="B202" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="C202" s="28"/>
-      <c r="D202" s="40" t="s">
+      <c r="C202" s="29"/>
+      <c r="D202" s="41" t="s">
         <v>317</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
     <row r="203" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A203" s="27" t="n">
+      <c r="A203" s="28" t="n">
         <v>57</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C203" s="28"/>
-      <c r="D203" s="40" t="s">
+      <c r="C203" s="29"/>
+      <c r="D203" s="41" t="s">
         <v>345</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
     <row r="204" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A204" s="27" t="n">
+      <c r="A204" s="28" t="n">
         <v>58</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C204" s="28"/>
-      <c r="D204" s="40" t="s">
+      <c r="C204" s="29"/>
+      <c r="D204" s="41" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A205" s="27" t="n">
+      <c r="A205" s="28" t="n">
         <v>60</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C205" s="28"/>
-      <c r="D205" s="40" t="s">
+      <c r="C205" s="29"/>
+      <c r="D205" s="41" t="s">
         <v>349</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
     <row r="206" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A206" s="27" t="n">
+      <c r="A206" s="28" t="n">
         <v>71</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="28"/>
-      <c r="D206" s="40" t="s">
+      <c r="C206" s="29"/>
+      <c r="D206" s="41" t="s">
         <v>351</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
     <row r="207" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A207" s="27" t="n">
+      <c r="A207" s="28" t="n">
         <v>72</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C207" s="28"/>
-      <c r="D207" s="40" t="s">
+      <c r="C207" s="29"/>
+      <c r="D207" s="41" t="s">
         <v>353</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A208" s="27" t="n">
+      <c r="A208" s="28" t="n">
         <v>80</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="C208" s="28"/>
+      <c r="C208" s="29"/>
       <c r="D208" s="1" t="s">
         <v>355</v>
       </c>
@@ -8751,84 +8672,84 @@
       <c r="F208" s="1"/>
     </row>
     <row r="209" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A209" s="27" t="n">
+      <c r="A209" s="28" t="n">
         <v>81</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C209" s="28"/>
-      <c r="D209" s="40" t="s">
+      <c r="C209" s="29"/>
+      <c r="D209" s="41" t="s">
         <v>357</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
     <row r="210" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A210" s="27" t="n">
+      <c r="A210" s="28" t="n">
         <v>82</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C210" s="28"/>
-      <c r="D210" s="40" t="s">
+      <c r="C210" s="29"/>
+      <c r="D210" s="41" t="s">
         <v>359</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
     <row r="211" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A211" s="27" t="n">
+      <c r="A211" s="28" t="n">
         <v>83</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C211" s="34"/>
-      <c r="D211" s="40" t="s">
+      <c r="C211" s="35"/>
+      <c r="D211" s="41" t="s">
         <v>361</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
     <row r="212" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A212" s="27" t="n">
+      <c r="A212" s="28" t="n">
         <v>84</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C212" s="28"/>
-      <c r="D212" s="40" t="s">
+      <c r="C212" s="29"/>
+      <c r="D212" s="41" t="s">
         <v>363</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
     <row r="213" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A213" s="43" t="n">
+      <c r="A213" s="44" t="n">
         <v>85</v>
       </c>
-      <c r="B213" s="44" t="s">
+      <c r="B213" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="C213" s="28"/>
-      <c r="D213" s="40" t="s">
+      <c r="C213" s="29"/>
+      <c r="D213" s="41" t="s">
         <v>365</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A214" s="27" t="n">
+      <c r="A214" s="28" t="n">
         <v>86</v>
       </c>
       <c r="B214" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C214" s="28"/>
-      <c r="D214" s="40" t="s">
+      <c r="C214" s="29"/>
+      <c r="D214" s="41" t="s">
         <v>367</v>
       </c>
       <c r="E214" s="1"/>
@@ -8843,11 +8764,11 @@
       <c r="F215" s="1"/>
     </row>
     <row r="216" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="B216" s="14"/>
-      <c r="C216" s="14"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8866,7 +8787,7 @@
       <c r="A218" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B218" s="26" t="s">
+      <c r="B218" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="19" t="s">
@@ -8877,13 +8798,13 @@
       <c r="F218" s="1"/>
     </row>
     <row r="219" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B219" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C219" s="28" t="s">
+      <c r="C219" s="29" t="s">
         <v>372</v>
       </c>
       <c r="D219" s="1"/>
@@ -8891,13 +8812,13 @@
       <c r="F219" s="1"/>
     </row>
     <row r="220" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="28" t="s">
         <v>269</v>
       </c>
       <c r="B220" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C220" s="28" t="s">
+      <c r="C220" s="29" t="s">
         <v>374</v>
       </c>
       <c r="D220" s="1"/>
@@ -8905,13 +8826,13 @@
       <c r="F220" s="1"/>
     </row>
     <row r="221" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C221" s="28" t="s">
+      <c r="C221" s="29" t="s">
         <v>376</v>
       </c>
       <c r="D221" s="1"/>
@@ -8919,13 +8840,13 @@
       <c r="F221" s="1"/>
     </row>
     <row r="222" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A222" s="27" t="s">
+      <c r="A222" s="28" t="s">
         <v>275</v>
       </c>
       <c r="B222" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C222" s="28" t="s">
+      <c r="C222" s="29" t="s">
         <v>378</v>
       </c>
       <c r="D222" s="1"/>
@@ -8933,13 +8854,13 @@
       <c r="F222" s="1"/>
     </row>
     <row r="223" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A223" s="27" t="s">
+      <c r="A223" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="29" t="s">
         <v>380</v>
       </c>
       <c r="D223" s="1"/>
@@ -8947,13 +8868,13 @@
       <c r="F223" s="1"/>
     </row>
     <row r="224" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A224" s="27" t="s">
+      <c r="A224" s="28" t="s">
         <v>281</v>
       </c>
       <c r="B224" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="29" t="s">
         <v>382</v>
       </c>
       <c r="D224" s="1"/>
@@ -8961,13 +8882,13 @@
       <c r="F224" s="1"/>
     </row>
     <row r="225" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A225" s="27" t="s">
+      <c r="A225" s="28" t="s">
         <v>284</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="29" t="s">
         <v>384</v>
       </c>
       <c r="D225" s="1"/>
@@ -8975,24 +8896,24 @@
       <c r="F225" s="1"/>
     </row>
     <row r="226" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A226" s="27" t="s">
+      <c r="A226" s="28" t="s">
         <v>287</v>
       </c>
       <c r="B226" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="227" s="48" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A227" s="45" t="s">
+    <row r="227" s="49" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A227" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="C227" s="47" t="s">
+      <c r="C227" s="48" t="s">
         <v>388</v>
       </c>
       <c r="D227" s="1"/>
@@ -9006,14 +8927,14 @@
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
     </row>
-    <row r="228" s="48" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A228" s="49" t="s">
+    <row r="228" s="49" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A228" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="B228" s="50" t="s">
+      <c r="B228" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C228" s="47" t="s">
+      <c r="C228" s="48" t="s">
         <v>390</v>
       </c>
       <c r="D228" s="1"/>
@@ -9027,14 +8948,14 @@
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
     </row>
-    <row r="229" s="48" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A229" s="49" t="s">
+    <row r="229" s="49" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A229" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B229" s="50" t="s">
+      <c r="B229" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C229" s="47" t="s">
+      <c r="C229" s="48" t="s">
         <v>392</v>
       </c>
       <c r="D229" s="1"/>
@@ -9048,10 +8969,10 @@
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
     </row>
-    <row r="230" s="48" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A230" s="45"/>
-      <c r="B230" s="46"/>
-      <c r="C230" s="47"/>
+    <row r="230" s="49" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A230" s="46"/>
+      <c r="B230" s="47"/>
+      <c r="C230" s="48"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -9063,10 +8984,10 @@
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
     </row>
-    <row r="231" s="48" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A231" s="45"/>
-      <c r="B231" s="46"/>
-      <c r="C231" s="47"/>
+    <row r="231" s="49" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A231" s="46"/>
+      <c r="B231" s="47"/>
+      <c r="C231" s="48"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -9087,11 +9008,11 @@
       <c r="F232" s="1"/>
     </row>
     <row r="233" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B233" s="14"/>
-      <c r="C233" s="14"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -9110,7 +9031,7 @@
       <c r="A235" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="26" t="s">
+      <c r="B235" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C235" s="19" t="s">
@@ -9121,13 +9042,13 @@
       <c r="F235" s="1"/>
     </row>
     <row r="236" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A236" s="27" t="s">
+      <c r="A236" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B236" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="C236" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D236" s="1"/>
@@ -9135,13 +9056,13 @@
       <c r="F236" s="1"/>
     </row>
     <row r="237" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A237" s="27" t="s">
+      <c r="A237" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B237" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="29" t="s">
         <v>161</v>
       </c>
       <c r="D237" s="1"/>
@@ -9149,13 +9070,13 @@
       <c r="F237" s="1"/>
     </row>
     <row r="238" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B238" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C238" s="28" t="s">
+      <c r="C238" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D238" s="1"/>
@@ -9163,13 +9084,13 @@
       <c r="F238" s="1"/>
     </row>
     <row r="239" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A239" s="27" t="s">
+      <c r="A239" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B239" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="29" t="s">
         <v>397</v>
       </c>
       <c r="D239" s="1"/>
@@ -9177,13 +9098,13 @@
       <c r="F239" s="1"/>
     </row>
     <row r="240" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A240" s="27" t="s">
+      <c r="A240" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B240" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="C240" s="29" t="s">
         <v>228</v>
       </c>
       <c r="D240" s="1"/>
@@ -9191,13 +9112,13 @@
       <c r="F240" s="1"/>
     </row>
     <row r="241" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A241" s="27" t="s">
+      <c r="A241" s="28" t="s">
         <v>399</v>
       </c>
       <c r="B241" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C241" s="28" t="s">
+      <c r="C241" s="29" t="s">
         <v>230</v>
       </c>
       <c r="D241" s="1"/>
@@ -9205,13 +9126,13 @@
       <c r="F241" s="1"/>
     </row>
     <row r="242" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A242" s="27" t="s">
+      <c r="A242" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B242" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="29" t="s">
         <v>402</v>
       </c>
       <c r="D242" s="1"/>
@@ -9219,13 +9140,13 @@
       <c r="F242" s="1"/>
     </row>
     <row r="243" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A243" s="27" t="s">
+      <c r="A243" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B243" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C243" s="28" t="s">
+      <c r="C243" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D243" s="1"/>
@@ -9233,13 +9154,13 @@
       <c r="F243" s="1"/>
     </row>
     <row r="244" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A244" s="27" t="s">
+      <c r="A244" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B244" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C244" s="28" t="s">
+      <c r="C244" s="29" t="s">
         <v>403</v>
       </c>
       <c r="D244" s="1"/>
@@ -9247,13 +9168,13 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A245" s="27" t="s">
+      <c r="A245" s="28" t="s">
         <v>404</v>
       </c>
       <c r="B245" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C245" s="28" t="s">
+      <c r="C245" s="29" t="s">
         <v>405</v>
       </c>
       <c r="D245" s="1"/>
@@ -9261,13 +9182,13 @@
       <c r="F245" s="1"/>
     </row>
     <row r="246" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A246" s="27" t="s">
+      <c r="A246" s="28" t="s">
         <v>296</v>
       </c>
       <c r="B246" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C246" s="28" t="s">
+      <c r="C246" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D246" s="1"/>
@@ -9275,13 +9196,13 @@
       <c r="F246" s="1"/>
     </row>
     <row r="247" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A247" s="27" t="s">
+      <c r="A247" s="28" t="s">
         <v>299</v>
       </c>
       <c r="B247" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C247" s="28" t="s">
+      <c r="C247" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D247" s="1"/>
@@ -9289,13 +9210,13 @@
       <c r="F247" s="1"/>
     </row>
     <row r="248" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A248" s="27" t="s">
+      <c r="A248" s="28" t="s">
         <v>302</v>
       </c>
       <c r="B248" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C248" s="28" t="s">
+      <c r="C248" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D248" s="1"/>
@@ -9303,13 +9224,13 @@
       <c r="F248" s="1"/>
     </row>
     <row r="249" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A249" s="27" t="s">
+      <c r="A249" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C249" s="28" t="s">
+      <c r="C249" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D249" s="1"/>
@@ -9317,13 +9238,13 @@
       <c r="F249" s="1"/>
     </row>
     <row r="250" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A250" s="27" t="s">
+      <c r="A250" s="28" t="s">
         <v>307</v>
       </c>
       <c r="B250" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C250" s="28" t="s">
+      <c r="C250" s="29" t="s">
         <v>141</v>
       </c>
       <c r="D250" s="1"/>
@@ -9331,13 +9252,13 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A251" s="27" t="s">
+      <c r="A251" s="28" t="s">
         <v>310</v>
       </c>
       <c r="B251" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C251" s="28" t="s">
+      <c r="C251" s="29" t="s">
         <v>147</v>
       </c>
       <c r="D251" s="1"/>
@@ -9345,13 +9266,13 @@
       <c r="F251" s="1"/>
     </row>
     <row r="252" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A252" s="27" t="s">
+      <c r="A252" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B252" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C252" s="28" t="s">
+      <c r="C252" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D252" s="1"/>
@@ -9359,13 +9280,13 @@
       <c r="F252" s="1"/>
     </row>
     <row r="253" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A253" s="27" t="s">
+      <c r="A253" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B253" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D253" s="1"/>
@@ -9373,13 +9294,13 @@
       <c r="F253" s="1"/>
     </row>
     <row r="254" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A254" s="27" t="s">
+      <c r="A254" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B254" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C254" s="28" t="s">
+      <c r="C254" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D254" s="1"/>
@@ -9387,13 +9308,13 @@
       <c r="F254" s="1"/>
     </row>
     <row r="255" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A255" s="27" t="s">
+      <c r="A255" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B255" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C255" s="28" t="s">
+      <c r="C255" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D255" s="1"/>
@@ -9401,13 +9322,13 @@
       <c r="F255" s="1"/>
     </row>
     <row r="256" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A256" s="27" t="s">
+      <c r="A256" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B256" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C256" s="28" t="s">
+      <c r="C256" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D256" s="1"/>
@@ -9415,13 +9336,13 @@
       <c r="F256" s="1"/>
     </row>
     <row r="257" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A257" s="27" t="s">
+      <c r="A257" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B257" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C257" s="28" t="s">
+      <c r="C257" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D257" s="1"/>
@@ -9429,13 +9350,13 @@
       <c r="F257" s="1"/>
     </row>
     <row r="258" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A258" s="27" t="s">
+      <c r="A258" s="28" t="s">
         <v>207</v>
       </c>
       <c r="B258" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C258" s="28" t="s">
+      <c r="C258" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D258" s="1"/>
@@ -9443,13 +9364,13 @@
       <c r="F258" s="1"/>
     </row>
     <row r="259" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A259" s="27" t="s">
+      <c r="A259" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B259" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C259" s="28" t="s">
+      <c r="C259" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D259" s="1"/>
@@ -9465,16 +9386,16 @@
       <c r="F260" s="1"/>
     </row>
     <row r="261" s="3" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="B261" s="14"/>
-      <c r="C261" s="14"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="262" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A262" s="15" t="s">
         <v>410</v>
       </c>
@@ -9484,11 +9405,11 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="263" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A263" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B263" s="26" t="s">
+      <c r="B263" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C263" s="19" t="s">
@@ -9498,175 +9419,175 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A264" s="27" t="s">
+    <row r="264" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A264" s="28" t="s">
         <v>411</v>
       </c>
       <c r="B264" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C264" s="28" t="s">
+      <c r="C264" s="29" t="s">
         <v>413</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A265" s="27" t="s">
+    <row r="265" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A265" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B265" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C265" s="28" t="s">
+      <c r="C265" s="29" t="s">
         <v>414</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A266" s="27" t="s">
+    <row r="266" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A266" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B266" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="29" t="s">
         <v>415</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A267" s="27" t="s">
+    <row r="267" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A267" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B267" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="29" t="s">
         <v>416</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A268" s="27" t="s">
+    <row r="268" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A268" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B268" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C268" s="29" t="s">
         <v>417</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A269" s="27" t="s">
+    <row r="269" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A269" s="28" t="s">
         <v>399</v>
       </c>
       <c r="B269" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C269" s="28" t="s">
+      <c r="C269" s="29" t="s">
         <v>418</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A270" s="27" t="s">
+    <row r="270" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A270" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B270" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C270" s="28" t="s">
+      <c r="C270" s="29" t="s">
         <v>419</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A271" s="27" t="s">
+    <row r="271" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A271" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B271" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C271" s="28" t="s">
+      <c r="C271" s="29" t="s">
         <v>420</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A272" s="27" t="s">
+    <row r="272" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A272" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B272" s="27" t="s">
+      <c r="B272" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C272" s="28" t="s">
+      <c r="C272" s="29" t="s">
         <v>403</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" s="52" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A273" s="27" t="s">
+    <row r="273" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A273" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B273" s="27" t="s">
+      <c r="B273" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C273" s="27" t="s">
+      <c r="C273" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D273" s="51"/>
-      <c r="E273" s="51"/>
-      <c r="F273" s="51"/>
-    </row>
-    <row r="274" s="52" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A274" s="33" t="s">
+      <c r="D273" s="50"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="50"/>
+    </row>
+    <row r="274" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A274" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B274" s="33" t="s">
+      <c r="B274" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="C274" s="53" t="s">
+      <c r="C274" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D274" s="51"/>
-      <c r="E274" s="51"/>
-      <c r="F274" s="51"/>
-    </row>
-    <row r="275" s="52" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A275" s="33" t="s">
+      <c r="D274" s="50"/>
+      <c r="E274" s="50"/>
+      <c r="F274" s="50"/>
+    </row>
+    <row r="275" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A275" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B275" s="33" t="s">
+      <c r="B275" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="C275" s="53" t="s">
+      <c r="C275" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D275" s="51"/>
-      <c r="E275" s="51"/>
-      <c r="F275" s="51"/>
-    </row>
-    <row r="276" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="D275" s="50"/>
+      <c r="E275" s="50"/>
+      <c r="F275" s="50"/>
+    </row>
+    <row r="276" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A276" s="16"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
@@ -9674,12 +9595,12 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" s="3" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A277" s="14" t="s">
+    <row r="277" s="3" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A277" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="B277" s="14"/>
-      <c r="C277" s="14"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -9698,7 +9619,7 @@
       <c r="A279" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B279" s="26" t="s">
+      <c r="B279" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="19" t="s">
@@ -9709,13 +9630,13 @@
       <c r="F279" s="1"/>
     </row>
     <row r="280" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A280" s="27" t="s">
+      <c r="A280" s="28" t="s">
         <v>411</v>
       </c>
       <c r="B280" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C280" s="28" t="s">
+      <c r="C280" s="29" t="s">
         <v>413</v>
       </c>
       <c r="D280" s="1"/>
@@ -9723,13 +9644,13 @@
       <c r="F280" s="1"/>
     </row>
     <row r="281" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A281" s="27" t="s">
+      <c r="A281" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B281" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C281" s="28" t="s">
+      <c r="C281" s="29" t="s">
         <v>414</v>
       </c>
       <c r="D281" s="1"/>
@@ -9737,13 +9658,13 @@
       <c r="F281" s="1"/>
     </row>
     <row r="282" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A282" s="27" t="s">
+      <c r="A282" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B282" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C282" s="28" t="s">
+      <c r="C282" s="29" t="s">
         <v>415</v>
       </c>
       <c r="D282" s="1"/>
@@ -9751,13 +9672,13 @@
       <c r="F282" s="1"/>
     </row>
     <row r="283" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A283" s="27" t="s">
+      <c r="A283" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B283" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C283" s="28" t="s">
+      <c r="C283" s="29" t="s">
         <v>416</v>
       </c>
       <c r="D283" s="1"/>
@@ -9765,13 +9686,13 @@
       <c r="F283" s="1"/>
     </row>
     <row r="284" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A284" s="27" t="s">
+      <c r="A284" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B284" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C284" s="28" t="s">
+      <c r="C284" s="29" t="s">
         <v>417</v>
       </c>
       <c r="D284" s="1"/>
@@ -9779,13 +9700,13 @@
       <c r="F284" s="1"/>
     </row>
     <row r="285" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A285" s="27" t="s">
+      <c r="A285" s="28" t="s">
         <v>399</v>
       </c>
       <c r="B285" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="C285" s="29" t="s">
         <v>418</v>
       </c>
       <c r="D285" s="1"/>
@@ -9793,102 +9714,102 @@
       <c r="F285" s="1"/>
     </row>
     <row r="286" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A286" s="27" t="s">
+      <c r="A286" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B286" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C286" s="28" t="s">
+      <c r="C286" s="29" t="s">
         <v>419</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A287" s="27" t="s">
+    <row r="287" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A287" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B287" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="28" t="s">
+      <c r="C287" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="D287" s="51"/>
-      <c r="E287" s="51"/>
-      <c r="F287" s="51"/>
-    </row>
-    <row r="288" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A288" s="27" t="s">
+      <c r="D287" s="50"/>
+      <c r="E287" s="50"/>
+      <c r="F287" s="50"/>
+    </row>
+    <row r="288" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A288" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B288" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C288" s="28" t="s">
+      <c r="C288" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="D288" s="51"/>
-      <c r="E288" s="51"/>
-      <c r="F288" s="51"/>
-    </row>
-    <row r="289" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A289" s="27" t="s">
+      <c r="D288" s="50"/>
+      <c r="E288" s="50"/>
+      <c r="F288" s="50"/>
+    </row>
+    <row r="289" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A289" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B289" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C289" s="28" t="s">
+      <c r="C289" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="D289" s="51"/>
-      <c r="E289" s="51"/>
-      <c r="F289" s="51"/>
-    </row>
-    <row r="290" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A290" s="27" t="s">
+      <c r="D289" s="50"/>
+      <c r="E289" s="50"/>
+      <c r="F289" s="50"/>
+    </row>
+    <row r="290" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A290" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B290" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C290" s="28" t="s">
+      <c r="C290" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D290" s="51"/>
-      <c r="E290" s="51"/>
-      <c r="F290" s="51"/>
-    </row>
-    <row r="291" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A291" s="27" t="s">
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="50"/>
+    </row>
+    <row r="291" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A291" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B291" s="27" t="s">
+      <c r="B291" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="C291" s="28" t="s">
+      <c r="C291" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D291" s="51"/>
-      <c r="E291" s="51"/>
-      <c r="F291" s="51"/>
-    </row>
-    <row r="292" s="52" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A292" s="27" t="s">
+      <c r="D291" s="50"/>
+      <c r="E291" s="50"/>
+      <c r="F291" s="50"/>
+    </row>
+    <row r="292" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A292" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B292" s="27" t="s">
+      <c r="B292" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="C292" s="28" t="s">
+      <c r="C292" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D292" s="51"/>
-      <c r="E292" s="51"/>
-      <c r="F292" s="51"/>
+      <c r="D292" s="50"/>
+      <c r="E292" s="50"/>
+      <c r="F292" s="50"/>
     </row>
     <row r="293" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A293" s="16"/>
@@ -9899,11 +9820,11 @@
       <c r="F293" s="1"/>
     </row>
     <row r="294" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A294" s="14" t="s">
+      <c r="A294" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="B294" s="14"/>
-      <c r="C294" s="14"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -10053,16 +9974,16 @@
       <c r="F305" s="1"/>
     </row>
     <row r="306" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="B306" s="14"/>
-      <c r="C306" s="14"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" s="3" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="307" s="3" customFormat="true" ht="35.8" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A307" s="15" t="s">
         <v>443</v>
       </c>
@@ -10072,7 +9993,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="308" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A308" s="17" t="s">
         <v>14</v>
       </c>
@@ -10086,7 +10007,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="309" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A309" s="20" t="s">
         <v>427</v>
       </c>
@@ -10100,7 +10021,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="310" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A310" s="20" t="s">
         <v>370</v>
       </c>
@@ -10114,7 +10035,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="311" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A311" s="20" t="s">
         <v>269</v>
       </c>
@@ -10126,7 +10047,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="312" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A312" s="20" t="s">
         <v>445</v>
       </c>
@@ -10138,7 +10059,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="313" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A313" s="20" t="s">
         <v>446</v>
       </c>
@@ -10152,7 +10073,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="314" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A314" s="20" t="s">
         <v>92</v>
       </c>
@@ -10166,7 +10087,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="315" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A315" s="20" t="s">
         <v>95</v>
       </c>
@@ -10180,7 +10101,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="316" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A316" s="20" t="s">
         <v>169</v>
       </c>
@@ -10194,7 +10115,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="317" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A317" s="20" t="s">
         <v>448</v>
       </c>
@@ -10208,7 +10129,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="318" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A318" s="20" t="s">
         <v>235</v>
       </c>
@@ -10222,7 +10143,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="319" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A319" s="20" t="s">
         <v>451</v>
       </c>
@@ -10236,7 +10157,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="320" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A320" s="20" t="s">
         <v>454</v>
       </c>
@@ -10250,7 +10171,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="321" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A321" s="20" t="s">
         <v>113</v>
       </c>
@@ -10264,7 +10185,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="322" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A322" s="20" t="s">
         <v>116</v>
       </c>
@@ -10278,7 +10199,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="323" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A323" s="20" t="s">
         <v>181</v>
       </c>
@@ -10292,7 +10213,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="324" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A324" s="20" t="s">
         <v>122</v>
       </c>
@@ -10306,7 +10227,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="325" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A325" s="20" t="s">
         <v>125</v>
       </c>
@@ -10320,7 +10241,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="326" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A326" s="20" t="s">
         <v>459</v>
       </c>
@@ -10334,7 +10255,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="327" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A327" s="20" t="s">
         <v>116</v>
       </c>
@@ -10348,7 +10269,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="328" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A328" s="20" t="s">
         <v>191</v>
       </c>
@@ -10362,7 +10283,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="329" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A329" s="20" t="s">
         <v>194</v>
       </c>
@@ -10376,7 +10297,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="330" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A330" s="20" t="s">
         <v>197</v>
       </c>
@@ -10390,7 +10311,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="331" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A331" s="20" t="s">
         <v>464</v>
       </c>
@@ -10404,7 +10325,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="332" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A332" s="20" t="s">
         <v>142</v>
       </c>
@@ -10418,7 +10339,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="333" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A333" s="20" t="s">
         <v>145</v>
       </c>
@@ -10432,7 +10353,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="334" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A334" s="20" t="s">
         <v>204</v>
       </c>
@@ -10446,7 +10367,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="335" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A335" s="20" t="s">
         <v>207</v>
       </c>
@@ -10460,7 +10381,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="336" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A336" s="20" t="s">
         <v>148</v>
       </c>
@@ -10474,7 +10395,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="337" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A337" s="20" t="s">
         <v>151</v>
       </c>
@@ -10488,21 +10409,21 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A338" s="54" t="s">
+    <row r="338" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A338" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="B338" s="46" t="s">
+      <c r="B338" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C338" s="55" t="s">
+      <c r="C338" s="54" t="s">
         <v>468</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="339" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="22"/>
@@ -10510,30 +10431,30 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A340" s="14" t="s">
+    <row r="340" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A340" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="B340" s="14"/>
-      <c r="C340" s="14"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
     <row r="341" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A341" s="56" t="s">
+      <c r="A341" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="B341" s="56"/>
-      <c r="C341" s="56"/>
+      <c r="B341" s="55"/>
+      <c r="C341" s="55"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
     <row r="342" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A342" s="56"/>
-      <c r="B342" s="56"/>
-      <c r="C342" s="56"/>
+      <c r="A342" s="55"/>
+      <c r="B342" s="55"/>
+      <c r="C342" s="55"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -10589,29 +10510,29 @@
       <c r="F346" s="1"/>
     </row>
     <row r="347" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="B347" s="14"/>
-      <c r="C347" s="14"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
     <row r="348" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A348" s="56" t="s">
+      <c r="A348" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="B348" s="56"/>
-      <c r="C348" s="56"/>
+      <c r="B348" s="55"/>
+      <c r="C348" s="55"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
     </row>
     <row r="349" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A349" s="56"/>
-      <c r="B349" s="56"/>
-      <c r="C349" s="56"/>
+      <c r="A349" s="55"/>
+      <c r="B349" s="55"/>
+      <c r="C349" s="55"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -10667,11 +10588,11 @@
       <c r="F353" s="1"/>
     </row>
     <row r="354" s="3" customFormat="true" ht="29.25" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A354" s="56" t="s">
+      <c r="A354" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="B354" s="56"/>
-      <c r="C354" s="56"/>
+      <c r="B354" s="55"/>
+      <c r="C354" s="55"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -10691,7 +10612,7 @@
       <c r="F355" s="1"/>
     </row>
     <row r="356" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A356" s="57" t="s">
+      <c r="A356" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B356" s="21" t="n">
@@ -10705,7 +10626,7 @@
       <c r="F356" s="1"/>
     </row>
     <row r="357" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A357" s="57"/>
+      <c r="A357" s="56"/>
       <c r="B357" s="21" t="n">
         <v>1</v>
       </c>
@@ -10717,7 +10638,7 @@
       <c r="F357" s="1"/>
     </row>
     <row r="358" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A358" s="57"/>
+      <c r="A358" s="56"/>
       <c r="B358" s="21" t="n">
         <v>2</v>
       </c>
@@ -10729,34 +10650,34 @@
       <c r="F358" s="1"/>
     </row>
     <row r="359" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A359" s="58" t="s">
+      <c r="A359" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="B359" s="58"/>
-      <c r="C359" s="58"/>
+      <c r="B359" s="26"/>
+      <c r="C359" s="26"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A360" s="56" t="s">
+    <row r="360" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A360" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="B360" s="56"/>
-      <c r="C360" s="56"/>
+      <c r="B360" s="55"/>
+      <c r="C360" s="55"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A361" s="56"/>
-      <c r="B361" s="56"/>
-      <c r="C361" s="56"/>
+    <row r="361" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A361" s="55"/>
+      <c r="B361" s="55"/>
+      <c r="C361" s="55"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="362" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A362" s="17" t="s">
         <v>14</v>
       </c>
@@ -10770,22 +10691,22 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A363" s="59" t="s">
+    <row r="363" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A363" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B363" s="59" t="s">
+      <c r="B363" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="C363" s="59" t="s">
+      <c r="C363" s="57" t="s">
         <v>487</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" s="3" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A364" s="59" t="s">
+    <row r="364" s="3" customFormat="true" ht="49.25" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A364" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B364" s="21" t="s">
@@ -10798,8 +10719,8 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A365" s="59" t="s">
+    <row r="365" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A365" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B365" s="21" t="s">
@@ -10812,8 +10733,8 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A366" s="59" t="s">
+    <row r="366" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A366" s="57" t="s">
         <v>275</v>
       </c>
       <c r="B366" s="21" t="s">
@@ -10826,167 +10747,167 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A367" s="59"/>
+    <row r="367" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A367" s="57"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A368" s="14" t="s">
+    <row r="368" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A368" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="B368" s="14"/>
-      <c r="C368" s="14"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="26"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A369" s="56" t="s">
+    <row r="369" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A369" s="55" t="s">
         <v>495</v>
       </c>
-      <c r="B369" s="56"/>
-      <c r="C369" s="56"/>
+      <c r="B369" s="55"/>
+      <c r="C369" s="55"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A370" s="56"/>
-      <c r="B370" s="56"/>
-      <c r="C370" s="56"/>
+    <row r="370" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A370" s="55"/>
+      <c r="B370" s="55"/>
+      <c r="C370" s="55"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A371" s="26" t="s">
+    <row r="371" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A371" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B371" s="26" t="s">
+      <c r="B371" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="60" t="s">
+      <c r="C371" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A372" s="59" t="s">
+    <row r="372" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A372" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B372" s="61" t="s">
+      <c r="B372" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="C372" s="62" t="s">
+      <c r="C372" s="60" t="s">
         <v>406</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A373" s="59" t="s">
+    <row r="373" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A373" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="B373" s="61" t="s">
+      <c r="B373" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="C373" s="62" t="s">
+      <c r="C373" s="60" t="s">
         <v>498</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" s="3" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A374" s="59" t="s">
+    <row r="374" s="3" customFormat="true" ht="49.25" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A374" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="B374" s="61" t="s">
+      <c r="B374" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="C374" s="63" t="s">
+      <c r="C374" s="61" t="s">
         <v>500</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A375" s="59" t="s">
+    <row r="375" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A375" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="B375" s="64" t="s">
+      <c r="B375" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="C375" s="65" t="s">
+      <c r="C375" s="63" t="s">
         <v>498</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" s="3" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A376" s="59" t="s">
+    <row r="376" s="3" customFormat="true" ht="61.15" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A376" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B376" s="64" t="s">
+      <c r="B376" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="C376" s="66" t="s">
+      <c r="C376" s="64" t="s">
         <v>503</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A377" s="59" t="s">
+    <row r="377" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A377" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="B377" s="64" t="s">
+      <c r="B377" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="C377" s="65"/>
+      <c r="C377" s="63"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A378" s="59" t="s">
+    <row r="378" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A378" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="B378" s="64" t="s">
+      <c r="B378" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="C378" s="65"/>
+      <c r="C378" s="63"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" s="3" customFormat="true" ht="24.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A379" s="59" t="s">
+    <row r="379" s="3" customFormat="true" ht="24.75" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A379" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="B379" s="67" t="s">
+      <c r="B379" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="C379" s="65"/>
+      <c r="C379" s="63"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A380" s="59" t="s">
+    <row r="380" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A380" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B380" s="64" t="s">
+      <c r="B380" s="62" t="s">
         <v>510</v>
       </c>
       <c r="C380" s="21" t="s">
@@ -10996,89 +10917,89 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A381" s="59"/>
-      <c r="B381" s="64"/>
+    <row r="381" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A381" s="57"/>
+      <c r="B381" s="62"/>
       <c r="C381" s="24"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A382" s="68" t="s">
+    <row r="382" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A382" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="B382" s="68"/>
-      <c r="C382" s="68"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="26"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A383" s="56" t="s">
+    <row r="383" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A383" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="B383" s="56"/>
-      <c r="C383" s="56"/>
+      <c r="B383" s="55"/>
+      <c r="C383" s="55"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A384" s="56"/>
-      <c r="B384" s="56"/>
-      <c r="C384" s="56"/>
+    <row r="384" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A384" s="55"/>
+      <c r="B384" s="55"/>
+      <c r="C384" s="55"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A385" s="26" t="s">
+    <row r="385" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A385" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B385" s="26" t="s">
+      <c r="B385" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C385" s="60" t="s">
+      <c r="C385" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" s="3" customFormat="true" ht="23.1" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A386" s="59" t="s">
+    <row r="386" s="3" customFormat="true" ht="23.1" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A386" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B386" s="67" t="s">
+      <c r="B386" s="65" t="s">
         <v>514</v>
       </c>
-      <c r="C386" s="65" t="s">
+      <c r="C386" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" s="3" customFormat="true" ht="23.1" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A387" s="59" t="s">
+    <row r="387" s="3" customFormat="true" ht="23.1" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A387" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B387" s="67" t="s">
+      <c r="B387" s="65" t="s">
         <v>515</v>
       </c>
-      <c r="C387" s="65" t="s">
+      <c r="C387" s="63" t="s">
         <v>516</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" s="3" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A388" s="59" t="s">
+    <row r="388" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A388" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B388" s="67" t="s">
+      <c r="B388" s="65" t="s">
         <v>517</v>
       </c>
       <c r="C388" s="22" t="s">
@@ -11088,8 +11009,8 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A389" s="59" t="s">
+    <row r="389" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A389" s="57" t="s">
         <v>446</v>
       </c>
       <c r="B389" s="21" t="s">
@@ -11102,64 +11023,64 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" s="3" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A390" s="59" t="s">
+    <row r="390" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A390" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B390" s="67" t="s">
+      <c r="B390" s="65" t="s">
         <v>521</v>
       </c>
-      <c r="C390" s="66" t="s">
+      <c r="C390" s="64" t="s">
         <v>522</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A391" s="59"/>
-      <c r="B391" s="67"/>
-      <c r="C391" s="66"/>
+    <row r="391" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A391" s="57"/>
+      <c r="B391" s="65"/>
+      <c r="C391" s="64"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A392" s="14" t="s">
+    <row r="392" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A392" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="B392" s="14"/>
-      <c r="C392" s="14"/>
+      <c r="B392" s="26"/>
+      <c r="C392" s="26"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
     </row>
     <row r="393" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A393" s="56" t="s">
+      <c r="A393" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="B393" s="56"/>
-      <c r="C393" s="56"/>
+      <c r="B393" s="55"/>
+      <c r="C393" s="55"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
     <row r="394" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A394" s="56"/>
-      <c r="B394" s="56"/>
-      <c r="C394" s="56"/>
+      <c r="A394" s="55"/>
+      <c r="B394" s="55"/>
+      <c r="C394" s="55"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
     </row>
     <row r="395" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A395" s="26" t="s">
+      <c r="A395" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B395" s="26" t="s">
+      <c r="B395" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C395" s="60" t="s">
+      <c r="C395" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D395" s="1"/>
@@ -11167,13 +11088,13 @@
       <c r="F395" s="1"/>
     </row>
     <row r="396" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A396" s="59" t="s">
+      <c r="A396" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B396" s="67" t="s">
+      <c r="B396" s="65" t="s">
         <v>525</v>
       </c>
-      <c r="C396" s="65" t="s">
+      <c r="C396" s="63" t="s">
         <v>526</v>
       </c>
       <c r="D396" s="1"/>
@@ -11181,13 +11102,13 @@
       <c r="F396" s="1"/>
     </row>
     <row r="397" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A397" s="59" t="s">
+      <c r="A397" s="57" t="s">
         <v>83</v>
       </c>
       <c r="B397" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C397" s="65" t="s">
+      <c r="C397" s="63" t="s">
         <v>528</v>
       </c>
       <c r="D397" s="1"/>
@@ -11195,7 +11116,7 @@
       <c r="F397" s="1"/>
     </row>
     <row r="398" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A398" s="59" t="s">
+      <c r="A398" s="57" t="s">
         <v>86</v>
       </c>
       <c r="B398" s="21" t="s">
@@ -11209,7 +11130,7 @@
       <c r="F398" s="1"/>
     </row>
     <row r="399" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A399" s="59" t="s">
+      <c r="A399" s="57" t="s">
         <v>446</v>
       </c>
       <c r="B399" s="21" t="s">
@@ -11223,7 +11144,7 @@
       <c r="F399" s="1"/>
     </row>
     <row r="400" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="true">
-      <c r="A400" s="59"/>
+      <c r="A400" s="57"/>
       <c r="B400" s="21"/>
       <c r="C400" s="21"/>
       <c r="D400" s="1"/>
@@ -11241,11 +11162,11 @@
       <c r="F401" s="1"/>
     </row>
     <row r="402" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="B402" s="14"/>
-      <c r="C402" s="14"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -11264,7 +11185,7 @@
       <c r="A404" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B404" s="26" t="s">
+      <c r="B404" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C404" s="19" t="s">
@@ -11275,13 +11196,13 @@
       <c r="F404" s="1"/>
     </row>
     <row r="405" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A405" s="27" t="s">
+      <c r="A405" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B405" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C405" s="28" t="s">
+      <c r="C405" s="29" t="s">
         <v>406</v>
       </c>
       <c r="D405" s="1"/>
@@ -11289,25 +11210,25 @@
       <c r="F405" s="1"/>
     </row>
     <row r="406" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A406" s="27" t="s">
+      <c r="A406" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B406" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C406" s="28"/>
+      <c r="C406" s="29"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
     <row r="407" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A407" s="27" t="s">
+      <c r="A407" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B407" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C407" s="28"/>
+      <c r="C407" s="29"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -11321,11 +11242,11 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A409" s="14" t="s">
+      <c r="A409" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="B409" s="14"/>
-      <c r="C409" s="14"/>
+      <c r="B409" s="26"/>
+      <c r="C409" s="26"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -11344,7 +11265,7 @@
       <c r="A411" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B411" s="26" t="s">
+      <c r="B411" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C411" s="19" t="s">
@@ -11355,13 +11276,13 @@
       <c r="F411" s="1"/>
     </row>
     <row r="412" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A412" s="27" t="s">
+      <c r="A412" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B412" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C412" s="28" t="s">
+      <c r="C412" s="29" t="s">
         <v>544</v>
       </c>
       <c r="D412" s="1"/>
@@ -11369,7 +11290,7 @@
       <c r="F412" s="1"/>
     </row>
     <row r="413" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A413" s="27" t="s">
+      <c r="A413" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B413" s="21" t="s">
@@ -11383,7 +11304,7 @@
       <c r="F413" s="1"/>
     </row>
     <row r="414" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A414" s="27"/>
+      <c r="A414" s="28"/>
       <c r="B414" s="21" t="s">
         <v>269</v>
       </c>
@@ -11395,7 +11316,7 @@
       <c r="F414" s="1"/>
     </row>
     <row r="415" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A415" s="27"/>
+      <c r="A415" s="28"/>
       <c r="B415" s="21" t="s">
         <v>272</v>
       </c>
@@ -11407,7 +11328,7 @@
       <c r="F415" s="1"/>
     </row>
     <row r="416" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A416" s="27"/>
+      <c r="A416" s="28"/>
       <c r="B416" s="21" t="s">
         <v>275</v>
       </c>
@@ -11419,7 +11340,7 @@
       <c r="F416" s="1"/>
     </row>
     <row r="417" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A417" s="27"/>
+      <c r="A417" s="28"/>
       <c r="B417" s="21" t="s">
         <v>278</v>
       </c>
@@ -11431,7 +11352,7 @@
       <c r="F417" s="1"/>
     </row>
     <row r="418" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A418" s="27"/>
+      <c r="A418" s="28"/>
       <c r="B418" s="21" t="s">
         <v>281</v>
       </c>
@@ -11443,7 +11364,7 @@
       <c r="F418" s="1"/>
     </row>
     <row r="419" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A419" s="27"/>
+      <c r="A419" s="28"/>
       <c r="B419" s="21" t="s">
         <v>284</v>
       </c>
@@ -11455,7 +11376,7 @@
       <c r="F419" s="1"/>
     </row>
     <row r="420" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A420" s="27"/>
+      <c r="A420" s="28"/>
       <c r="B420" s="21" t="s">
         <v>287</v>
       </c>
@@ -11467,11 +11388,11 @@
       <c r="F420" s="1"/>
     </row>
     <row r="421" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A421" s="27"/>
+      <c r="A421" s="28"/>
       <c r="B421" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C421" s="69" t="s">
+      <c r="C421" s="66" t="s">
         <v>553</v>
       </c>
       <c r="D421" s="1"/>
@@ -11479,11 +11400,11 @@
       <c r="F421" s="1"/>
     </row>
     <row r="422" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A422" s="27"/>
+      <c r="A422" s="28"/>
       <c r="B422" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C422" s="50" t="s">
+      <c r="C422" s="21" t="s">
         <v>554</v>
       </c>
       <c r="D422" s="1"/>
@@ -11491,11 +11412,11 @@
       <c r="F422" s="1"/>
     </row>
     <row r="423" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A423" s="27"/>
+      <c r="A423" s="28"/>
       <c r="B423" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C423" s="50" t="s">
+      <c r="C423" s="21" t="s">
         <v>555</v>
       </c>
       <c r="D423" s="1"/>
@@ -11503,25 +11424,25 @@
       <c r="F423" s="1"/>
     </row>
     <row r="424" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A424" s="27" t="s">
+      <c r="A424" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B424" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C424" s="28"/>
+      <c r="C424" s="29"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
     <row r="425" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A425" s="27" t="s">
+      <c r="A425" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B425" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C425" s="28"/>
+      <c r="C425" s="29"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -11535,33 +11456,33 @@
       <c r="F426" s="1"/>
     </row>
     <row r="427" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="B427" s="14"/>
-      <c r="C427" s="14"/>
+      <c r="B427" s="26"/>
+      <c r="C427" s="26"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
     <row r="428" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A428" s="70" t="s">
+      <c r="A428" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B428" s="70"/>
-      <c r="C428" s="70"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="15"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
     </row>
     <row r="429" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A429" s="71" t="s">
+      <c r="A429" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B429" s="72" t="s">
+      <c r="B429" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C429" s="73" t="s">
+      <c r="C429" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D429" s="1"/>
@@ -11569,43 +11490,43 @@
       <c r="F429" s="1"/>
     </row>
     <row r="430" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A430" s="74" t="s">
+      <c r="A430" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B430" s="75" t="s">
+      <c r="B430" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C430" s="76"/>
+      <c r="C430" s="67"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
     </row>
     <row r="431" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A431" s="74" t="s">
+      <c r="A431" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B431" s="75" t="s">
+      <c r="B431" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C431" s="76"/>
+      <c r="C431" s="67"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
     <row r="432" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A432" s="77"/>
-      <c r="B432" s="77"/>
-      <c r="C432" s="77"/>
+      <c r="A432" s="68"/>
+      <c r="B432" s="68"/>
+      <c r="C432" s="68"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
     </row>
     <row r="433" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
+      <c r="B433" s="26"/>
+      <c r="C433" s="26"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -11624,7 +11545,7 @@
       <c r="A435" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B435" s="26" t="s">
+      <c r="B435" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C435" s="19" t="s">
@@ -11635,13 +11556,13 @@
       <c r="F435" s="1"/>
     </row>
     <row r="436" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A436" s="27" t="s">
+      <c r="A436" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B436" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C436" s="28" t="s">
+      <c r="C436" s="29" t="s">
         <v>559</v>
       </c>
       <c r="D436" s="1"/>
@@ -11649,13 +11570,13 @@
       <c r="F436" s="1"/>
     </row>
     <row r="437" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A437" s="27" t="s">
+      <c r="A437" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B437" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C437" s="28" t="s">
+      <c r="C437" s="29" t="s">
         <v>561</v>
       </c>
       <c r="D437" s="1"/>
@@ -11663,25 +11584,25 @@
       <c r="F437" s="1"/>
     </row>
     <row r="438" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A438" s="27" t="s">
+      <c r="A438" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B438" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C438" s="78"/>
+      <c r="C438" s="67"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
     </row>
     <row r="439" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A439" s="27" t="s">
+      <c r="A439" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B439" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C439" s="78"/>
+      <c r="C439" s="67"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -11695,11 +11616,11 @@
       <c r="F440" s="1"/>
     </row>
     <row r="441" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="B441" s="14"/>
-      <c r="C441" s="14"/>
+      <c r="B441" s="26"/>
+      <c r="C441" s="26"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -11718,7 +11639,7 @@
       <c r="A443" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B443" s="26" t="s">
+      <c r="B443" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C443" s="19" t="s">
@@ -11729,13 +11650,13 @@
       <c r="F443" s="1"/>
     </row>
     <row r="444" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A444" s="27" t="s">
+      <c r="A444" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B444" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C444" s="28" t="s">
+      <c r="C444" s="29" t="s">
         <v>559</v>
       </c>
       <c r="D444" s="1"/>
@@ -11743,13 +11664,13 @@
       <c r="F444" s="1"/>
     </row>
     <row r="445" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A445" s="27" t="s">
+      <c r="A445" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B445" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C445" s="28" t="s">
+      <c r="C445" s="29" t="s">
         <v>563</v>
       </c>
       <c r="D445" s="1"/>
@@ -11757,25 +11678,25 @@
       <c r="F445" s="1"/>
     </row>
     <row r="446" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A446" s="27" t="s">
+      <c r="A446" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B446" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C446" s="78"/>
+      <c r="C446" s="67"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
     </row>
     <row r="447" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A447" s="27" t="s">
+      <c r="A447" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B447" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C447" s="78"/>
+      <c r="C447" s="67"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -11789,33 +11710,33 @@
       <c r="F448" s="1"/>
     </row>
     <row r="449" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="B449" s="14"/>
-      <c r="C449" s="14"/>
+      <c r="B449" s="26"/>
+      <c r="C449" s="26"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
     </row>
     <row r="450" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A450" s="70" t="s">
+      <c r="A450" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B450" s="70"/>
-      <c r="C450" s="70"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="15"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
     </row>
     <row r="451" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A451" s="71" t="s">
+      <c r="A451" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B451" s="72" t="s">
+      <c r="B451" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C451" s="73" t="s">
+      <c r="C451" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D451" s="1"/>
@@ -11823,65 +11744,65 @@
       <c r="F451" s="1"/>
     </row>
     <row r="452" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A452" s="74" t="s">
+      <c r="A452" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B452" s="75" t="s">
+      <c r="B452" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C452" s="76"/>
+      <c r="C452" s="67"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
     </row>
     <row r="453" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A453" s="74" t="s">
+      <c r="A453" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B453" s="75" t="s">
+      <c r="B453" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C453" s="76"/>
+      <c r="C453" s="67"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
     <row r="454" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A454" s="77"/>
-      <c r="B454" s="77"/>
-      <c r="C454" s="77"/>
+      <c r="A454" s="68"/>
+      <c r="B454" s="68"/>
+      <c r="C454" s="68"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
     </row>
     <row r="455" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="B455" s="14"/>
-      <c r="C455" s="14"/>
+      <c r="B455" s="26"/>
+      <c r="C455" s="26"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
     </row>
     <row r="456" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A456" s="70" t="s">
+      <c r="A456" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B456" s="70"/>
-      <c r="C456" s="70"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="15"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
     <row r="457" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A457" s="71" t="s">
+      <c r="A457" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B457" s="72" t="s">
+      <c r="B457" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C457" s="73" t="s">
+      <c r="C457" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D457" s="1"/>
@@ -11889,43 +11810,43 @@
       <c r="F457" s="1"/>
     </row>
     <row r="458" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A458" s="74" t="s">
+      <c r="A458" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B458" s="75" t="s">
+      <c r="B458" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C458" s="76"/>
+      <c r="C458" s="67"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
     </row>
     <row r="459" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A459" s="74" t="s">
+      <c r="A459" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B459" s="75" t="s">
+      <c r="B459" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C459" s="76"/>
+      <c r="C459" s="67"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
     </row>
     <row r="460" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A460" s="77"/>
-      <c r="B460" s="77"/>
-      <c r="C460" s="77"/>
+      <c r="A460" s="68"/>
+      <c r="B460" s="68"/>
+      <c r="C460" s="68"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
     </row>
     <row r="461" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
+      <c r="B461" s="26"/>
+      <c r="C461" s="26"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -11944,7 +11865,7 @@
       <c r="A463" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B463" s="26" t="s">
+      <c r="B463" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C463" s="19" t="s">
@@ -11955,13 +11876,13 @@
       <c r="F463" s="1"/>
     </row>
     <row r="464" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A464" s="27" t="s">
+      <c r="A464" s="28" t="s">
         <v>567</v>
       </c>
       <c r="B464" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="C464" s="28" t="s">
+      <c r="C464" s="29" t="s">
         <v>569</v>
       </c>
       <c r="D464" s="1"/>
@@ -11969,13 +11890,13 @@
       <c r="F464" s="1"/>
     </row>
     <row r="465" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A465" s="27" t="s">
+      <c r="A465" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B465" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C465" s="28" t="s">
+      <c r="C465" s="29" t="s">
         <v>571</v>
       </c>
       <c r="D465" s="1"/>
@@ -11983,25 +11904,25 @@
       <c r="F465" s="1"/>
     </row>
     <row r="466" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A466" s="27" t="s">
+      <c r="A466" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B466" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C466" s="78"/>
+      <c r="C466" s="67"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
     </row>
     <row r="467" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A467" s="27" t="s">
+      <c r="A467" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B467" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C467" s="78"/>
+      <c r="C467" s="67"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
@@ -12015,33 +11936,33 @@
       <c r="F468" s="1"/>
     </row>
     <row r="469" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A469" s="14" t="s">
+      <c r="A469" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="B469" s="14"/>
-      <c r="C469" s="14"/>
+      <c r="B469" s="26"/>
+      <c r="C469" s="26"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
     </row>
     <row r="470" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A470" s="70" t="s">
+      <c r="A470" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B470" s="70"/>
-      <c r="C470" s="70"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="15"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
     </row>
     <row r="471" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A471" s="71" t="s">
+      <c r="A471" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B471" s="72" t="s">
+      <c r="B471" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C471" s="73" t="s">
+      <c r="C471" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D471" s="1"/>
@@ -12049,13 +11970,13 @@
       <c r="F471" s="1"/>
     </row>
     <row r="472" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A472" s="79" t="s">
+      <c r="A472" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="B472" s="80" t="s">
+      <c r="B472" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C472" s="81" t="s">
+      <c r="C472" s="29" t="s">
         <v>575</v>
       </c>
       <c r="D472" s="1"/>
@@ -12063,53 +11984,53 @@
       <c r="F472" s="1"/>
     </row>
     <row r="473" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A473" s="74" t="s">
+      <c r="A473" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B473" s="75" t="s">
+      <c r="B473" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C473" s="76"/>
+      <c r="C473" s="67"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
     </row>
     <row r="474" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A474" s="74" t="s">
+      <c r="A474" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B474" s="75" t="s">
+      <c r="B474" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C474" s="76"/>
+      <c r="C474" s="67"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
     </row>
     <row r="475" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A475" s="77"/>
-      <c r="B475" s="77"/>
-      <c r="C475" s="77"/>
+      <c r="A475" s="68"/>
+      <c r="B475" s="68"/>
+      <c r="C475" s="68"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
     </row>
     <row r="476" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A476" s="14" t="s">
+      <c r="A476" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="B476" s="14"/>
-      <c r="C476" s="14"/>
+      <c r="B476" s="26"/>
+      <c r="C476" s="26"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
     </row>
     <row r="477" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A477" s="70" t="s">
+      <c r="A477" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B477" s="70"/>
-      <c r="C477" s="70"/>
+      <c r="B477" s="15"/>
+      <c r="C477" s="15"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
@@ -12118,7 +12039,7 @@
       <c r="A478" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B478" s="26" t="s">
+      <c r="B478" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C478" s="19" t="s">
@@ -12129,13 +12050,13 @@
       <c r="F478" s="1"/>
     </row>
     <row r="479" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A479" s="82" t="s">
+      <c r="A479" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="B479" s="50" t="s">
+      <c r="B479" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C479" s="83" t="s">
+      <c r="C479" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D479" s="1"/>
@@ -12143,25 +12064,25 @@
       <c r="F479" s="1"/>
     </row>
     <row r="480" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A480" s="74" t="s">
+      <c r="A480" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B480" s="75" t="s">
+      <c r="B480" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C480" s="76"/>
+      <c r="C480" s="67"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
     </row>
     <row r="481" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A481" s="74" t="s">
+      <c r="A481" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B481" s="75" t="s">
+      <c r="B481" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C481" s="76"/>
+      <c r="C481" s="67"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
@@ -12183,21 +12104,21 @@
       <c r="F483" s="1"/>
     </row>
     <row r="484" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A484" s="14" t="s">
+      <c r="A484" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="B484" s="14"/>
-      <c r="C484" s="14"/>
+      <c r="B484" s="26"/>
+      <c r="C484" s="26"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
     </row>
     <row r="485" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A485" s="70" t="s">
+      <c r="A485" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B485" s="70"/>
-      <c r="C485" s="70"/>
+      <c r="B485" s="15"/>
+      <c r="C485" s="15"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
@@ -12206,7 +12127,7 @@
       <c r="A486" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B486" s="26" t="s">
+      <c r="B486" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C486" s="19" t="s">
@@ -12217,13 +12138,13 @@
       <c r="F486" s="1"/>
     </row>
     <row r="487" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A487" s="74" t="s">
+      <c r="A487" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="B487" s="75" t="s">
+      <c r="B487" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="C487" s="84" t="s">
+      <c r="C487" s="29" t="s">
         <v>579</v>
       </c>
       <c r="D487" s="1"/>
@@ -12231,25 +12152,25 @@
       <c r="F487" s="1"/>
     </row>
     <row r="488" s="3" customFormat="true" ht="45" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A488" s="74" t="s">
+      <c r="A488" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="B488" s="84" t="s">
+      <c r="B488" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="C488" s="84"/>
+      <c r="C488" s="29"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
     </row>
     <row r="489" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A489" s="74" t="s">
+      <c r="A489" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B489" s="75" t="s">
+      <c r="B489" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="C489" s="84" t="s">
+      <c r="C489" s="29" t="s">
         <v>583</v>
       </c>
       <c r="D489" s="1"/>
@@ -12257,37 +12178,37 @@
       <c r="F489" s="1"/>
     </row>
     <row r="490" s="3" customFormat="true" ht="45.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A490" s="74" t="s">
+      <c r="A490" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="B490" s="84" t="s">
+      <c r="B490" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="C490" s="84"/>
+      <c r="C490" s="29"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
     </row>
     <row r="491" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A491" s="74" t="s">
+      <c r="A491" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B491" s="75" t="s">
+      <c r="B491" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C491" s="76"/>
+      <c r="C491" s="67"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
     </row>
     <row r="492" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A492" s="74" t="s">
+      <c r="A492" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B492" s="75" t="s">
+      <c r="B492" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C492" s="76"/>
+      <c r="C492" s="67"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
@@ -12301,11 +12222,11 @@
       <c r="F493" s="1"/>
     </row>
     <row r="494" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A494" s="14" t="s">
+      <c r="A494" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="B494" s="14"/>
-      <c r="C494" s="14"/>
+      <c r="B494" s="26"/>
+      <c r="C494" s="26"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -12324,7 +12245,7 @@
       <c r="A496" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B496" s="26" t="s">
+      <c r="B496" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C496" s="19" t="s">
@@ -12335,13 +12256,13 @@
       <c r="F496" s="1"/>
     </row>
     <row r="497" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A497" s="27" t="s">
+      <c r="A497" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B497" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C497" s="28" t="s">
+      <c r="C497" s="29" t="s">
         <v>559</v>
       </c>
       <c r="D497" s="1"/>
@@ -12349,13 +12270,13 @@
       <c r="F497" s="1"/>
     </row>
     <row r="498" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A498" s="27" t="s">
+      <c r="A498" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B498" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C498" s="28" t="s">
+      <c r="C498" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D498" s="1"/>
@@ -12363,25 +12284,25 @@
       <c r="F498" s="1"/>
     </row>
     <row r="499" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A499" s="27" t="s">
+      <c r="A499" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B499" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C499" s="78"/>
+      <c r="C499" s="67"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
     </row>
     <row r="500" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A500" s="27" t="s">
+      <c r="A500" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B500" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C500" s="78"/>
+      <c r="C500" s="67"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
@@ -12395,11 +12316,11 @@
       <c r="F501" s="1"/>
     </row>
     <row r="502" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="B502" s="14"/>
-      <c r="C502" s="14"/>
+      <c r="B502" s="26"/>
+      <c r="C502" s="26"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -12418,7 +12339,7 @@
       <c r="A504" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B504" s="26" t="s">
+      <c r="B504" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C504" s="19" t="s">
@@ -12429,13 +12350,13 @@
       <c r="F504" s="1"/>
     </row>
     <row r="505" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A505" s="27" t="s">
+      <c r="A505" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B505" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C505" s="28" t="s">
+      <c r="C505" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D505" s="1"/>
@@ -12443,25 +12364,25 @@
       <c r="F505" s="1"/>
     </row>
     <row r="506" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A506" s="27" t="s">
+      <c r="A506" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B506" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C506" s="78"/>
+      <c r="C506" s="67"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
     </row>
     <row r="507" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A507" s="27" t="s">
+      <c r="A507" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B507" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C507" s="78"/>
+      <c r="C507" s="67"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
@@ -12475,11 +12396,11 @@
       <c r="F508" s="1"/>
     </row>
     <row r="509" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A509" s="14" t="s">
+      <c r="A509" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="B509" s="14"/>
-      <c r="C509" s="14"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="26"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -12498,7 +12419,7 @@
       <c r="A511" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B511" s="26" t="s">
+      <c r="B511" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C511" s="19" t="s">
@@ -12509,13 +12430,13 @@
       <c r="F511" s="1"/>
     </row>
     <row r="512" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A512" s="27" t="s">
+      <c r="A512" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B512" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C512" s="28" t="s">
+      <c r="C512" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D512" s="1"/>
@@ -12523,25 +12444,25 @@
       <c r="F512" s="1"/>
     </row>
     <row r="513" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A513" s="27" t="s">
+      <c r="A513" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B513" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C513" s="78"/>
+      <c r="C513" s="67"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
     </row>
     <row r="514" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A514" s="27" t="s">
+      <c r="A514" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B514" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C514" s="78"/>
+      <c r="C514" s="67"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
@@ -12555,11 +12476,11 @@
       <c r="F515" s="1"/>
     </row>
     <row r="516" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A516" s="14" t="s">
+      <c r="A516" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="B516" s="14"/>
-      <c r="C516" s="14"/>
+      <c r="B516" s="26"/>
+      <c r="C516" s="26"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -12578,7 +12499,7 @@
       <c r="A518" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B518" s="26" t="s">
+      <c r="B518" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C518" s="19" t="s">
@@ -12589,13 +12510,13 @@
       <c r="F518" s="1"/>
     </row>
     <row r="519" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A519" s="27" t="s">
+      <c r="A519" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B519" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C519" s="28" t="s">
+      <c r="C519" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D519" s="1"/>
@@ -12603,25 +12524,25 @@
       <c r="F519" s="1"/>
     </row>
     <row r="520" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A520" s="27" t="s">
+      <c r="A520" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B520" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C520" s="78"/>
+      <c r="C520" s="67"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
     </row>
     <row r="521" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A521" s="27" t="s">
+      <c r="A521" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B521" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C521" s="78"/>
+      <c r="C521" s="67"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
@@ -12635,11 +12556,11 @@
       <c r="F522" s="1"/>
     </row>
     <row r="523" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="B523" s="14"/>
-      <c r="C523" s="14"/>
+      <c r="B523" s="26"/>
+      <c r="C523" s="26"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -12658,7 +12579,7 @@
       <c r="A525" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B525" s="26" t="s">
+      <c r="B525" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C525" s="19" t="s">
@@ -12669,13 +12590,13 @@
       <c r="F525" s="1"/>
     </row>
     <row r="526" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A526" s="27" t="s">
+      <c r="A526" s="28" t="s">
         <v>542</v>
       </c>
       <c r="B526" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C526" s="28" t="s">
+      <c r="C526" s="29" t="s">
         <v>559</v>
       </c>
       <c r="D526" s="1"/>
@@ -12683,13 +12604,13 @@
       <c r="F526" s="1"/>
     </row>
     <row r="527" s="3" customFormat="true" ht="61.15" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A527" s="27" t="s">
+      <c r="A527" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B527" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="C527" s="28" t="s">
+      <c r="C527" s="29" t="s">
         <v>441</v>
       </c>
       <c r="D527" s="1"/>
@@ -12697,25 +12618,25 @@
       <c r="F527" s="1"/>
     </row>
     <row r="528" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A528" s="27" t="s">
+      <c r="A528" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B528" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C528" s="78"/>
+      <c r="C528" s="67"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
     </row>
     <row r="529" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A529" s="27" t="s">
+      <c r="A529" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B529" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C529" s="78"/>
+      <c r="C529" s="67"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
@@ -12729,11 +12650,11 @@
       <c r="F530" s="1"/>
     </row>
     <row r="531" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="B531" s="14"/>
-      <c r="C531" s="14"/>
+      <c r="B531" s="26"/>
+      <c r="C531" s="26"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -12752,7 +12673,7 @@
       <c r="A533" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B533" s="26" t="s">
+      <c r="B533" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C533" s="19" t="s">
@@ -12763,13 +12684,13 @@
       <c r="F533" s="1"/>
     </row>
     <row r="534" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A534" s="27" t="s">
+      <c r="A534" s="28" t="s">
         <v>567</v>
       </c>
       <c r="B534" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="C534" s="28" t="s">
+      <c r="C534" s="29" t="s">
         <v>593</v>
       </c>
       <c r="D534" s="1"/>
@@ -12777,25 +12698,25 @@
       <c r="F534" s="1"/>
     </row>
     <row r="535" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A535" s="27" t="s">
+      <c r="A535" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B535" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C535" s="78"/>
+      <c r="C535" s="67"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
     </row>
     <row r="536" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A536" s="27" t="s">
+      <c r="A536" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B536" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C536" s="78"/>
+      <c r="C536" s="67"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
@@ -12809,11 +12730,11 @@
       <c r="F537" s="1"/>
     </row>
     <row r="538" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="B538" s="14"/>
-      <c r="C538" s="14"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="26"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -12832,7 +12753,7 @@
       <c r="A540" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B540" s="26" t="s">
+      <c r="B540" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C540" s="19" t="s">
@@ -12843,13 +12764,13 @@
       <c r="F540" s="1"/>
     </row>
     <row r="541" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A541" s="27" t="s">
+      <c r="A541" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B541" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="C541" s="28" t="s">
+      <c r="C541" s="29" t="s">
         <v>596</v>
       </c>
       <c r="D541" s="1"/>
@@ -12857,13 +12778,13 @@
       <c r="F541" s="1"/>
     </row>
     <row r="542" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A542" s="27" t="s">
+      <c r="A542" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B542" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="C542" s="28" t="s">
+      <c r="C542" s="29" t="s">
         <v>598</v>
       </c>
       <c r="D542" s="1"/>
@@ -12871,73 +12792,73 @@
       <c r="F542" s="1"/>
     </row>
     <row r="543" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A543" s="27" t="s">
+      <c r="A543" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B543" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C543" s="78"/>
+      <c r="C543" s="67"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
     </row>
     <row r="544" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A544" s="27" t="s">
+      <c r="A544" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B544" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C544" s="78"/>
+      <c r="C544" s="67"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
     </row>
     <row r="545" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A545" s="27"/>
+      <c r="A545" s="28"/>
       <c r="B545" s="21"/>
-      <c r="C545" s="78"/>
+      <c r="C545" s="67"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
     </row>
-    <row r="546" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A546" s="85" t="s">
+    <row r="546" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A546" s="69" t="s">
         <v>599</v>
       </c>
-      <c r="B546" s="85"/>
-      <c r="C546" s="85"/>
+      <c r="B546" s="69"/>
+      <c r="C546" s="69"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
     </row>
     <row r="547" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A547" s="85"/>
-      <c r="B547" s="85"/>
-      <c r="C547" s="85"/>
+      <c r="A547" s="69"/>
+      <c r="B547" s="69"/>
+      <c r="C547" s="69"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
     </row>
     <row r="548" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A548" s="86" t="s">
+      <c r="A548" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="B548" s="86"/>
-      <c r="C548" s="86"/>
+      <c r="B548" s="70"/>
+      <c r="C548" s="70"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
     </row>
     <row r="549" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A549" s="87" t="s">
+      <c r="A549" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B549" s="88" t="s">
+      <c r="B549" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C549" s="89" t="s">
+      <c r="C549" s="73" t="s">
         <v>4</v>
       </c>
       <c r="D549" s="1"/>
@@ -12945,65 +12866,65 @@
       <c r="F549" s="1"/>
     </row>
     <row r="550" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A550" s="35" t="s">
+      <c r="A550" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="B550" s="36" t="s">
+      <c r="B550" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="C550" s="90"/>
+      <c r="C550" s="74"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
     </row>
     <row r="551" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A551" s="35" t="s">
+      <c r="A551" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="B551" s="36" t="s">
+      <c r="B551" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="C551" s="90"/>
+      <c r="C551" s="74"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
     </row>
     <row r="552" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A552" s="35"/>
-      <c r="B552" s="36"/>
-      <c r="C552" s="90"/>
+      <c r="A552" s="36"/>
+      <c r="B552" s="37"/>
+      <c r="C552" s="74"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
     </row>
     <row r="553" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A553" s="91" t="s">
+      <c r="A553" s="75" t="s">
         <v>600</v>
       </c>
-      <c r="B553" s="91"/>
-      <c r="C553" s="91"/>
+      <c r="B553" s="75"/>
+      <c r="C553" s="75"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
     </row>
     <row r="554" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A554" s="86" t="s">
+      <c r="A554" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="B554" s="86"/>
-      <c r="C554" s="86"/>
+      <c r="B554" s="70"/>
+      <c r="C554" s="70"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
     </row>
     <row r="555" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A555" s="87" t="s">
+      <c r="A555" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B555" s="88" t="s">
+      <c r="B555" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C555" s="89" t="s">
+      <c r="C555" s="73" t="s">
         <v>4</v>
       </c>
       <c r="D555" s="1"/>
@@ -13011,13 +12932,13 @@
       <c r="F555" s="1"/>
     </row>
     <row r="556" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A556" s="35" t="s">
+      <c r="A556" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="B556" s="36" t="s">
+      <c r="B556" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C556" s="37" t="s">
+      <c r="C556" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D556" s="1"/>
@@ -13025,13 +12946,13 @@
       <c r="F556" s="1"/>
     </row>
     <row r="557" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A557" s="35" t="s">
+      <c r="A557" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B557" s="36" t="s">
+      <c r="B557" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C557" s="37" t="s">
+      <c r="C557" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D557" s="1"/>
@@ -13039,13 +12960,13 @@
       <c r="F557" s="1"/>
     </row>
     <row r="558" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A558" s="35" t="s">
+      <c r="A558" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B558" s="36" t="s">
+      <c r="B558" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C558" s="37" t="s">
+      <c r="C558" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D558" s="1"/>
@@ -13053,13 +12974,13 @@
       <c r="F558" s="1"/>
     </row>
     <row r="559" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A559" s="35" t="s">
+      <c r="A559" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="B559" s="36" t="s">
+      <c r="B559" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C559" s="37" t="s">
+      <c r="C559" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D559" s="1"/>
@@ -13067,13 +12988,13 @@
       <c r="F559" s="1"/>
     </row>
     <row r="560" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A560" s="35" t="s">
+      <c r="A560" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="B560" s="36" t="s">
+      <c r="B560" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C560" s="37" t="s">
+      <c r="C560" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D560" s="1"/>
@@ -13081,13 +13002,13 @@
       <c r="F560" s="1"/>
     </row>
     <row r="561" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A561" s="35" t="s">
+      <c r="A561" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="B561" s="36" t="s">
+      <c r="B561" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C561" s="37" t="s">
+      <c r="C561" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D561" s="1"/>
@@ -13095,57 +13016,57 @@
       <c r="F561" s="1"/>
     </row>
     <row r="562" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A562" s="35" t="s">
+      <c r="A562" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="B562" s="36" t="s">
+      <c r="B562" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="C562" s="37"/>
+      <c r="C562" s="38"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
     </row>
     <row r="563" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A563" s="35" t="s">
+      <c r="A563" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="B563" s="36" t="s">
+      <c r="B563" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="C563" s="37"/>
+      <c r="C563" s="38"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
     </row>
     <row r="564" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="B564" s="14"/>
-      <c r="C564" s="14"/>
+      <c r="B564" s="26"/>
+      <c r="C564" s="26"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
     </row>
     <row r="565" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A565" s="86" t="s">
+      <c r="A565" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="B565" s="86"/>
-      <c r="C565" s="86"/>
+      <c r="B565" s="70"/>
+      <c r="C565" s="70"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
     </row>
     <row r="566" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A566" s="87" t="s">
+      <c r="A566" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B566" s="88" t="s">
+      <c r="B566" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C566" s="89" t="s">
+      <c r="C566" s="73" t="s">
         <v>4</v>
       </c>
       <c r="D566" s="1"/>
@@ -13153,13 +13074,13 @@
       <c r="F566" s="1"/>
     </row>
     <row r="567" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A567" s="35" t="s">
+      <c r="A567" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="B567" s="36" t="s">
+      <c r="B567" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C567" s="37" t="s">
+      <c r="C567" s="38" t="s">
         <v>607</v>
       </c>
       <c r="D567" s="1"/>
@@ -13167,13 +13088,13 @@
       <c r="F567" s="1"/>
     </row>
     <row r="568" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A568" s="35" t="s">
+      <c r="A568" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="B568" s="36" t="s">
+      <c r="B568" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C568" s="37" t="s">
+      <c r="C568" s="38" t="s">
         <v>609</v>
       </c>
       <c r="D568" s="1"/>
@@ -13181,35 +13102,35 @@
       <c r="F568" s="1"/>
     </row>
     <row r="569" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A569" s="35" t="s">
+      <c r="A569" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="B569" s="36" t="s">
+      <c r="B569" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="C569" s="37"/>
+      <c r="C569" s="38"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
     </row>
     <row r="570" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A570" s="35" t="s">
+      <c r="A570" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="B570" s="36" t="s">
+      <c r="B570" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="C570" s="37"/>
+      <c r="C570" s="38"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
     </row>
     <row r="571" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="B571" s="14"/>
-      <c r="C571" s="14"/>
+      <c r="B571" s="26"/>
+      <c r="C571" s="26"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -13228,7 +13149,7 @@
       <c r="A573" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B573" s="26" t="s">
+      <c r="B573" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C573" s="19" t="s">
@@ -13239,13 +13160,13 @@
       <c r="F573" s="1"/>
     </row>
     <row r="574" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A574" s="27" t="s">
+      <c r="A574" s="28" t="s">
         <v>606</v>
       </c>
       <c r="B574" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C574" s="28" t="s">
+      <c r="C574" s="29" t="s">
         <v>607</v>
       </c>
       <c r="D574" s="1"/>
@@ -13253,13 +13174,13 @@
       <c r="F574" s="1"/>
     </row>
     <row r="575" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A575" s="27" t="s">
+      <c r="A575" s="28" t="s">
         <v>608</v>
       </c>
       <c r="B575" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C575" s="28" t="s">
+      <c r="C575" s="29" t="s">
         <v>609</v>
       </c>
       <c r="D575" s="1"/>
@@ -13267,35 +13188,35 @@
       <c r="F575" s="1"/>
     </row>
     <row r="576" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A576" s="27" t="s">
+      <c r="A576" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B576" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C576" s="28"/>
+      <c r="C576" s="29"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
     </row>
     <row r="577" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A577" s="27" t="s">
+      <c r="A577" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B577" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C577" s="28"/>
+      <c r="C577" s="29"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
     </row>
     <row r="578" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="B578" s="14"/>
-      <c r="C578" s="14"/>
+      <c r="B578" s="26"/>
+      <c r="C578" s="26"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -13339,11 +13260,11 @@
       <c r="F581" s="1"/>
     </row>
     <row r="582" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A582" s="14" t="s">
+      <c r="A582" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="B582" s="14"/>
-      <c r="C582" s="14"/>
+      <c r="B582" s="26"/>
+      <c r="C582" s="26"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -13429,19 +13350,19 @@
       <c r="F588" s="1"/>
     </row>
     <row r="589" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A589" s="30"/>
-      <c r="B589" s="30"/>
-      <c r="C589" s="30"/>
+      <c r="A589" s="31"/>
+      <c r="B589" s="31"/>
+      <c r="C589" s="31"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
     </row>
     <row r="590" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A590" s="92" t="s">
+      <c r="A590" s="76" t="s">
         <v>615</v>
       </c>
-      <c r="B590" s="92"/>
-      <c r="C590" s="92"/>
+      <c r="B590" s="76"/>
+      <c r="C590" s="76"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
@@ -13457,13 +13378,13 @@
       <c r="F591" s="1"/>
     </row>
     <row r="592" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A592" s="26" t="s">
+      <c r="A592" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B592" s="26" t="s">
+      <c r="B592" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C592" s="26" t="s">
+      <c r="C592" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D592" s="1"/>
@@ -13485,7 +13406,7 @@
       <c r="F593" s="1"/>
     </row>
     <row r="594" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A594" s="27" t="s">
+      <c r="A594" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B594" s="21" t="s">
@@ -13497,7 +13418,7 @@
       <c r="F594" s="1"/>
     </row>
     <row r="595" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A595" s="27" t="s">
+      <c r="A595" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B595" s="21" t="s">
@@ -13517,11 +13438,11 @@
       <c r="F596" s="1"/>
     </row>
     <row r="597" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A597" s="92" t="s">
+      <c r="A597" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="B597" s="92"/>
-      <c r="C597" s="92"/>
+      <c r="B597" s="76"/>
+      <c r="C597" s="76"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
@@ -13537,13 +13458,13 @@
       <c r="F598" s="1"/>
     </row>
     <row r="599" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A599" s="26" t="s">
+      <c r="A599" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B599" s="26" t="s">
+      <c r="B599" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C599" s="26" t="s">
+      <c r="C599" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D599" s="1"/>
@@ -13554,10 +13475,10 @@
       <c r="A600" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="B600" s="64" t="s">
+      <c r="B600" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="C600" s="65" t="s">
+      <c r="C600" s="63" t="s">
         <v>498</v>
       </c>
       <c r="D600" s="1"/>
@@ -13565,7 +13486,7 @@
       <c r="F600" s="1"/>
     </row>
     <row r="601" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A601" s="27" t="s">
+      <c r="A601" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B601" s="21" t="s">
@@ -13577,7 +13498,7 @@
       <c r="F601" s="1"/>
     </row>
     <row r="602" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A602" s="27" t="s">
+      <c r="A602" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B602" s="21" t="s">
@@ -13589,7 +13510,7 @@
       <c r="F602" s="1"/>
     </row>
     <row r="603" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A603" s="93"/>
+      <c r="A603" s="77"/>
       <c r="B603" s="21"/>
       <c r="C603" s="21"/>
       <c r="D603" s="1"/>
@@ -13597,11 +13518,11 @@
       <c r="F603" s="1"/>
     </row>
     <row r="604" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A604" s="92" t="s">
+      <c r="A604" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="B604" s="92"/>
-      <c r="C604" s="92"/>
+      <c r="B604" s="76"/>
+      <c r="C604" s="76"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
@@ -13617,13 +13538,13 @@
       <c r="F605" s="1"/>
     </row>
     <row r="606" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A606" s="26" t="s">
+      <c r="A606" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B606" s="26" t="s">
+      <c r="B606" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C606" s="26" t="s">
+      <c r="C606" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D606" s="1"/>
@@ -13634,10 +13555,10 @@
       <c r="A607" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="B607" s="64" t="s">
+      <c r="B607" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="C607" s="66" t="s">
+      <c r="C607" s="64" t="s">
         <v>500</v>
       </c>
       <c r="D607" s="1"/>
@@ -13645,7 +13566,7 @@
       <c r="F607" s="1"/>
     </row>
     <row r="608" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A608" s="27" t="s">
+      <c r="A608" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B608" s="21" t="s">
@@ -13657,7 +13578,7 @@
       <c r="F608" s="1"/>
     </row>
     <row r="609" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A609" s="27" t="s">
+      <c r="A609" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B609" s="21" t="s">
@@ -13669,7 +13590,7 @@
       <c r="F609" s="1"/>
     </row>
     <row r="610" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A610" s="93"/>
+      <c r="A610" s="77"/>
       <c r="B610" s="21"/>
       <c r="C610" s="21"/>
       <c r="D610" s="1"/>
@@ -13677,11 +13598,11 @@
       <c r="F610" s="1"/>
     </row>
     <row r="611" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A611" s="92" t="s">
+      <c r="A611" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="B611" s="92"/>
-      <c r="C611" s="92"/>
+      <c r="B611" s="76"/>
+      <c r="C611" s="76"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
@@ -13697,13 +13618,13 @@
       <c r="F612" s="1"/>
     </row>
     <row r="613" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A613" s="26" t="s">
+      <c r="A613" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B613" s="26" t="s">
+      <c r="B613" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C613" s="26" t="s">
+      <c r="C613" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D613" s="1"/>
@@ -13714,10 +13635,10 @@
       <c r="A614" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="B614" s="64" t="s">
+      <c r="B614" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="C614" s="65" t="s">
+      <c r="C614" s="63" t="s">
         <v>498</v>
       </c>
       <c r="D614" s="1"/>
@@ -13725,7 +13646,7 @@
       <c r="F614" s="1"/>
     </row>
     <row r="615" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A615" s="27" t="s">
+      <c r="A615" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B615" s="21" t="s">
@@ -13737,7 +13658,7 @@
       <c r="F615" s="1"/>
     </row>
     <row r="616" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A616" s="27" t="s">
+      <c r="A616" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B616" s="21" t="s">
@@ -13757,11 +13678,11 @@
       <c r="F617" s="1"/>
     </row>
     <row r="618" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A618" s="92" t="s">
+      <c r="A618" s="76" t="s">
         <v>619</v>
       </c>
-      <c r="B618" s="92"/>
-      <c r="C618" s="92"/>
+      <c r="B618" s="76"/>
+      <c r="C618" s="76"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
@@ -13777,13 +13698,13 @@
       <c r="F619" s="1"/>
     </row>
     <row r="620" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A620" s="26" t="s">
+      <c r="A620" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B620" s="26" t="s">
+      <c r="B620" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C620" s="26" t="s">
+      <c r="C620" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D620" s="1"/>
@@ -13794,10 +13715,10 @@
       <c r="A621" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="B621" s="64" t="s">
+      <c r="B621" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="C621" s="66" t="s">
+      <c r="C621" s="64" t="s">
         <v>503</v>
       </c>
       <c r="D621" s="1"/>
@@ -13805,43 +13726,43 @@
       <c r="F621" s="1"/>
     </row>
     <row r="622" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A622" s="27" t="s">
+      <c r="A622" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B622" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C622" s="65"/>
+      <c r="C622" s="63"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
     </row>
     <row r="623" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A623" s="27" t="s">
+      <c r="A623" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B623" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C623" s="65"/>
+      <c r="C623" s="63"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
     </row>
     <row r="624" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A624" s="93"/>
-      <c r="B624" s="64"/>
-      <c r="C624" s="65"/>
+      <c r="A624" s="77"/>
+      <c r="B624" s="62"/>
+      <c r="C624" s="63"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
     </row>
     <row r="625" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A625" s="92" t="s">
+      <c r="A625" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="B625" s="92"/>
-      <c r="C625" s="92"/>
+      <c r="B625" s="76"/>
+      <c r="C625" s="76"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
@@ -13857,13 +13778,13 @@
       <c r="F626" s="1"/>
     </row>
     <row r="627" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A627" s="26" t="s">
+      <c r="A627" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B627" s="26" t="s">
+      <c r="B627" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C627" s="26" t="s">
+      <c r="C627" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D627" s="1"/>
@@ -13874,10 +13795,10 @@
       <c r="A628" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B628" s="64" t="s">
+      <c r="B628" s="62" t="s">
         <v>621</v>
       </c>
-      <c r="C628" s="66" t="s">
+      <c r="C628" s="64" t="s">
         <v>622</v>
       </c>
       <c r="D628" s="1"/>
@@ -13888,10 +13809,10 @@
       <c r="A629" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B629" s="64" t="s">
+      <c r="B629" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="C629" s="66" t="s">
+      <c r="C629" s="64" t="s">
         <v>624</v>
       </c>
       <c r="D629" s="1"/>
@@ -13902,10 +13823,10 @@
       <c r="A630" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B630" s="64" t="s">
+      <c r="B630" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="C630" s="66" t="s">
+      <c r="C630" s="64" t="s">
         <v>626</v>
       </c>
       <c r="D630" s="1"/>
@@ -13913,43 +13834,43 @@
       <c r="F630" s="1"/>
     </row>
     <row r="631" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A631" s="27" t="s">
+      <c r="A631" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B631" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C631" s="65"/>
+      <c r="C631" s="63"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
     </row>
     <row r="632" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A632" s="27" t="s">
+      <c r="A632" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B632" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C632" s="65"/>
+      <c r="C632" s="63"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
     </row>
     <row r="633" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A633" s="93"/>
-      <c r="B633" s="64"/>
-      <c r="C633" s="65"/>
+      <c r="A633" s="77"/>
+      <c r="B633" s="62"/>
+      <c r="C633" s="63"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
     </row>
     <row r="634" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A634" s="92" t="s">
+      <c r="A634" s="76" t="s">
         <v>627</v>
       </c>
-      <c r="B634" s="92"/>
-      <c r="C634" s="92"/>
+      <c r="B634" s="76"/>
+      <c r="C634" s="76"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
@@ -13965,13 +13886,13 @@
       <c r="F635" s="1"/>
     </row>
     <row r="636" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A636" s="26" t="s">
+      <c r="A636" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B636" s="26" t="s">
+      <c r="B636" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C636" s="26" t="s">
+      <c r="C636" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D636" s="1"/>
@@ -13982,10 +13903,10 @@
       <c r="A637" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B637" s="64" t="s">
+      <c r="B637" s="62" t="s">
         <v>621</v>
       </c>
-      <c r="C637" s="66" t="s">
+      <c r="C637" s="64" t="s">
         <v>622</v>
       </c>
       <c r="D637" s="1"/>
@@ -13996,10 +13917,10 @@
       <c r="A638" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B638" s="64" t="s">
+      <c r="B638" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="C638" s="66" t="s">
+      <c r="C638" s="64" t="s">
         <v>624</v>
       </c>
       <c r="D638" s="1"/>
@@ -14010,10 +13931,10 @@
       <c r="A639" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B639" s="64" t="s">
+      <c r="B639" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="C639" s="66" t="s">
+      <c r="C639" s="64" t="s">
         <v>626</v>
       </c>
       <c r="D639" s="1"/>
@@ -14021,43 +13942,43 @@
       <c r="F639" s="1"/>
     </row>
     <row r="640" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A640" s="27" t="s">
+      <c r="A640" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B640" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C640" s="65"/>
+      <c r="C640" s="63"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
     </row>
     <row r="641" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A641" s="27" t="s">
+      <c r="A641" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B641" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C641" s="65"/>
+      <c r="C641" s="63"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
     </row>
     <row r="642" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A642" s="93"/>
-      <c r="B642" s="64"/>
-      <c r="C642" s="65"/>
+      <c r="A642" s="77"/>
+      <c r="B642" s="62"/>
+      <c r="C642" s="63"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
     </row>
     <row r="643" s="3" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A643" s="92" t="s">
+      <c r="A643" s="76" t="s">
         <v>628</v>
       </c>
-      <c r="B643" s="92"/>
-      <c r="C643" s="92"/>
+      <c r="B643" s="76"/>
+      <c r="C643" s="76"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
@@ -14073,13 +13994,13 @@
       <c r="F644" s="1"/>
     </row>
     <row r="645" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A645" s="26" t="s">
+      <c r="A645" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B645" s="26" t="s">
+      <c r="B645" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C645" s="26" t="s">
+      <c r="C645" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D645" s="1"/>
@@ -14090,10 +14011,10 @@
       <c r="A646" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B646" s="64" t="s">
+      <c r="B646" s="62" t="s">
         <v>621</v>
       </c>
-      <c r="C646" s="66" t="s">
+      <c r="C646" s="64" t="s">
         <v>622</v>
       </c>
       <c r="D646" s="1"/>
@@ -14104,10 +14025,10 @@
       <c r="A647" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B647" s="64" t="s">
+      <c r="B647" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="C647" s="66" t="s">
+      <c r="C647" s="64" t="s">
         <v>624</v>
       </c>
       <c r="D647" s="1"/>
@@ -14118,10 +14039,10 @@
       <c r="A648" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B648" s="64" t="s">
+      <c r="B648" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="C648" s="66" t="s">
+      <c r="C648" s="64" t="s">
         <v>626</v>
       </c>
       <c r="D648" s="1"/>
@@ -14129,43 +14050,43 @@
       <c r="F648" s="1"/>
     </row>
     <row r="649" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A649" s="27" t="s">
+      <c r="A649" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B649" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C649" s="65"/>
+      <c r="C649" s="63"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
     </row>
     <row r="650" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A650" s="27" t="s">
+      <c r="A650" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B650" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C650" s="65"/>
+      <c r="C650" s="63"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
     </row>
     <row r="651" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A651" s="93"/>
-      <c r="B651" s="64"/>
-      <c r="C651" s="65"/>
+      <c r="A651" s="77"/>
+      <c r="B651" s="62"/>
+      <c r="C651" s="63"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
     </row>
     <row r="652" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A652" s="92" t="s">
+      <c r="A652" s="76" t="s">
         <v>629</v>
       </c>
-      <c r="B652" s="92"/>
-      <c r="C652" s="92"/>
+      <c r="B652" s="76"/>
+      <c r="C652" s="76"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
@@ -14181,13 +14102,13 @@
       <c r="F653" s="1"/>
     </row>
     <row r="654" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A654" s="26" t="s">
+      <c r="A654" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B654" s="26" t="s">
+      <c r="B654" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C654" s="26" t="s">
+      <c r="C654" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D654" s="1"/>
@@ -14198,10 +14119,10 @@
       <c r="A655" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B655" s="64" t="s">
+      <c r="B655" s="62" t="s">
         <v>630</v>
       </c>
-      <c r="C655" s="66" t="s">
+      <c r="C655" s="64" t="s">
         <v>511</v>
       </c>
       <c r="D655" s="1"/>
@@ -14209,43 +14130,43 @@
       <c r="F655" s="1"/>
     </row>
     <row r="656" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A656" s="27" t="s">
+      <c r="A656" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B656" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C656" s="65"/>
+      <c r="C656" s="63"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
     </row>
     <row r="657" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A657" s="27" t="s">
+      <c r="A657" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B657" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C657" s="65"/>
+      <c r="C657" s="63"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
     </row>
     <row r="658" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A658" s="30"/>
-      <c r="B658" s="30"/>
-      <c r="C658" s="94"/>
+      <c r="A658" s="31"/>
+      <c r="B658" s="31"/>
+      <c r="C658" s="78"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
     </row>
     <row r="659" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A659" s="92" t="s">
+      <c r="A659" s="76" t="s">
         <v>631</v>
       </c>
-      <c r="B659" s="92"/>
-      <c r="C659" s="92"/>
+      <c r="B659" s="76"/>
+      <c r="C659" s="76"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
@@ -14261,13 +14182,13 @@
       <c r="F660" s="1"/>
     </row>
     <row r="661" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A661" s="26" t="s">
+      <c r="A661" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B661" s="26" t="s">
+      <c r="B661" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C661" s="26" t="s">
+      <c r="C661" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D661" s="1"/>
@@ -14278,10 +14199,10 @@
       <c r="A662" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B662" s="67" t="s">
+      <c r="B662" s="65" t="s">
         <v>633</v>
       </c>
-      <c r="C662" s="66" t="s">
+      <c r="C662" s="64" t="s">
         <v>634</v>
       </c>
       <c r="D662" s="1"/>
@@ -14289,43 +14210,43 @@
       <c r="F662" s="1"/>
     </row>
     <row r="663" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A663" s="27" t="s">
+      <c r="A663" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B663" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C663" s="65"/>
+      <c r="C663" s="63"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
     </row>
     <row r="664" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A664" s="27" t="s">
+      <c r="A664" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B664" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C664" s="65"/>
+      <c r="C664" s="63"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
     </row>
     <row r="665" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A665" s="30"/>
-      <c r="B665" s="30"/>
-      <c r="C665" s="94"/>
+      <c r="A665" s="31"/>
+      <c r="B665" s="31"/>
+      <c r="C665" s="78"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
     </row>
     <row r="666" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A666" s="92" t="s">
+      <c r="A666" s="76" t="s">
         <v>635</v>
       </c>
-      <c r="B666" s="92"/>
-      <c r="C666" s="92"/>
+      <c r="B666" s="76"/>
+      <c r="C666" s="76"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
@@ -14341,13 +14262,13 @@
       <c r="F667" s="1"/>
     </row>
     <row r="668" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A668" s="26" t="s">
+      <c r="A668" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B668" s="26" t="s">
+      <c r="B668" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C668" s="26" t="s">
+      <c r="C668" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D668" s="1"/>
@@ -14358,10 +14279,10 @@
       <c r="A669" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B669" s="67" t="s">
+      <c r="B669" s="65" t="s">
         <v>636</v>
       </c>
-      <c r="C669" s="66" t="s">
+      <c r="C669" s="64" t="s">
         <v>637</v>
       </c>
       <c r="D669" s="1"/>
@@ -14369,43 +14290,43 @@
       <c r="F669" s="1"/>
     </row>
     <row r="670" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A670" s="27" t="s">
+      <c r="A670" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B670" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C670" s="65"/>
+      <c r="C670" s="63"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
     </row>
     <row r="671" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A671" s="27" t="s">
+      <c r="A671" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B671" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C671" s="65"/>
+      <c r="C671" s="63"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
     </row>
     <row r="672" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A672" s="30"/>
-      <c r="B672" s="30"/>
-      <c r="C672" s="94"/>
+      <c r="A672" s="31"/>
+      <c r="B672" s="31"/>
+      <c r="C672" s="78"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
     </row>
     <row r="673" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A673" s="92" t="s">
+      <c r="A673" s="76" t="s">
         <v>638</v>
       </c>
-      <c r="B673" s="92"/>
-      <c r="C673" s="92"/>
+      <c r="B673" s="76"/>
+      <c r="C673" s="76"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
@@ -14421,13 +14342,13 @@
       <c r="F674" s="1"/>
     </row>
     <row r="675" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A675" s="26" t="s">
+      <c r="A675" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B675" s="26" t="s">
+      <c r="B675" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C675" s="26" t="s">
+      <c r="C675" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D675" s="1"/>
@@ -14438,10 +14359,10 @@
       <c r="A676" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B676" s="67" t="s">
+      <c r="B676" s="65" t="s">
         <v>639</v>
       </c>
-      <c r="C676" s="66" t="s">
+      <c r="C676" s="64" t="s">
         <v>637</v>
       </c>
       <c r="D676" s="1"/>
@@ -14449,43 +14370,43 @@
       <c r="F676" s="1"/>
     </row>
     <row r="677" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A677" s="27" t="s">
+      <c r="A677" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B677" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C677" s="65"/>
+      <c r="C677" s="63"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
     </row>
     <row r="678" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A678" s="27" t="s">
+      <c r="A678" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B678" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C678" s="65"/>
+      <c r="C678" s="63"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
     </row>
     <row r="679" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A679" s="30"/>
-      <c r="B679" s="30"/>
-      <c r="C679" s="94"/>
+      <c r="A679" s="31"/>
+      <c r="B679" s="31"/>
+      <c r="C679" s="78"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
     </row>
     <row r="680" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A680" s="92" t="s">
+      <c r="A680" s="76" t="s">
         <v>640</v>
       </c>
-      <c r="B680" s="92"/>
-      <c r="C680" s="92"/>
+      <c r="B680" s="76"/>
+      <c r="C680" s="76"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
@@ -14501,13 +14422,13 @@
       <c r="F681" s="1"/>
     </row>
     <row r="682" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A682" s="26" t="s">
+      <c r="A682" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B682" s="26" t="s">
+      <c r="B682" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C682" s="26" t="s">
+      <c r="C682" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D682" s="1"/>
@@ -14521,7 +14442,7 @@
       <c r="B683" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="C683" s="66" t="s">
+      <c r="C683" s="64" t="s">
         <v>641</v>
       </c>
       <c r="D683" s="1"/>
@@ -14529,273 +14450,273 @@
       <c r="F683" s="1"/>
     </row>
     <row r="684" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A684" s="27" t="s">
+      <c r="A684" s="28" t="s">
         <v>537</v>
       </c>
       <c r="B684" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C684" s="65"/>
+      <c r="C684" s="63"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
     </row>
     <row r="685" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A685" s="27" t="s">
+      <c r="A685" s="28" t="s">
         <v>539</v>
       </c>
       <c r="B685" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C685" s="65"/>
+      <c r="C685" s="63"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
     </row>
     <row r="686" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A686" s="30"/>
-      <c r="B686" s="30"/>
-      <c r="C686" s="94"/>
+      <c r="A686" s="31"/>
+      <c r="B686" s="31"/>
+      <c r="C686" s="78"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
     </row>
     <row r="687" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A687" s="30"/>
-      <c r="B687" s="30"/>
-      <c r="C687" s="94"/>
+      <c r="A687" s="31"/>
+      <c r="B687" s="31"/>
+      <c r="C687" s="78"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
     </row>
     <row r="688" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A688" s="30"/>
-      <c r="B688" s="30"/>
-      <c r="C688" s="94"/>
+      <c r="A688" s="31"/>
+      <c r="B688" s="31"/>
+      <c r="C688" s="78"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
     </row>
     <row r="689" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A689" s="30"/>
-      <c r="B689" s="30"/>
-      <c r="C689" s="94"/>
+      <c r="A689" s="31"/>
+      <c r="B689" s="31"/>
+      <c r="C689" s="78"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
     </row>
     <row r="690" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A690" s="30"/>
-      <c r="B690" s="30"/>
-      <c r="C690" s="94"/>
+      <c r="A690" s="31"/>
+      <c r="B690" s="31"/>
+      <c r="C690" s="78"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
     </row>
     <row r="691" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A691" s="30"/>
-      <c r="B691" s="30"/>
-      <c r="C691" s="94"/>
+      <c r="A691" s="31"/>
+      <c r="B691" s="31"/>
+      <c r="C691" s="78"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
     </row>
     <row r="692" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A692" s="30"/>
-      <c r="B692" s="30"/>
-      <c r="C692" s="94"/>
+      <c r="A692" s="31"/>
+      <c r="B692" s="31"/>
+      <c r="C692" s="78"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
     </row>
     <row r="693" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A693" s="30"/>
-      <c r="B693" s="30"/>
-      <c r="C693" s="94"/>
+      <c r="A693" s="31"/>
+      <c r="B693" s="31"/>
+      <c r="C693" s="78"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
     </row>
     <row r="694" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A694" s="30"/>
-      <c r="B694" s="30"/>
-      <c r="C694" s="94"/>
+      <c r="A694" s="31"/>
+      <c r="B694" s="31"/>
+      <c r="C694" s="78"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
     </row>
     <row r="695" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A695" s="30"/>
-      <c r="B695" s="30"/>
-      <c r="C695" s="94"/>
+      <c r="A695" s="31"/>
+      <c r="B695" s="31"/>
+      <c r="C695" s="78"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
     </row>
     <row r="696" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A696" s="30"/>
-      <c r="B696" s="30"/>
-      <c r="C696" s="94"/>
+      <c r="A696" s="31"/>
+      <c r="B696" s="31"/>
+      <c r="C696" s="78"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
     </row>
     <row r="697" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A697" s="30"/>
-      <c r="B697" s="30"/>
-      <c r="C697" s="94"/>
+      <c r="A697" s="31"/>
+      <c r="B697" s="31"/>
+      <c r="C697" s="78"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
     </row>
     <row r="698" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A698" s="30"/>
-      <c r="B698" s="30"/>
-      <c r="C698" s="94"/>
+      <c r="A698" s="31"/>
+      <c r="B698" s="31"/>
+      <c r="C698" s="78"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
     </row>
     <row r="699" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A699" s="30"/>
-      <c r="B699" s="30"/>
-      <c r="C699" s="94"/>
+      <c r="A699" s="31"/>
+      <c r="B699" s="31"/>
+      <c r="C699" s="78"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
     </row>
     <row r="700" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A700" s="30"/>
-      <c r="B700" s="30"/>
-      <c r="C700" s="94"/>
+      <c r="A700" s="31"/>
+      <c r="B700" s="31"/>
+      <c r="C700" s="78"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
     </row>
     <row r="701" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A701" s="30"/>
-      <c r="B701" s="30"/>
-      <c r="C701" s="94"/>
+      <c r="A701" s="31"/>
+      <c r="B701" s="31"/>
+      <c r="C701" s="78"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
     </row>
     <row r="702" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A702" s="30"/>
-      <c r="B702" s="30"/>
-      <c r="C702" s="94"/>
+      <c r="A702" s="31"/>
+      <c r="B702" s="31"/>
+      <c r="C702" s="78"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
     </row>
     <row r="703" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A703" s="30"/>
-      <c r="B703" s="30"/>
-      <c r="C703" s="94"/>
+      <c r="A703" s="31"/>
+      <c r="B703" s="31"/>
+      <c r="C703" s="78"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
     </row>
     <row r="704" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A704" s="30"/>
-      <c r="B704" s="30"/>
-      <c r="C704" s="94"/>
+      <c r="A704" s="31"/>
+      <c r="B704" s="31"/>
+      <c r="C704" s="78"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
     </row>
     <row r="705" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A705" s="30"/>
-      <c r="B705" s="30"/>
-      <c r="C705" s="94"/>
+      <c r="A705" s="31"/>
+      <c r="B705" s="31"/>
+      <c r="C705" s="78"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
     </row>
     <row r="706" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A706" s="30"/>
-      <c r="B706" s="30"/>
-      <c r="C706" s="94"/>
+      <c r="A706" s="31"/>
+      <c r="B706" s="31"/>
+      <c r="C706" s="78"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
     </row>
     <row r="707" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A707" s="30"/>
-      <c r="B707" s="30"/>
-      <c r="C707" s="94"/>
+      <c r="A707" s="31"/>
+      <c r="B707" s="31"/>
+      <c r="C707" s="78"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
     </row>
     <row r="708" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A708" s="30"/>
-      <c r="B708" s="30"/>
-      <c r="C708" s="94"/>
+      <c r="A708" s="31"/>
+      <c r="B708" s="31"/>
+      <c r="C708" s="78"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
     </row>
     <row r="709" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A709" s="30"/>
-      <c r="B709" s="30"/>
-      <c r="C709" s="94"/>
+      <c r="A709" s="31"/>
+      <c r="B709" s="31"/>
+      <c r="C709" s="78"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
     </row>
     <row r="710" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A710" s="30"/>
-      <c r="B710" s="30"/>
-      <c r="C710" s="94"/>
+      <c r="A710" s="31"/>
+      <c r="B710" s="31"/>
+      <c r="C710" s="78"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
     </row>
     <row r="711" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A711" s="30"/>
-      <c r="B711" s="30"/>
-      <c r="C711" s="94"/>
+      <c r="A711" s="31"/>
+      <c r="B711" s="31"/>
+      <c r="C711" s="78"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
     </row>
     <row r="712" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A712" s="30"/>
-      <c r="B712" s="30"/>
-      <c r="C712" s="94"/>
+      <c r="A712" s="31"/>
+      <c r="B712" s="31"/>
+      <c r="C712" s="78"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
     <row r="713" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A713" s="30"/>
-      <c r="B713" s="30"/>
-      <c r="C713" s="94"/>
+      <c r="A713" s="31"/>
+      <c r="B713" s="31"/>
+      <c r="C713" s="78"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
     </row>
     <row r="714" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A714" s="30"/>
-      <c r="B714" s="30"/>
-      <c r="C714" s="94"/>
+      <c r="A714" s="31"/>
+      <c r="B714" s="31"/>
+      <c r="C714" s="78"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
     </row>
     <row r="715" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A715" s="30"/>
-      <c r="B715" s="30"/>
-      <c r="C715" s="94"/>
+      <c r="A715" s="31"/>
+      <c r="B715" s="31"/>
+      <c r="C715" s="78"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
     </row>
     <row r="716" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A716" s="30"/>
-      <c r="B716" s="30"/>
-      <c r="C716" s="94"/>
+      <c r="A716" s="31"/>
+      <c r="B716" s="31"/>
+      <c r="C716" s="78"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
@@ -14809,25 +14730,25 @@
       <c r="F717" s="1"/>
     </row>
     <row r="718" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A718" s="95"/>
-      <c r="B718" s="95"/>
-      <c r="C718" s="96"/>
+      <c r="A718" s="79"/>
+      <c r="B718" s="79"/>
+      <c r="C718" s="80"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
     </row>
     <row r="719" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="95"/>
-      <c r="B719" s="95"/>
-      <c r="C719" s="96"/>
+      <c r="A719" s="79"/>
+      <c r="B719" s="79"/>
+      <c r="C719" s="80"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
     </row>
     <row r="720" s="3" customFormat="true" ht="73.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A720" s="95"/>
-      <c r="B720" s="95"/>
-      <c r="C720" s="96"/>
+      <c r="A720" s="79"/>
+      <c r="B720" s="79"/>
+      <c r="C720" s="80"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
@@ -15015,7 +14936,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15030,348 +14950,348 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="97" width="11.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="51.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="99" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="81" width="11.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="82" width="51.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="83" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="85" t="s">
         <v>643</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="86" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="86" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="87" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="104" t="n">
+      <c r="A3" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="89" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="106" t="n">
+      <c r="C3" s="90" t="n">
         <v>42365</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="38" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="104" t="n">
+      <c r="A4" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="106" t="n">
+      <c r="C4" s="90" t="n">
         <v>42426</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="104" t="n">
+      <c r="A5" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="106" t="n">
+      <c r="C5" s="90" t="n">
         <v>42468</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="38" t="s">
         <v>651</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="104" t="n">
+      <c r="A6" s="88" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="C6" s="106" t="n">
+      <c r="C6" s="90" t="n">
         <v>42503</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="104" t="n">
+      <c r="A7" s="88" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="89" t="s">
         <v>647</v>
       </c>
-      <c r="C7" s="106" t="n">
+      <c r="C7" s="90" t="n">
         <v>43599</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="38" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104" t="n">
+      <c r="A9" s="88" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C9" s="106" t="n">
+      <c r="C9" s="90" t="n">
         <v>44119</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="38" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="104" t="n">
+      <c r="A10" s="88" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C10" s="106" t="n">
+      <c r="C10" s="90" t="n">
         <v>44123</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="38" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="104" t="n">
+      <c r="A11" s="88" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C11" s="106" t="n">
+      <c r="C11" s="90" t="n">
         <v>44137</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="38" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="104" t="n">
+      <c r="A12" s="88" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C12" s="106" t="n">
+      <c r="C12" s="90" t="n">
         <v>44210</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="38" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="104" t="n">
+      <c r="A13" s="88" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C13" s="106" t="n">
+      <c r="C13" s="90" t="n">
         <v>44267</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="38" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="104" t="n">
+      <c r="A14" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C14" s="106" t="n">
+      <c r="C14" s="90" t="n">
         <v>44316</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="38" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="104" t="n">
+      <c r="A15" s="88" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="C15" s="106" t="n">
+      <c r="C15" s="90" t="n">
         <v>44523</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="92" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="109" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="92" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="104"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="110"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="109"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="92"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="110"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="93"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="110"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="93"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="104"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="110"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="93"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="110"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="104"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="93"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="110"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="93"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="110"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="93"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="110"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="110"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="110"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="93"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="110"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="110"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="110"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="93"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="110"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="93"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="110"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="93"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="111"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Protocol/Infini-Solar V&VII&VIII&VIV& V II 6K LV Split-Phase&TWIN protocol 202205....xlsx
+++ b/Protocol/Infini-Solar V&VII&VIII&VIV& V II 6K LV Split-Phase&TWIN protocol 202205....xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -5466,10 +5466,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5515,6 +5511,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5662,7 +5662,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6004,11 +6004,11 @@
   </sheetPr>
   <dimension ref="A1:M720"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A553" activeCellId="0" sqref="A553"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.87"/>
@@ -6187,7 +6187,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="16" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="17" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="144.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+    <row r="18" s="3" customFormat="true" ht="144.75" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="19" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -6233,12 +6233,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A20" s="26" t="s">
+    <row r="20" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
+      <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6257,7 +6257,7 @@
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6268,13 +6268,13 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="1"/>
@@ -6282,13 +6282,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1"/>
@@ -6296,13 +6296,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1"/>
@@ -6310,13 +6310,13 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1"/>
@@ -6324,13 +6324,13 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="1"/>
@@ -6338,13 +6338,13 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1"/>
@@ -6370,27 +6370,27 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6409,7 +6409,7 @@
       <c r="A35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -6420,13 +6420,13 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="1"/>
@@ -6434,19 +6434,19 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" s="3" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6465,7 +6465,7 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -6476,13 +6476,13 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="1"/>
@@ -6490,13 +6490,13 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="1"/>
@@ -6504,19 +6504,19 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -6535,7 +6535,7 @@
       <c r="A46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -6546,13 +6546,13 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="1"/>
@@ -6560,13 +6560,13 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="1"/>
@@ -6574,13 +6574,13 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="1"/>
@@ -6588,19 +6588,19 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -6619,7 +6619,7 @@
       <c r="A53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -6630,13 +6630,13 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="1"/>
@@ -6644,13 +6644,13 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="1"/>
@@ -6658,13 +6658,13 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="1"/>
@@ -6672,13 +6672,13 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="1"/>
@@ -6686,9 +6686,9 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6765,7 +6765,7 @@
       <c r="A66" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -6776,37 +6776,37 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="29"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="29"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="29"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6843,7 +6843,7 @@
       <c r="A73" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -6854,13 +6854,13 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="1"/>
@@ -6868,13 +6868,13 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="1"/>
@@ -6882,13 +6882,13 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D76" s="1"/>
@@ -6896,13 +6896,13 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="1"/>
@@ -6910,13 +6910,13 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="1"/>
@@ -6924,13 +6924,13 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>97</v>
       </c>
       <c r="D79" s="1"/>
@@ -6938,13 +6938,13 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="1"/>
@@ -6952,13 +6952,13 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1"/>
@@ -6966,13 +6966,13 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="1"/>
@@ -6980,13 +6980,13 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D83" s="1"/>
@@ -6994,13 +6994,13 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>112</v>
       </c>
       <c r="D84" s="1"/>
@@ -7008,13 +7008,13 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="28" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="1"/>
@@ -7022,13 +7022,13 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="1"/>
@@ -7036,13 +7036,13 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="28" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="1"/>
@@ -7050,13 +7050,13 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="1"/>
@@ -7064,13 +7064,13 @@
       <c r="F88" s="1"/>
     </row>
     <row r="89" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>127</v>
       </c>
       <c r="D89" s="1"/>
@@ -7078,13 +7078,13 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D90" s="1"/>
@@ -7092,13 +7092,13 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D91" s="1"/>
@@ -7106,13 +7106,13 @@
       <c r="F91" s="1"/>
     </row>
     <row r="92" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="28" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="1"/>
@@ -7120,13 +7120,13 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="1"/>
@@ -7134,13 +7134,13 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="37" t="s">
         <v>141</v>
       </c>
       <c r="D94" s="1"/>
@@ -7148,13 +7148,13 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="37" t="s">
         <v>144</v>
       </c>
       <c r="D95" s="1"/>
@@ -7162,13 +7162,13 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D96" s="1"/>
@@ -7176,13 +7176,13 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D97" s="1"/>
@@ -7190,13 +7190,13 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>153</v>
       </c>
       <c r="D98" s="1"/>
@@ -7638,13 +7638,13 @@
       <c r="F130" s="1"/>
     </row>
     <row r="131" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="27" t="s">
         <v>214</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D131" s="1"/>
@@ -7660,11 +7660,11 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7963,7 +7963,7 @@
       <c r="A156" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="19" t="s">
@@ -7980,7 +7980,7 @@
       <c r="B157" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="C157" s="29" t="s">
+      <c r="C157" s="28" t="s">
         <v>259</v>
       </c>
       <c r="D157" s="1"/>
@@ -7992,7 +7992,7 @@
       <c r="B158" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C158" s="29" t="s">
+      <c r="C158" s="28" t="s">
         <v>260</v>
       </c>
       <c r="D158" s="1"/>
@@ -8004,7 +8004,7 @@
       <c r="B159" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C159" s="29" t="s">
+      <c r="C159" s="28" t="s">
         <v>261</v>
       </c>
       <c r="D159" s="1"/>
@@ -8016,7 +8016,7 @@
       <c r="B160" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="28" t="s">
         <v>262</v>
       </c>
       <c r="D160" s="1"/>
@@ -8028,7 +8028,7 @@
       <c r="B161" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="29" t="s">
+      <c r="C161" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D161" s="1"/>
@@ -8040,7 +8040,7 @@
       <c r="B162" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="28" t="s">
         <v>264</v>
       </c>
       <c r="D162" s="1"/>
@@ -8052,7 +8052,7 @@
       <c r="B163" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C163" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D163" s="1"/>
@@ -8091,7 +8091,7 @@
       <c r="A167" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="19" t="s">
@@ -8102,25 +8102,25 @@
       <c r="F167" s="1"/>
     </row>
     <row r="168" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C168" s="29"/>
+      <c r="C168" s="28"/>
       <c r="D168" s="41"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="27" t="s">
         <v>269</v>
       </c>
       <c r="B169" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C169" s="29"/>
+      <c r="C169" s="28"/>
       <c r="D169" s="41" t="s">
         <v>271</v>
       </c>
@@ -8128,13 +8128,13 @@
       <c r="F169" s="1"/>
     </row>
     <row r="170" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="27" t="s">
         <v>272</v>
       </c>
       <c r="B170" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C170" s="29"/>
+      <c r="C170" s="28"/>
       <c r="D170" s="41" t="s">
         <v>274</v>
       </c>
@@ -8142,13 +8142,13 @@
       <c r="F170" s="1"/>
     </row>
     <row r="171" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="27" t="s">
         <v>275</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C171" s="29"/>
+      <c r="C171" s="28"/>
       <c r="D171" s="41" t="s">
         <v>277</v>
       </c>
@@ -8156,13 +8156,13 @@
       <c r="F171" s="1"/>
     </row>
     <row r="172" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="27" t="s">
         <v>278</v>
       </c>
       <c r="B172" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C172" s="29"/>
+      <c r="C172" s="28"/>
       <c r="D172" s="41" t="s">
         <v>280</v>
       </c>
@@ -8170,13 +8170,13 @@
       <c r="F172" s="1"/>
     </row>
     <row r="173" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A173" s="28" t="s">
+      <c r="A173" s="27" t="s">
         <v>281</v>
       </c>
       <c r="B173" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C173" s="29"/>
+      <c r="C173" s="28"/>
       <c r="D173" s="41" t="s">
         <v>283</v>
       </c>
@@ -8184,13 +8184,13 @@
       <c r="F173" s="1"/>
     </row>
     <row r="174" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="27" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C174" s="29"/>
+      <c r="C174" s="28"/>
       <c r="D174" s="41" t="s">
         <v>286</v>
       </c>
@@ -8198,13 +8198,13 @@
       <c r="F174" s="1"/>
     </row>
     <row r="175" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="27" t="s">
         <v>287</v>
       </c>
       <c r="B175" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C175" s="29"/>
+      <c r="C175" s="28"/>
       <c r="D175" s="41" t="s">
         <v>289</v>
       </c>
@@ -8212,13 +8212,13 @@
       <c r="F175" s="1"/>
     </row>
     <row r="176" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A176" s="28" t="s">
+      <c r="A176" s="27" t="s">
         <v>290</v>
       </c>
       <c r="B176" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="29"/>
+      <c r="C176" s="28"/>
       <c r="D176" s="41" t="s">
         <v>292</v>
       </c>
@@ -8226,13 +8226,13 @@
       <c r="F176" s="1"/>
     </row>
     <row r="177" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A177" s="28" t="s">
+      <c r="A177" s="27" t="s">
         <v>293</v>
       </c>
       <c r="B177" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="29"/>
+      <c r="C177" s="28"/>
       <c r="D177" s="1" t="s">
         <v>295</v>
       </c>
@@ -8240,13 +8240,13 @@
       <c r="F177" s="1"/>
     </row>
     <row r="178" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="27" t="s">
         <v>296</v>
       </c>
       <c r="B178" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C178" s="29"/>
+      <c r="C178" s="28"/>
       <c r="D178" s="41" t="s">
         <v>298</v>
       </c>
@@ -8254,13 +8254,13 @@
       <c r="F178" s="1"/>
     </row>
     <row r="179" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A179" s="28" t="s">
+      <c r="A179" s="27" t="s">
         <v>299</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C179" s="29"/>
+      <c r="C179" s="28"/>
       <c r="D179" s="1" t="s">
         <v>301</v>
       </c>
@@ -8268,13 +8268,13 @@
       <c r="F179" s="1"/>
     </row>
     <row r="180" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A180" s="28" t="s">
+      <c r="A180" s="27" t="s">
         <v>302</v>
       </c>
       <c r="B180" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C180" s="29"/>
+      <c r="C180" s="28"/>
       <c r="D180" s="1" t="s">
         <v>304</v>
       </c>
@@ -8282,13 +8282,13 @@
       <c r="F180" s="1"/>
     </row>
     <row r="181" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A181" s="28" t="s">
+      <c r="A181" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C181" s="29"/>
+      <c r="C181" s="28"/>
       <c r="D181" s="1" t="s">
         <v>306</v>
       </c>
@@ -8296,13 +8296,13 @@
       <c r="F181" s="1"/>
     </row>
     <row r="182" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A182" s="28" t="s">
+      <c r="A182" s="27" t="s">
         <v>307</v>
       </c>
       <c r="B182" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C182" s="29"/>
+      <c r="C182" s="28"/>
       <c r="D182" s="1" t="s">
         <v>309</v>
       </c>
@@ -8310,13 +8310,13 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A183" s="28" t="s">
+      <c r="A183" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C183" s="29"/>
+      <c r="C183" s="28"/>
       <c r="D183" s="1" t="s">
         <v>312</v>
       </c>
@@ -8324,13 +8324,13 @@
       <c r="F183" s="1"/>
     </row>
     <row r="184" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A184" s="28" t="s">
+      <c r="A184" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B184" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="29"/>
+      <c r="C184" s="28"/>
       <c r="D184" s="1" t="s">
         <v>314</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="F184" s="1"/>
     </row>
     <row r="185" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A185" s="28" t="s">
+      <c r="A185" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B185" s="21" t="s">
@@ -8364,13 +8364,13 @@
       <c r="F186" s="1"/>
     </row>
     <row r="187" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A187" s="28" t="n">
+      <c r="A187" s="27" t="n">
         <v>1</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C187" s="29"/>
+      <c r="C187" s="28"/>
       <c r="D187" s="41" t="s">
         <v>280</v>
       </c>
@@ -8378,13 +8378,13 @@
       <c r="F187" s="1"/>
     </row>
     <row r="188" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A188" s="28" t="n">
+      <c r="A188" s="27" t="n">
         <v>2</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C188" s="29"/>
+      <c r="C188" s="28"/>
       <c r="D188" s="41" t="s">
         <v>277</v>
       </c>
@@ -8392,13 +8392,13 @@
       <c r="F188" s="1"/>
     </row>
     <row r="189" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A189" s="28" t="n">
+      <c r="A189" s="27" t="n">
         <v>3</v>
       </c>
       <c r="B189" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="29"/>
+      <c r="C189" s="28"/>
       <c r="D189" s="41" t="s">
         <v>283</v>
       </c>
@@ -8406,13 +8406,13 @@
       <c r="F189" s="1"/>
     </row>
     <row r="190" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A190" s="28" t="n">
+      <c r="A190" s="27" t="n">
         <v>4</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C190" s="29"/>
+      <c r="C190" s="28"/>
       <c r="D190" s="41" t="s">
         <v>286</v>
       </c>
@@ -8420,13 +8420,13 @@
       <c r="F190" s="1"/>
     </row>
     <row r="191" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A191" s="28" t="n">
+      <c r="A191" s="27" t="n">
         <v>5</v>
       </c>
       <c r="B191" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C191" s="29"/>
+      <c r="C191" s="28"/>
       <c r="D191" s="41" t="s">
         <v>274</v>
       </c>
@@ -8434,13 +8434,13 @@
       <c r="F191" s="1"/>
     </row>
     <row r="192" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A192" s="28" t="n">
+      <c r="A192" s="27" t="n">
         <v>6</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C192" s="29"/>
+      <c r="C192" s="28"/>
       <c r="D192" s="41" t="s">
         <v>325</v>
       </c>
@@ -8448,13 +8448,13 @@
       <c r="F192" s="1"/>
     </row>
     <row r="193" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A193" s="28" t="n">
+      <c r="A193" s="27" t="n">
         <v>7</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C193" s="29"/>
+      <c r="C193" s="28"/>
       <c r="D193" s="41" t="s">
         <v>292</v>
       </c>
@@ -8462,13 +8462,13 @@
       <c r="F193" s="1"/>
     </row>
     <row r="194" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A194" s="28" t="n">
+      <c r="A194" s="27" t="n">
         <v>8</v>
       </c>
       <c r="B194" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C194" s="29"/>
+      <c r="C194" s="28"/>
       <c r="D194" s="1" t="s">
         <v>328</v>
       </c>
@@ -8476,13 +8476,13 @@
       <c r="F194" s="1"/>
     </row>
     <row r="195" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A195" s="28" t="n">
+      <c r="A195" s="27" t="n">
         <v>9</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="29"/>
+      <c r="C195" s="28"/>
       <c r="D195" s="1" t="s">
         <v>330</v>
       </c>
@@ -8490,13 +8490,13 @@
       <c r="F195" s="1"/>
     </row>
     <row r="196" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A196" s="28" t="n">
+      <c r="A196" s="27" t="n">
         <v>11</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C196" s="29"/>
+      <c r="C196" s="28"/>
       <c r="D196" s="41" t="s">
         <v>332</v>
       </c>
@@ -8504,13 +8504,13 @@
       <c r="F196" s="1"/>
     </row>
     <row r="197" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A197" s="28" t="n">
+      <c r="A197" s="27" t="n">
         <v>51</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C197" s="29"/>
+      <c r="C197" s="28"/>
       <c r="D197" s="41" t="s">
         <v>334</v>
       </c>
@@ -8518,13 +8518,13 @@
       <c r="F197" s="1"/>
     </row>
     <row r="198" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A198" s="28" t="n">
+      <c r="A198" s="27" t="n">
         <v>52</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C198" s="29"/>
+      <c r="C198" s="28"/>
       <c r="D198" s="1" t="s">
         <v>336</v>
       </c>
@@ -8532,13 +8532,13 @@
       <c r="F198" s="1"/>
     </row>
     <row r="199" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A199" s="28" t="n">
+      <c r="A199" s="27" t="n">
         <v>53</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C199" s="29"/>
+      <c r="C199" s="28"/>
       <c r="D199" s="41" t="s">
         <v>338</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="B200" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="C200" s="29"/>
+      <c r="C200" s="28"/>
       <c r="D200" s="41" t="s">
         <v>340</v>
       </c>
@@ -8560,13 +8560,13 @@
       <c r="F200" s="1"/>
     </row>
     <row r="201" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A201" s="28" t="n">
+      <c r="A201" s="27" t="n">
         <v>55</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C201" s="29"/>
+      <c r="C201" s="28"/>
       <c r="D201" s="41" t="s">
         <v>342</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="B202" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="C202" s="29"/>
+      <c r="C202" s="28"/>
       <c r="D202" s="41" t="s">
         <v>317</v>
       </c>
@@ -8588,13 +8588,13 @@
       <c r="F202" s="1"/>
     </row>
     <row r="203" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A203" s="28" t="n">
+      <c r="A203" s="27" t="n">
         <v>57</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C203" s="29"/>
+      <c r="C203" s="28"/>
       <c r="D203" s="41" t="s">
         <v>345</v>
       </c>
@@ -8602,13 +8602,13 @@
       <c r="F203" s="1"/>
     </row>
     <row r="204" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A204" s="28" t="n">
+      <c r="A204" s="27" t="n">
         <v>58</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C204" s="29"/>
+      <c r="C204" s="28"/>
       <c r="D204" s="41" t="s">
         <v>347</v>
       </c>
@@ -8616,13 +8616,13 @@
       <c r="F204" s="1"/>
     </row>
     <row r="205" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A205" s="28" t="n">
+      <c r="A205" s="27" t="n">
         <v>60</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C205" s="29"/>
+      <c r="C205" s="28"/>
       <c r="D205" s="41" t="s">
         <v>349</v>
       </c>
@@ -8630,13 +8630,13 @@
       <c r="F205" s="1"/>
     </row>
     <row r="206" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A206" s="28" t="n">
+      <c r="A206" s="27" t="n">
         <v>71</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="29"/>
+      <c r="C206" s="28"/>
       <c r="D206" s="41" t="s">
         <v>351</v>
       </c>
@@ -8644,13 +8644,13 @@
       <c r="F206" s="1"/>
     </row>
     <row r="207" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A207" s="28" t="n">
+      <c r="A207" s="27" t="n">
         <v>72</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C207" s="29"/>
+      <c r="C207" s="28"/>
       <c r="D207" s="41" t="s">
         <v>353</v>
       </c>
@@ -8658,13 +8658,13 @@
       <c r="F207" s="1"/>
     </row>
     <row r="208" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A208" s="28" t="n">
+      <c r="A208" s="27" t="n">
         <v>80</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="C208" s="29"/>
+      <c r="C208" s="28"/>
       <c r="D208" s="1" t="s">
         <v>355</v>
       </c>
@@ -8672,13 +8672,13 @@
       <c r="F208" s="1"/>
     </row>
     <row r="209" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A209" s="28" t="n">
+      <c r="A209" s="27" t="n">
         <v>81</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C209" s="29"/>
+      <c r="C209" s="28"/>
       <c r="D209" s="41" t="s">
         <v>357</v>
       </c>
@@ -8686,13 +8686,13 @@
       <c r="F209" s="1"/>
     </row>
     <row r="210" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A210" s="28" t="n">
+      <c r="A210" s="27" t="n">
         <v>82</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C210" s="29"/>
+      <c r="C210" s="28"/>
       <c r="D210" s="41" t="s">
         <v>359</v>
       </c>
@@ -8700,13 +8700,13 @@
       <c r="F210" s="1"/>
     </row>
     <row r="211" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A211" s="28" t="n">
+      <c r="A211" s="27" t="n">
         <v>83</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C211" s="35"/>
+      <c r="C211" s="34"/>
       <c r="D211" s="41" t="s">
         <v>361</v>
       </c>
@@ -8714,13 +8714,13 @@
       <c r="F211" s="1"/>
     </row>
     <row r="212" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A212" s="28" t="n">
+      <c r="A212" s="27" t="n">
         <v>84</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C212" s="29"/>
+      <c r="C212" s="28"/>
       <c r="D212" s="41" t="s">
         <v>363</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="B213" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="C213" s="29"/>
+      <c r="C213" s="28"/>
       <c r="D213" s="41" t="s">
         <v>365</v>
       </c>
@@ -8742,13 +8742,13 @@
       <c r="F213" s="1"/>
     </row>
     <row r="214" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A214" s="28" t="n">
+      <c r="A214" s="27" t="n">
         <v>86</v>
       </c>
       <c r="B214" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C214" s="29"/>
+      <c r="C214" s="28"/>
       <c r="D214" s="41" t="s">
         <v>367</v>
       </c>
@@ -8764,11 +8764,11 @@
       <c r="F215" s="1"/>
     </row>
     <row r="216" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A216" s="26" t="s">
+      <c r="A216" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="38"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8787,7 +8787,7 @@
       <c r="A218" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="B218" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="19" t="s">
@@ -8798,13 +8798,13 @@
       <c r="F218" s="1"/>
     </row>
     <row r="219" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A219" s="28" t="s">
+      <c r="A219" s="27" t="s">
         <v>370</v>
       </c>
       <c r="B219" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C219" s="29" t="s">
+      <c r="C219" s="28" t="s">
         <v>372</v>
       </c>
       <c r="D219" s="1"/>
@@ -8812,13 +8812,13 @@
       <c r="F219" s="1"/>
     </row>
     <row r="220" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="27" t="s">
         <v>269</v>
       </c>
       <c r="B220" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C220" s="29" t="s">
+      <c r="C220" s="28" t="s">
         <v>374</v>
       </c>
       <c r="D220" s="1"/>
@@ -8826,13 +8826,13 @@
       <c r="F220" s="1"/>
     </row>
     <row r="221" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A221" s="28" t="s">
+      <c r="A221" s="27" t="s">
         <v>272</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C221" s="29" t="s">
+      <c r="C221" s="28" t="s">
         <v>376</v>
       </c>
       <c r="D221" s="1"/>
@@ -8840,13 +8840,13 @@
       <c r="F221" s="1"/>
     </row>
     <row r="222" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A222" s="28" t="s">
+      <c r="A222" s="27" t="s">
         <v>275</v>
       </c>
       <c r="B222" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C222" s="29" t="s">
+      <c r="C222" s="28" t="s">
         <v>378</v>
       </c>
       <c r="D222" s="1"/>
@@ -8854,13 +8854,13 @@
       <c r="F222" s="1"/>
     </row>
     <row r="223" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A223" s="28" t="s">
+      <c r="A223" s="27" t="s">
         <v>278</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C223" s="29" t="s">
+      <c r="C223" s="28" t="s">
         <v>380</v>
       </c>
       <c r="D223" s="1"/>
@@ -8868,13 +8868,13 @@
       <c r="F223" s="1"/>
     </row>
     <row r="224" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A224" s="28" t="s">
+      <c r="A224" s="27" t="s">
         <v>281</v>
       </c>
       <c r="B224" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="28" t="s">
         <v>382</v>
       </c>
       <c r="D224" s="1"/>
@@ -8882,13 +8882,13 @@
       <c r="F224" s="1"/>
     </row>
     <row r="225" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A225" s="28" t="s">
+      <c r="A225" s="27" t="s">
         <v>284</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="28" t="s">
         <v>384</v>
       </c>
       <c r="D225" s="1"/>
@@ -8896,13 +8896,13 @@
       <c r="F225" s="1"/>
     </row>
     <row r="226" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A226" s="28" t="s">
+      <c r="A226" s="27" t="s">
         <v>287</v>
       </c>
       <c r="B226" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C226" s="29" t="s">
+      <c r="C226" s="28" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       <c r="M227" s="3"/>
     </row>
     <row r="228" s="49" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A228" s="28" t="s">
+      <c r="A228" s="27" t="s">
         <v>293</v>
       </c>
       <c r="B228" s="21" t="s">
@@ -8949,7 +8949,7 @@
       <c r="M228" s="3"/>
     </row>
     <row r="229" s="49" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="27" t="s">
         <v>296</v>
       </c>
       <c r="B229" s="21" t="s">
@@ -9008,11 +9008,11 @@
       <c r="F232" s="1"/>
     </row>
     <row r="233" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="38"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -9031,7 +9031,7 @@
       <c r="A235" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="27" t="s">
+      <c r="B235" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C235" s="19" t="s">
@@ -9042,13 +9042,13 @@
       <c r="F235" s="1"/>
     </row>
     <row r="236" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A236" s="28" t="s">
+      <c r="A236" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B236" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C236" s="29" t="s">
+      <c r="C236" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D236" s="1"/>
@@ -9056,13 +9056,13 @@
       <c r="F236" s="1"/>
     </row>
     <row r="237" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A237" s="28" t="s">
+      <c r="A237" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B237" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C237" s="28" t="s">
         <v>161</v>
       </c>
       <c r="D237" s="1"/>
@@ -9070,13 +9070,13 @@
       <c r="F237" s="1"/>
     </row>
     <row r="238" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A238" s="28" t="s">
+      <c r="A238" s="27" t="s">
         <v>272</v>
       </c>
       <c r="B238" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C238" s="29" t="s">
+      <c r="C238" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D238" s="1"/>
@@ -9084,13 +9084,13 @@
       <c r="F238" s="1"/>
     </row>
     <row r="239" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A239" s="28" t="s">
+      <c r="A239" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B239" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C239" s="29" t="s">
+      <c r="C239" s="28" t="s">
         <v>397</v>
       </c>
       <c r="D239" s="1"/>
@@ -9098,13 +9098,13 @@
       <c r="F239" s="1"/>
     </row>
     <row r="240" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A240" s="28" t="s">
+      <c r="A240" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B240" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C240" s="29" t="s">
+      <c r="C240" s="28" t="s">
         <v>228</v>
       </c>
       <c r="D240" s="1"/>
@@ -9112,13 +9112,13 @@
       <c r="F240" s="1"/>
     </row>
     <row r="241" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A241" s="28" t="s">
+      <c r="A241" s="27" t="s">
         <v>399</v>
       </c>
       <c r="B241" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C241" s="29" t="s">
+      <c r="C241" s="28" t="s">
         <v>230</v>
       </c>
       <c r="D241" s="1"/>
@@ -9126,13 +9126,13 @@
       <c r="F241" s="1"/>
     </row>
     <row r="242" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A242" s="28" t="s">
+      <c r="A242" s="27" t="s">
         <v>169</v>
       </c>
       <c r="B242" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="28" t="s">
         <v>402</v>
       </c>
       <c r="D242" s="1"/>
@@ -9140,13 +9140,13 @@
       <c r="F242" s="1"/>
     </row>
     <row r="243" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A243" s="28" t="s">
+      <c r="A243" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B243" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C243" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D243" s="1"/>
@@ -9154,13 +9154,13 @@
       <c r="F243" s="1"/>
     </row>
     <row r="244" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A244" s="28" t="s">
+      <c r="A244" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B244" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C244" s="29" t="s">
+      <c r="C244" s="28" t="s">
         <v>403</v>
       </c>
       <c r="D244" s="1"/>
@@ -9168,13 +9168,13 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A245" s="28" t="s">
+      <c r="A245" s="27" t="s">
         <v>404</v>
       </c>
       <c r="B245" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C245" s="29" t="s">
+      <c r="C245" s="28" t="s">
         <v>405</v>
       </c>
       <c r="D245" s="1"/>
@@ -9182,13 +9182,13 @@
       <c r="F245" s="1"/>
     </row>
     <row r="246" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="27" t="s">
         <v>296</v>
       </c>
       <c r="B246" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C246" s="29" t="s">
+      <c r="C246" s="28" t="s">
         <v>121</v>
       </c>
       <c r="D246" s="1"/>
@@ -9196,13 +9196,13 @@
       <c r="F246" s="1"/>
     </row>
     <row r="247" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A247" s="28" t="s">
+      <c r="A247" s="27" t="s">
         <v>299</v>
       </c>
       <c r="B247" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C247" s="29" t="s">
+      <c r="C247" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D247" s="1"/>
@@ -9210,13 +9210,13 @@
       <c r="F247" s="1"/>
     </row>
     <row r="248" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A248" s="28" t="s">
+      <c r="A248" s="27" t="s">
         <v>302</v>
       </c>
       <c r="B248" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C248" s="29" t="s">
+      <c r="C248" s="28" t="s">
         <v>136</v>
       </c>
       <c r="D248" s="1"/>
@@ -9224,13 +9224,13 @@
       <c r="F248" s="1"/>
     </row>
     <row r="249" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A249" s="28" t="s">
+      <c r="A249" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C249" s="29" t="s">
+      <c r="C249" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D249" s="1"/>
@@ -9238,13 +9238,13 @@
       <c r="F249" s="1"/>
     </row>
     <row r="250" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="27" t="s">
         <v>307</v>
       </c>
       <c r="B250" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C250" s="29" t="s">
+      <c r="C250" s="28" t="s">
         <v>141</v>
       </c>
       <c r="D250" s="1"/>
@@ -9252,13 +9252,13 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A251" s="28" t="s">
+      <c r="A251" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B251" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C251" s="29" t="s">
+      <c r="C251" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D251" s="1"/>
@@ -9266,13 +9266,13 @@
       <c r="F251" s="1"/>
     </row>
     <row r="252" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A252" s="28" t="s">
+      <c r="A252" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B252" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C252" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D252" s="1"/>
@@ -9280,13 +9280,13 @@
       <c r="F252" s="1"/>
     </row>
     <row r="253" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A253" s="28" t="s">
+      <c r="A253" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B253" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C253" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D253" s="1"/>
@@ -9294,13 +9294,13 @@
       <c r="F253" s="1"/>
     </row>
     <row r="254" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A254" s="28" t="s">
+      <c r="A254" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B254" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="C254" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D254" s="1"/>
@@ -9308,13 +9308,13 @@
       <c r="F254" s="1"/>
     </row>
     <row r="255" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A255" s="28" t="s">
+      <c r="A255" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B255" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C255" s="29" t="s">
+      <c r="C255" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D255" s="1"/>
@@ -9322,13 +9322,13 @@
       <c r="F255" s="1"/>
     </row>
     <row r="256" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A256" s="28" t="s">
+      <c r="A256" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B256" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C256" s="29" t="s">
+      <c r="C256" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D256" s="1"/>
@@ -9336,13 +9336,13 @@
       <c r="F256" s="1"/>
     </row>
     <row r="257" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="27" t="s">
         <v>204</v>
       </c>
       <c r="B257" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C257" s="29" t="s">
+      <c r="C257" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D257" s="1"/>
@@ -9350,13 +9350,13 @@
       <c r="F257" s="1"/>
     </row>
     <row r="258" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A258" s="28" t="s">
+      <c r="A258" s="27" t="s">
         <v>207</v>
       </c>
       <c r="B258" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C258" s="29" t="s">
+      <c r="C258" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D258" s="1"/>
@@ -9364,13 +9364,13 @@
       <c r="F258" s="1"/>
     </row>
     <row r="259" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A259" s="28" t="s">
+      <c r="A259" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B259" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C259" s="29" t="s">
+      <c r="C259" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D259" s="1"/>
@@ -9386,11 +9386,11 @@
       <c r="F260" s="1"/>
     </row>
     <row r="261" s="3" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A261" s="26" t="s">
+      <c r="A261" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="38"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -9409,7 +9409,7 @@
       <c r="A263" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B263" s="27" t="s">
+      <c r="B263" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C263" s="19" t="s">
@@ -9420,13 +9420,13 @@
       <c r="F263" s="1"/>
     </row>
     <row r="264" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A264" s="28" t="s">
+      <c r="A264" s="27" t="s">
         <v>411</v>
       </c>
       <c r="B264" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C264" s="29" t="s">
+      <c r="C264" s="28" t="s">
         <v>413</v>
       </c>
       <c r="D264" s="1"/>
@@ -9434,13 +9434,13 @@
       <c r="F264" s="1"/>
     </row>
     <row r="265" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A265" s="28" t="s">
+      <c r="A265" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B265" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C265" s="29" t="s">
+      <c r="C265" s="28" t="s">
         <v>414</v>
       </c>
       <c r="D265" s="1"/>
@@ -9448,13 +9448,13 @@
       <c r="F265" s="1"/>
     </row>
     <row r="266" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A266" s="28" t="s">
+      <c r="A266" s="27" t="s">
         <v>223</v>
       </c>
       <c r="B266" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C266" s="29" t="s">
+      <c r="C266" s="28" t="s">
         <v>415</v>
       </c>
       <c r="D266" s="1"/>
@@ -9462,13 +9462,13 @@
       <c r="F266" s="1"/>
     </row>
     <row r="267" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A267" s="28" t="s">
+      <c r="A267" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B267" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C267" s="29" t="s">
+      <c r="C267" s="28" t="s">
         <v>416</v>
       </c>
       <c r="D267" s="1"/>
@@ -9476,13 +9476,13 @@
       <c r="F267" s="1"/>
     </row>
     <row r="268" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A268" s="28" t="s">
+      <c r="A268" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B268" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C268" s="29" t="s">
+      <c r="C268" s="28" t="s">
         <v>417</v>
       </c>
       <c r="D268" s="1"/>
@@ -9490,13 +9490,13 @@
       <c r="F268" s="1"/>
     </row>
     <row r="269" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A269" s="28" t="s">
+      <c r="A269" s="27" t="s">
         <v>399</v>
       </c>
       <c r="B269" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C269" s="29" t="s">
+      <c r="C269" s="28" t="s">
         <v>418</v>
       </c>
       <c r="D269" s="1"/>
@@ -9504,13 +9504,13 @@
       <c r="F269" s="1"/>
     </row>
     <row r="270" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A270" s="28" t="s">
+      <c r="A270" s="27" t="s">
         <v>169</v>
       </c>
       <c r="B270" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C270" s="29" t="s">
+      <c r="C270" s="28" t="s">
         <v>419</v>
       </c>
       <c r="D270" s="1"/>
@@ -9518,13 +9518,13 @@
       <c r="F270" s="1"/>
     </row>
     <row r="271" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A271" s="28" t="s">
+      <c r="A271" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B271" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C271" s="29" t="s">
+      <c r="C271" s="28" t="s">
         <v>420</v>
       </c>
       <c r="D271" s="1"/>
@@ -9532,13 +9532,13 @@
       <c r="F271" s="1"/>
     </row>
     <row r="272" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A272" s="28" t="s">
+      <c r="A272" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B272" s="28" t="s">
+      <c r="B272" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="C272" s="29" t="s">
+      <c r="C272" s="28" t="s">
         <v>403</v>
       </c>
       <c r="D272" s="1"/>
@@ -9546,13 +9546,13 @@
       <c r="F272" s="1"/>
     </row>
     <row r="273" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A273" s="28" t="s">
+      <c r="A273" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B273" s="28" t="s">
+      <c r="B273" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="C273" s="28" t="s">
+      <c r="C273" s="27" t="s">
         <v>405</v>
       </c>
       <c r="D273" s="50"/>
@@ -9560,10 +9560,10 @@
       <c r="F273" s="50"/>
     </row>
     <row r="274" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A274" s="34" t="s">
+      <c r="A274" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B274" s="34" t="s">
+      <c r="B274" s="33" t="s">
         <v>412</v>
       </c>
       <c r="C274" s="52" t="s">
@@ -9574,10 +9574,10 @@
       <c r="F274" s="50"/>
     </row>
     <row r="275" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A275" s="34" t="s">
+      <c r="A275" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B275" s="34" t="s">
+      <c r="B275" s="33" t="s">
         <v>412</v>
       </c>
       <c r="C275" s="52" t="s">
@@ -9596,11 +9596,11 @@
       <c r="F276" s="1"/>
     </row>
     <row r="277" s="3" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A277" s="26" t="s">
+      <c r="A277" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
+      <c r="B277" s="38"/>
+      <c r="C277" s="38"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -9619,7 +9619,7 @@
       <c r="A279" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B279" s="27" t="s">
+      <c r="B279" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="19" t="s">
@@ -9630,13 +9630,13 @@
       <c r="F279" s="1"/>
     </row>
     <row r="280" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A280" s="28" t="s">
+      <c r="A280" s="27" t="s">
         <v>411</v>
       </c>
       <c r="B280" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C280" s="29" t="s">
+      <c r="C280" s="28" t="s">
         <v>413</v>
       </c>
       <c r="D280" s="1"/>
@@ -9644,13 +9644,13 @@
       <c r="F280" s="1"/>
     </row>
     <row r="281" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A281" s="28" t="s">
+      <c r="A281" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B281" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C281" s="29" t="s">
+      <c r="C281" s="28" t="s">
         <v>414</v>
       </c>
       <c r="D281" s="1"/>
@@ -9658,13 +9658,13 @@
       <c r="F281" s="1"/>
     </row>
     <row r="282" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A282" s="28" t="s">
+      <c r="A282" s="27" t="s">
         <v>223</v>
       </c>
       <c r="B282" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C282" s="29" t="s">
+      <c r="C282" s="28" t="s">
         <v>415</v>
       </c>
       <c r="D282" s="1"/>
@@ -9672,13 +9672,13 @@
       <c r="F282" s="1"/>
     </row>
     <row r="283" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A283" s="28" t="s">
+      <c r="A283" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B283" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C283" s="29" t="s">
+      <c r="C283" s="28" t="s">
         <v>416</v>
       </c>
       <c r="D283" s="1"/>
@@ -9686,13 +9686,13 @@
       <c r="F283" s="1"/>
     </row>
     <row r="284" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A284" s="28" t="s">
+      <c r="A284" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B284" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="C284" s="28" t="s">
         <v>417</v>
       </c>
       <c r="D284" s="1"/>
@@ -9700,13 +9700,13 @@
       <c r="F284" s="1"/>
     </row>
     <row r="285" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A285" s="28" t="s">
+      <c r="A285" s="27" t="s">
         <v>399</v>
       </c>
       <c r="B285" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C285" s="28" t="s">
         <v>418</v>
       </c>
       <c r="D285" s="1"/>
@@ -9714,13 +9714,13 @@
       <c r="F285" s="1"/>
     </row>
     <row r="286" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A286" s="28" t="s">
+      <c r="A286" s="27" t="s">
         <v>169</v>
       </c>
       <c r="B286" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="C286" s="28" t="s">
         <v>419</v>
       </c>
       <c r="D286" s="1"/>
@@ -9728,13 +9728,13 @@
       <c r="F286" s="1"/>
     </row>
     <row r="287" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A287" s="28" t="s">
+      <c r="A287" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B287" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="C287" s="28" t="s">
         <v>420</v>
       </c>
       <c r="D287" s="50"/>
@@ -9742,13 +9742,13 @@
       <c r="F287" s="50"/>
     </row>
     <row r="288" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A288" s="28" t="s">
+      <c r="A288" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B288" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C288" s="29" t="s">
+      <c r="C288" s="28" t="s">
         <v>403</v>
       </c>
       <c r="D288" s="50"/>
@@ -9756,13 +9756,13 @@
       <c r="F288" s="50"/>
     </row>
     <row r="289" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A289" s="28" t="s">
+      <c r="A289" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B289" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C289" s="29" t="s">
+      <c r="C289" s="28" t="s">
         <v>405</v>
       </c>
       <c r="D289" s="50"/>
@@ -9770,13 +9770,13 @@
       <c r="F289" s="50"/>
     </row>
     <row r="290" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A290" s="28" t="s">
+      <c r="A290" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B290" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C290" s="29" t="s">
+      <c r="C290" s="28" t="s">
         <v>176</v>
       </c>
       <c r="D290" s="50"/>
@@ -9784,13 +9784,13 @@
       <c r="F290" s="50"/>
     </row>
     <row r="291" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="C291" s="29" t="s">
+      <c r="C291" s="28" t="s">
         <v>178</v>
       </c>
       <c r="D291" s="50"/>
@@ -9798,13 +9798,13 @@
       <c r="F291" s="50"/>
     </row>
     <row r="292" s="51" customFormat="true" ht="12.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A292" s="28" t="s">
+      <c r="A292" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B292" s="28" t="s">
+      <c r="B292" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="C292" s="29" t="s">
+      <c r="C292" s="28" t="s">
         <v>424</v>
       </c>
       <c r="D292" s="50"/>
@@ -9820,11 +9820,11 @@
       <c r="F293" s="1"/>
     </row>
     <row r="294" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A294" s="26" t="s">
+      <c r="A294" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
+      <c r="B294" s="38"/>
+      <c r="C294" s="38"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -9974,11 +9974,11 @@
       <c r="F305" s="1"/>
     </row>
     <row r="306" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A306" s="26" t="s">
+      <c r="A306" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
+      <c r="B306" s="38"/>
+      <c r="C306" s="38"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -10432,11 +10432,11 @@
       <c r="F339" s="1"/>
     </row>
     <row r="340" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A340" s="26" t="s">
+      <c r="A340" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
+      <c r="B340" s="38"/>
+      <c r="C340" s="38"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -10510,11 +10510,11 @@
       <c r="F346" s="1"/>
     </row>
     <row r="347" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A347" s="26" t="s">
+      <c r="A347" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
+      <c r="B347" s="38"/>
+      <c r="C347" s="38"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -10650,11 +10650,11 @@
       <c r="F358" s="1"/>
     </row>
     <row r="359" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A359" s="26" t="s">
+      <c r="A359" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="B359" s="26"/>
-      <c r="C359" s="26"/>
+      <c r="B359" s="38"/>
+      <c r="C359" s="38"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -10756,11 +10756,11 @@
       <c r="F367" s="1"/>
     </row>
     <row r="368" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A368" s="26" t="s">
+      <c r="A368" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="B368" s="26"/>
-      <c r="C368" s="26"/>
+      <c r="B368" s="38"/>
+      <c r="C368" s="38"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -10784,10 +10784,10 @@
       <c r="F370" s="1"/>
     </row>
     <row r="371" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A371" s="27" t="s">
+      <c r="A371" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B371" s="27" t="s">
+      <c r="B371" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C371" s="58" t="s">
@@ -10926,11 +10926,11 @@
       <c r="F381" s="1"/>
     </row>
     <row r="382" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A382" s="26" t="s">
+      <c r="A382" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="B382" s="26"/>
-      <c r="C382" s="26"/>
+      <c r="B382" s="38"/>
+      <c r="C382" s="38"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -10954,10 +10954,10 @@
       <c r="F384" s="1"/>
     </row>
     <row r="385" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A385" s="27" t="s">
+      <c r="A385" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B385" s="27" t="s">
+      <c r="B385" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="58" t="s">
@@ -11046,11 +11046,11 @@
       <c r="F391" s="1"/>
     </row>
     <row r="392" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A392" s="26" t="s">
+      <c r="A392" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="B392" s="26"/>
-      <c r="C392" s="26"/>
+      <c r="B392" s="38"/>
+      <c r="C392" s="38"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -11074,10 +11074,10 @@
       <c r="F394" s="1"/>
     </row>
     <row r="395" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A395" s="27" t="s">
+      <c r="A395" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B395" s="27" t="s">
+      <c r="B395" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C395" s="58" t="s">
@@ -11162,11 +11162,11 @@
       <c r="F401" s="1"/>
     </row>
     <row r="402" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="38"/>
+      <c r="C402" s="38"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -11185,7 +11185,7 @@
       <c r="A404" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B404" s="27" t="s">
+      <c r="B404" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C404" s="19" t="s">
@@ -11196,13 +11196,13 @@
       <c r="F404" s="1"/>
     </row>
     <row r="405" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A405" s="28" t="s">
+      <c r="A405" s="27" t="s">
         <v>427</v>
       </c>
       <c r="B405" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C405" s="29" t="s">
+      <c r="C405" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D405" s="1"/>
@@ -11210,25 +11210,25 @@
       <c r="F405" s="1"/>
     </row>
     <row r="406" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A406" s="28" t="s">
+      <c r="A406" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B406" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C406" s="29"/>
+      <c r="C406" s="28"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
     <row r="407" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A407" s="28" t="s">
+      <c r="A407" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B407" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C407" s="29"/>
+      <c r="C407" s="28"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -11242,11 +11242,11 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A409" s="26" t="s">
+      <c r="A409" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="B409" s="26"/>
-      <c r="C409" s="26"/>
+      <c r="B409" s="38"/>
+      <c r="C409" s="38"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -11265,7 +11265,7 @@
       <c r="A411" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B411" s="27" t="s">
+      <c r="B411" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C411" s="19" t="s">
@@ -11276,13 +11276,13 @@
       <c r="F411" s="1"/>
     </row>
     <row r="412" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A412" s="28" t="s">
+      <c r="A412" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B412" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C412" s="29" t="s">
+      <c r="C412" s="28" t="s">
         <v>544</v>
       </c>
       <c r="D412" s="1"/>
@@ -11290,7 +11290,7 @@
       <c r="F412" s="1"/>
     </row>
     <row r="413" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A413" s="28" t="s">
+      <c r="A413" s="27" t="s">
         <v>427</v>
       </c>
       <c r="B413" s="21" t="s">
@@ -11304,7 +11304,7 @@
       <c r="F413" s="1"/>
     </row>
     <row r="414" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A414" s="28"/>
+      <c r="A414" s="27"/>
       <c r="B414" s="21" t="s">
         <v>269</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="F414" s="1"/>
     </row>
     <row r="415" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A415" s="28"/>
+      <c r="A415" s="27"/>
       <c r="B415" s="21" t="s">
         <v>272</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="F415" s="1"/>
     </row>
     <row r="416" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A416" s="28"/>
+      <c r="A416" s="27"/>
       <c r="B416" s="21" t="s">
         <v>275</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="F416" s="1"/>
     </row>
     <row r="417" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A417" s="28"/>
+      <c r="A417" s="27"/>
       <c r="B417" s="21" t="s">
         <v>278</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="F417" s="1"/>
     </row>
     <row r="418" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A418" s="28"/>
+      <c r="A418" s="27"/>
       <c r="B418" s="21" t="s">
         <v>281</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="F418" s="1"/>
     </row>
     <row r="419" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A419" s="28"/>
+      <c r="A419" s="27"/>
       <c r="B419" s="21" t="s">
         <v>284</v>
       </c>
@@ -11376,7 +11376,7 @@
       <c r="F419" s="1"/>
     </row>
     <row r="420" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A420" s="28"/>
+      <c r="A420" s="27"/>
       <c r="B420" s="21" t="s">
         <v>287</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="F420" s="1"/>
     </row>
     <row r="421" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A421" s="28"/>
+      <c r="A421" s="27"/>
       <c r="B421" s="21" t="s">
         <v>290</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="F421" s="1"/>
     </row>
     <row r="422" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A422" s="28"/>
+      <c r="A422" s="27"/>
       <c r="B422" s="21" t="s">
         <v>293</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="F422" s="1"/>
     </row>
     <row r="423" s="3" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A423" s="28"/>
+      <c r="A423" s="27"/>
       <c r="B423" s="21" t="s">
         <v>296</v>
       </c>
@@ -11424,25 +11424,25 @@
       <c r="F423" s="1"/>
     </row>
     <row r="424" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A424" s="28" t="s">
+      <c r="A424" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B424" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C424" s="29"/>
+      <c r="C424" s="28"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
     <row r="425" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A425" s="28" t="s">
+      <c r="A425" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B425" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C425" s="29"/>
+      <c r="C425" s="28"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -11456,11 +11456,11 @@
       <c r="F426" s="1"/>
     </row>
     <row r="427" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A427" s="26" t="s">
+      <c r="A427" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="B427" s="26"/>
-      <c r="C427" s="26"/>
+      <c r="B427" s="38"/>
+      <c r="C427" s="38"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -11479,7 +11479,7 @@
       <c r="A429" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B429" s="27" t="s">
+      <c r="B429" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C429" s="19" t="s">
@@ -11490,7 +11490,7 @@
       <c r="F429" s="1"/>
     </row>
     <row r="430" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A430" s="28" t="s">
+      <c r="A430" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B430" s="21" t="s">
@@ -11502,7 +11502,7 @@
       <c r="F430" s="1"/>
     </row>
     <row r="431" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A431" s="28" t="s">
+      <c r="A431" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B431" s="21" t="s">
@@ -11522,11 +11522,11 @@
       <c r="F432" s="1"/>
     </row>
     <row r="433" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A433" s="26" t="s">
+      <c r="A433" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="B433" s="26"/>
-      <c r="C433" s="26"/>
+      <c r="B433" s="38"/>
+      <c r="C433" s="38"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -11545,7 +11545,7 @@
       <c r="A435" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B435" s="27" t="s">
+      <c r="B435" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C435" s="19" t="s">
@@ -11556,13 +11556,13 @@
       <c r="F435" s="1"/>
     </row>
     <row r="436" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A436" s="28" t="s">
+      <c r="A436" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B436" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C436" s="29" t="s">
+      <c r="C436" s="28" t="s">
         <v>559</v>
       </c>
       <c r="D436" s="1"/>
@@ -11570,13 +11570,13 @@
       <c r="F436" s="1"/>
     </row>
     <row r="437" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A437" s="28" t="s">
+      <c r="A437" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B437" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C437" s="29" t="s">
+      <c r="C437" s="28" t="s">
         <v>561</v>
       </c>
       <c r="D437" s="1"/>
@@ -11584,7 +11584,7 @@
       <c r="F437" s="1"/>
     </row>
     <row r="438" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A438" s="28" t="s">
+      <c r="A438" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B438" s="21" t="s">
@@ -11596,7 +11596,7 @@
       <c r="F438" s="1"/>
     </row>
     <row r="439" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A439" s="28" t="s">
+      <c r="A439" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B439" s="21" t="s">
@@ -11616,11 +11616,11 @@
       <c r="F440" s="1"/>
     </row>
     <row r="441" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A441" s="26" t="s">
+      <c r="A441" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="B441" s="26"/>
-      <c r="C441" s="26"/>
+      <c r="B441" s="38"/>
+      <c r="C441" s="38"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -11639,7 +11639,7 @@
       <c r="A443" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B443" s="27" t="s">
+      <c r="B443" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C443" s="19" t="s">
@@ -11650,13 +11650,13 @@
       <c r="F443" s="1"/>
     </row>
     <row r="444" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A444" s="28" t="s">
+      <c r="A444" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B444" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C444" s="29" t="s">
+      <c r="C444" s="28" t="s">
         <v>559</v>
       </c>
       <c r="D444" s="1"/>
@@ -11664,13 +11664,13 @@
       <c r="F444" s="1"/>
     </row>
     <row r="445" s="3" customFormat="true" ht="25.35" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A445" s="28" t="s">
+      <c r="A445" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B445" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C445" s="29" t="s">
+      <c r="C445" s="28" t="s">
         <v>563</v>
       </c>
       <c r="D445" s="1"/>
@@ -11678,7 +11678,7 @@
       <c r="F445" s="1"/>
     </row>
     <row r="446" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A446" s="28" t="s">
+      <c r="A446" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B446" s="21" t="s">
@@ -11690,7 +11690,7 @@
       <c r="F446" s="1"/>
     </row>
     <row r="447" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A447" s="28" t="s">
+      <c r="A447" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B447" s="21" t="s">
@@ -11710,11 +11710,11 @@
       <c r="F448" s="1"/>
     </row>
     <row r="449" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A449" s="26" t="s">
+      <c r="A449" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="B449" s="26"/>
-      <c r="C449" s="26"/>
+      <c r="B449" s="38"/>
+      <c r="C449" s="38"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -11733,7 +11733,7 @@
       <c r="A451" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B451" s="27" t="s">
+      <c r="B451" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C451" s="19" t="s">
@@ -11744,7 +11744,7 @@
       <c r="F451" s="1"/>
     </row>
     <row r="452" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A452" s="28" t="s">
+      <c r="A452" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B452" s="21" t="s">
@@ -11756,7 +11756,7 @@
       <c r="F452" s="1"/>
     </row>
     <row r="453" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A453" s="28" t="s">
+      <c r="A453" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B453" s="21" t="s">
@@ -11776,11 +11776,11 @@
       <c r="F454" s="1"/>
     </row>
     <row r="455" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A455" s="26" t="s">
+      <c r="A455" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="B455" s="26"/>
-      <c r="C455" s="26"/>
+      <c r="B455" s="38"/>
+      <c r="C455" s="38"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
@@ -11799,7 +11799,7 @@
       <c r="A457" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B457" s="27" t="s">
+      <c r="B457" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C457" s="19" t="s">
@@ -11810,7 +11810,7 @@
       <c r="F457" s="1"/>
     </row>
     <row r="458" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A458" s="28" t="s">
+      <c r="A458" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B458" s="21" t="s">
@@ -11822,7 +11822,7 @@
       <c r="F458" s="1"/>
     </row>
     <row r="459" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A459" s="28" t="s">
+      <c r="A459" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B459" s="21" t="s">
@@ -11842,11 +11842,11 @@
       <c r="F460" s="1"/>
     </row>
     <row r="461" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A461" s="26" t="s">
+      <c r="A461" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="B461" s="26"/>
-      <c r="C461" s="26"/>
+      <c r="B461" s="38"/>
+      <c r="C461" s="38"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -11865,7 +11865,7 @@
       <c r="A463" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B463" s="27" t="s">
+      <c r="B463" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C463" s="19" t="s">
@@ -11876,13 +11876,13 @@
       <c r="F463" s="1"/>
     </row>
     <row r="464" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A464" s="28" t="s">
+      <c r="A464" s="27" t="s">
         <v>567</v>
       </c>
       <c r="B464" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="C464" s="29" t="s">
+      <c r="C464" s="28" t="s">
         <v>569</v>
       </c>
       <c r="D464" s="1"/>
@@ -11890,13 +11890,13 @@
       <c r="F464" s="1"/>
     </row>
     <row r="465" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A465" s="28" t="s">
+      <c r="A465" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B465" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C465" s="29" t="s">
+      <c r="C465" s="28" t="s">
         <v>571</v>
       </c>
       <c r="D465" s="1"/>
@@ -11904,7 +11904,7 @@
       <c r="F465" s="1"/>
     </row>
     <row r="466" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A466" s="28" t="s">
+      <c r="A466" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B466" s="21" t="s">
@@ -11916,7 +11916,7 @@
       <c r="F466" s="1"/>
     </row>
     <row r="467" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A467" s="28" t="s">
+      <c r="A467" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B467" s="21" t="s">
@@ -11936,11 +11936,11 @@
       <c r="F468" s="1"/>
     </row>
     <row r="469" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A469" s="26" t="s">
+      <c r="A469" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="B469" s="26"/>
-      <c r="C469" s="26"/>
+      <c r="B469" s="38"/>
+      <c r="C469" s="38"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
@@ -11959,7 +11959,7 @@
       <c r="A471" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B471" s="27" t="s">
+      <c r="B471" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C471" s="19" t="s">
@@ -11970,13 +11970,13 @@
       <c r="F471" s="1"/>
     </row>
     <row r="472" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A472" s="28" t="s">
+      <c r="A472" s="27" t="s">
         <v>573</v>
       </c>
       <c r="B472" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C472" s="29" t="s">
+      <c r="C472" s="28" t="s">
         <v>575</v>
       </c>
       <c r="D472" s="1"/>
@@ -11984,7 +11984,7 @@
       <c r="F472" s="1"/>
     </row>
     <row r="473" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A473" s="28" t="s">
+      <c r="A473" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B473" s="21" t="s">
@@ -11996,7 +11996,7 @@
       <c r="F473" s="1"/>
     </row>
     <row r="474" s="3" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A474" s="28" t="s">
+      <c r="A474" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B474" s="21" t="s">
@@ -12016,11 +12016,11 @@
       <c r="F475" s="1"/>
     </row>
     <row r="476" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A476" s="26" t="s">
+      <c r="A476" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="B476" s="26"/>
-      <c r="C476" s="26"/>
+      <c r="B476" s="38"/>
+      <c r="C476" s="38"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
@@ -12039,7 +12039,7 @@
       <c r="A478" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B478" s="27" t="s">
+      <c r="B478" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C478" s="19" t="s">
@@ -12050,13 +12050,13 @@
       <c r="F478" s="1"/>
     </row>
     <row r="479" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A479" s="28" t="s">
+      <c r="A479" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B479" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C479" s="29" t="s">
+      <c r="C479" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D479" s="1"/>
@@ -12064,7 +12064,7 @@
       <c r="F479" s="1"/>
     </row>
     <row r="480" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A480" s="28" t="s">
+      <c r="A480" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B480" s="21" t="s">
@@ -12076,7 +12076,7 @@
       <c r="F480" s="1"/>
     </row>
     <row r="481" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A481" s="28" t="s">
+      <c r="A481" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B481" s="21" t="s">
@@ -12104,11 +12104,11 @@
       <c r="F483" s="1"/>
     </row>
     <row r="484" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A484" s="26" t="s">
+      <c r="A484" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="B484" s="26"/>
-      <c r="C484" s="26"/>
+      <c r="B484" s="38"/>
+      <c r="C484" s="38"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
@@ -12127,7 +12127,7 @@
       <c r="A486" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B486" s="27" t="s">
+      <c r="B486" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C486" s="19" t="s">
@@ -12138,13 +12138,13 @@
       <c r="F486" s="1"/>
     </row>
     <row r="487" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A487" s="28" t="s">
+      <c r="A487" s="27" t="s">
         <v>567</v>
       </c>
       <c r="B487" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="C487" s="29" t="s">
+      <c r="C487" s="28" t="s">
         <v>579</v>
       </c>
       <c r="D487" s="1"/>
@@ -12152,25 +12152,25 @@
       <c r="F487" s="1"/>
     </row>
     <row r="488" s="3" customFormat="true" ht="45" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A488" s="28" t="s">
+      <c r="A488" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="B488" s="29" t="s">
+      <c r="B488" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="C488" s="29"/>
+      <c r="C488" s="28"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
     </row>
     <row r="489" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A489" s="28" t="s">
+      <c r="A489" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B489" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="C489" s="29" t="s">
+      <c r="C489" s="28" t="s">
         <v>583</v>
       </c>
       <c r="D489" s="1"/>
@@ -12178,19 +12178,19 @@
       <c r="F489" s="1"/>
     </row>
     <row r="490" s="3" customFormat="true" ht="45.75" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A490" s="28" t="s">
+      <c r="A490" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="B490" s="29" t="s">
+      <c r="B490" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="C490" s="29"/>
+      <c r="C490" s="28"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
     </row>
     <row r="491" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A491" s="28" t="s">
+      <c r="A491" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B491" s="21" t="s">
@@ -12202,7 +12202,7 @@
       <c r="F491" s="1"/>
     </row>
     <row r="492" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A492" s="28" t="s">
+      <c r="A492" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B492" s="21" t="s">
@@ -12222,11 +12222,11 @@
       <c r="F493" s="1"/>
     </row>
     <row r="494" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A494" s="26" t="s">
+      <c r="A494" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="B494" s="26"/>
-      <c r="C494" s="26"/>
+      <c r="B494" s="38"/>
+      <c r="C494" s="38"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -12245,7 +12245,7 @@
       <c r="A496" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B496" s="27" t="s">
+      <c r="B496" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C496" s="19" t="s">
@@ -12256,13 +12256,13 @@
       <c r="F496" s="1"/>
     </row>
     <row r="497" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A497" s="28" t="s">
+      <c r="A497" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B497" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C497" s="29" t="s">
+      <c r="C497" s="28" t="s">
         <v>559</v>
       </c>
       <c r="D497" s="1"/>
@@ -12270,13 +12270,13 @@
       <c r="F497" s="1"/>
     </row>
     <row r="498" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A498" s="28" t="s">
+      <c r="A498" s="27" t="s">
         <v>427</v>
       </c>
       <c r="B498" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C498" s="29" t="s">
+      <c r="C498" s="28" t="s">
         <v>136</v>
       </c>
       <c r="D498" s="1"/>
@@ -12284,7 +12284,7 @@
       <c r="F498" s="1"/>
     </row>
     <row r="499" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A499" s="28" t="s">
+      <c r="A499" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B499" s="21" t="s">
@@ -12296,7 +12296,7 @@
       <c r="F499" s="1"/>
     </row>
     <row r="500" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A500" s="28" t="s">
+      <c r="A500" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B500" s="21" t="s">
@@ -12316,11 +12316,11 @@
       <c r="F501" s="1"/>
     </row>
     <row r="502" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A502" s="26" t="s">
+      <c r="A502" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="B502" s="26"/>
-      <c r="C502" s="26"/>
+      <c r="B502" s="38"/>
+      <c r="C502" s="38"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -12339,7 +12339,7 @@
       <c r="A504" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B504" s="27" t="s">
+      <c r="B504" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C504" s="19" t="s">
@@ -12350,13 +12350,13 @@
       <c r="F504" s="1"/>
     </row>
     <row r="505" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A505" s="28" t="s">
+      <c r="A505" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B505" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C505" s="29" t="s">
+      <c r="C505" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D505" s="1"/>
@@ -12364,7 +12364,7 @@
       <c r="F505" s="1"/>
     </row>
     <row r="506" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A506" s="28" t="s">
+      <c r="A506" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B506" s="21" t="s">
@@ -12376,7 +12376,7 @@
       <c r="F506" s="1"/>
     </row>
     <row r="507" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A507" s="28" t="s">
+      <c r="A507" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B507" s="21" t="s">
@@ -12396,11 +12396,11 @@
       <c r="F508" s="1"/>
     </row>
     <row r="509" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A509" s="26" t="s">
+      <c r="A509" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="B509" s="26"/>
-      <c r="C509" s="26"/>
+      <c r="B509" s="38"/>
+      <c r="C509" s="38"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -12419,7 +12419,7 @@
       <c r="A511" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B511" s="27" t="s">
+      <c r="B511" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C511" s="19" t="s">
@@ -12430,13 +12430,13 @@
       <c r="F511" s="1"/>
     </row>
     <row r="512" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A512" s="28" t="s">
+      <c r="A512" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B512" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C512" s="29" t="s">
+      <c r="C512" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D512" s="1"/>
@@ -12444,7 +12444,7 @@
       <c r="F512" s="1"/>
     </row>
     <row r="513" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A513" s="28" t="s">
+      <c r="A513" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B513" s="21" t="s">
@@ -12456,7 +12456,7 @@
       <c r="F513" s="1"/>
     </row>
     <row r="514" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A514" s="28" t="s">
+      <c r="A514" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B514" s="21" t="s">
@@ -12476,11 +12476,11 @@
       <c r="F515" s="1"/>
     </row>
     <row r="516" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A516" s="26" t="s">
+      <c r="A516" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="B516" s="26"/>
-      <c r="C516" s="26"/>
+      <c r="B516" s="38"/>
+      <c r="C516" s="38"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -12499,7 +12499,7 @@
       <c r="A518" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B518" s="27" t="s">
+      <c r="B518" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C518" s="19" t="s">
@@ -12510,13 +12510,13 @@
       <c r="F518" s="1"/>
     </row>
     <row r="519" s="3" customFormat="true" ht="37.3" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A519" s="28" t="s">
+      <c r="A519" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B519" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C519" s="29" t="s">
+      <c r="C519" s="28" t="s">
         <v>121</v>
       </c>
       <c r="D519" s="1"/>
@@ -12524,7 +12524,7 @@
       <c r="F519" s="1"/>
     </row>
     <row r="520" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A520" s="28" t="s">
+      <c r="A520" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B520" s="21" t="s">
@@ -12536,7 +12536,7 @@
       <c r="F520" s="1"/>
     </row>
     <row r="521" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A521" s="28" t="s">
+      <c r="A521" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B521" s="21" t="s">
@@ -12556,11 +12556,11 @@
       <c r="F522" s="1"/>
     </row>
     <row r="523" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A523" s="26" t="s">
+      <c r="A523" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="B523" s="26"/>
-      <c r="C523" s="26"/>
+      <c r="B523" s="38"/>
+      <c r="C523" s="38"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -12579,7 +12579,7 @@
       <c r="A525" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B525" s="27" t="s">
+      <c r="B525" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C525" s="19" t="s">
@@ -12590,13 +12590,13 @@
       <c r="F525" s="1"/>
     </row>
     <row r="526" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A526" s="28" t="s">
+      <c r="A526" s="27" t="s">
         <v>542</v>
       </c>
       <c r="B526" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C526" s="29" t="s">
+      <c r="C526" s="28" t="s">
         <v>559</v>
       </c>
       <c r="D526" s="1"/>
@@ -12604,13 +12604,13 @@
       <c r="F526" s="1"/>
     </row>
     <row r="527" s="3" customFormat="true" ht="61.15" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A527" s="28" t="s">
+      <c r="A527" s="27" t="s">
         <v>427</v>
       </c>
       <c r="B527" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="C527" s="29" t="s">
+      <c r="C527" s="28" t="s">
         <v>441</v>
       </c>
       <c r="D527" s="1"/>
@@ -12618,7 +12618,7 @@
       <c r="F527" s="1"/>
     </row>
     <row r="528" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A528" s="28" t="s">
+      <c r="A528" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B528" s="21" t="s">
@@ -12630,7 +12630,7 @@
       <c r="F528" s="1"/>
     </row>
     <row r="529" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A529" s="28" t="s">
+      <c r="A529" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B529" s="21" t="s">
@@ -12650,11 +12650,11 @@
       <c r="F530" s="1"/>
     </row>
     <row r="531" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A531" s="26" t="s">
+      <c r="A531" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="B531" s="26"/>
-      <c r="C531" s="26"/>
+      <c r="B531" s="38"/>
+      <c r="C531" s="38"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -12673,7 +12673,7 @@
       <c r="A533" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B533" s="27" t="s">
+      <c r="B533" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C533" s="19" t="s">
@@ -12684,13 +12684,13 @@
       <c r="F533" s="1"/>
     </row>
     <row r="534" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A534" s="28" t="s">
+      <c r="A534" s="27" t="s">
         <v>567</v>
       </c>
       <c r="B534" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="C534" s="29" t="s">
+      <c r="C534" s="28" t="s">
         <v>593</v>
       </c>
       <c r="D534" s="1"/>
@@ -12698,7 +12698,7 @@
       <c r="F534" s="1"/>
     </row>
     <row r="535" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A535" s="28" t="s">
+      <c r="A535" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B535" s="21" t="s">
@@ -12710,7 +12710,7 @@
       <c r="F535" s="1"/>
     </row>
     <row r="536" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A536" s="28" t="s">
+      <c r="A536" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B536" s="21" t="s">
@@ -12730,11 +12730,11 @@
       <c r="F537" s="1"/>
     </row>
     <row r="538" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A538" s="26" t="s">
+      <c r="A538" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="B538" s="26"/>
-      <c r="C538" s="26"/>
+      <c r="B538" s="38"/>
+      <c r="C538" s="38"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -12753,7 +12753,7 @@
       <c r="A540" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B540" s="27" t="s">
+      <c r="B540" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C540" s="19" t="s">
@@ -12764,13 +12764,13 @@
       <c r="F540" s="1"/>
     </row>
     <row r="541" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A541" s="28" t="s">
+      <c r="A541" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B541" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="C541" s="29" t="s">
+      <c r="C541" s="28" t="s">
         <v>596</v>
       </c>
       <c r="D541" s="1"/>
@@ -12778,13 +12778,13 @@
       <c r="F541" s="1"/>
     </row>
     <row r="542" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A542" s="28" t="s">
+      <c r="A542" s="27" t="s">
         <v>427</v>
       </c>
       <c r="B542" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="C542" s="29" t="s">
+      <c r="C542" s="28" t="s">
         <v>598</v>
       </c>
       <c r="D542" s="1"/>
@@ -12792,7 +12792,7 @@
       <c r="F542" s="1"/>
     </row>
     <row r="543" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A543" s="28" t="s">
+      <c r="A543" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B543" s="21" t="s">
@@ -12804,7 +12804,7 @@
       <c r="F543" s="1"/>
     </row>
     <row r="544" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A544" s="28" t="s">
+      <c r="A544" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B544" s="21" t="s">
@@ -12816,7 +12816,7 @@
       <c r="F544" s="1"/>
     </row>
     <row r="545" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A545" s="28"/>
+      <c r="A545" s="27"/>
       <c r="B545" s="21"/>
       <c r="C545" s="67"/>
       <c r="D545" s="1"/>
@@ -12866,10 +12866,10 @@
       <c r="F549" s="1"/>
     </row>
     <row r="550" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A550" s="36" t="s">
+      <c r="A550" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="B550" s="37" t="s">
+      <c r="B550" s="36" t="s">
         <v>538</v>
       </c>
       <c r="C550" s="74"/>
@@ -12878,10 +12878,10 @@
       <c r="F550" s="1"/>
     </row>
     <row r="551" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A551" s="36" t="s">
+      <c r="A551" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="B551" s="37" t="s">
+      <c r="B551" s="36" t="s">
         <v>540</v>
       </c>
       <c r="C551" s="74"/>
@@ -12890,8 +12890,8 @@
       <c r="F551" s="1"/>
     </row>
     <row r="552" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A552" s="36"/>
-      <c r="B552" s="37"/>
+      <c r="A552" s="35"/>
+      <c r="B552" s="36"/>
       <c r="C552" s="74"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -12932,13 +12932,13 @@
       <c r="F555" s="1"/>
     </row>
     <row r="556" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A556" s="36" t="s">
+      <c r="A556" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="B556" s="37" t="s">
+      <c r="B556" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C556" s="38" t="s">
+      <c r="C556" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D556" s="1"/>
@@ -12946,13 +12946,13 @@
       <c r="F556" s="1"/>
     </row>
     <row r="557" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A557" s="36" t="s">
+      <c r="A557" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B557" s="37" t="s">
+      <c r="B557" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C557" s="38" t="s">
+      <c r="C557" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D557" s="1"/>
@@ -12960,13 +12960,13 @@
       <c r="F557" s="1"/>
     </row>
     <row r="558" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A558" s="36" t="s">
+      <c r="A558" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B558" s="37" t="s">
+      <c r="B558" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C558" s="38" t="s">
+      <c r="C558" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D558" s="1"/>
@@ -12974,13 +12974,13 @@
       <c r="F558" s="1"/>
     </row>
     <row r="559" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A559" s="36" t="s">
+      <c r="A559" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="B559" s="37" t="s">
+      <c r="B559" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C559" s="38" t="s">
+      <c r="C559" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D559" s="1"/>
@@ -12988,13 +12988,13 @@
       <c r="F559" s="1"/>
     </row>
     <row r="560" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A560" s="36" t="s">
+      <c r="A560" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="B560" s="37" t="s">
+      <c r="B560" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C560" s="38" t="s">
+      <c r="C560" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D560" s="1"/>
@@ -13002,13 +13002,13 @@
       <c r="F560" s="1"/>
     </row>
     <row r="561" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A561" s="36" t="s">
+      <c r="A561" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="B561" s="37" t="s">
+      <c r="B561" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C561" s="38" t="s">
+      <c r="C561" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D561" s="1"/>
@@ -13016,35 +13016,35 @@
       <c r="F561" s="1"/>
     </row>
     <row r="562" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A562" s="36" t="s">
+      <c r="A562" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="B562" s="37" t="s">
+      <c r="B562" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C562" s="38"/>
+      <c r="C562" s="37"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
     </row>
     <row r="563" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A563" s="36" t="s">
+      <c r="A563" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="B563" s="37" t="s">
+      <c r="B563" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C563" s="38"/>
+      <c r="C563" s="37"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
     </row>
     <row r="564" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A564" s="26" t="s">
+      <c r="A564" s="38" t="s">
         <v>605</v>
       </c>
-      <c r="B564" s="26"/>
-      <c r="C564" s="26"/>
+      <c r="B564" s="38"/>
+      <c r="C564" s="38"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
@@ -13074,13 +13074,13 @@
       <c r="F566" s="1"/>
     </row>
     <row r="567" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A567" s="36" t="s">
+      <c r="A567" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="B567" s="37" t="s">
+      <c r="B567" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C567" s="38" t="s">
+      <c r="C567" s="37" t="s">
         <v>607</v>
       </c>
       <c r="D567" s="1"/>
@@ -13088,13 +13088,13 @@
       <c r="F567" s="1"/>
     </row>
     <row r="568" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A568" s="36" t="s">
+      <c r="A568" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="B568" s="37" t="s">
+      <c r="B568" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="C568" s="38" t="s">
+      <c r="C568" s="37" t="s">
         <v>609</v>
       </c>
       <c r="D568" s="1"/>
@@ -13102,35 +13102,35 @@
       <c r="F568" s="1"/>
     </row>
     <row r="569" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A569" s="36" t="s">
+      <c r="A569" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="B569" s="37" t="s">
+      <c r="B569" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C569" s="38"/>
+      <c r="C569" s="37"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
     </row>
     <row r="570" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A570" s="36" t="s">
+      <c r="A570" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="B570" s="37" t="s">
+      <c r="B570" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C570" s="38"/>
+      <c r="C570" s="37"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
     </row>
     <row r="571" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A571" s="26" t="s">
+      <c r="A571" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="B571" s="26"/>
-      <c r="C571" s="26"/>
+      <c r="B571" s="38"/>
+      <c r="C571" s="38"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -13149,7 +13149,7 @@
       <c r="A573" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B573" s="27" t="s">
+      <c r="B573" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C573" s="19" t="s">
@@ -13160,13 +13160,13 @@
       <c r="F573" s="1"/>
     </row>
     <row r="574" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A574" s="28" t="s">
+      <c r="A574" s="27" t="s">
         <v>606</v>
       </c>
       <c r="B574" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C574" s="29" t="s">
+      <c r="C574" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D574" s="1"/>
@@ -13174,13 +13174,13 @@
       <c r="F574" s="1"/>
     </row>
     <row r="575" s="3" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A575" s="28" t="s">
+      <c r="A575" s="27" t="s">
         <v>608</v>
       </c>
       <c r="B575" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C575" s="29" t="s">
+      <c r="C575" s="28" t="s">
         <v>609</v>
       </c>
       <c r="D575" s="1"/>
@@ -13188,35 +13188,35 @@
       <c r="F575" s="1"/>
     </row>
     <row r="576" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A576" s="28" t="s">
+      <c r="A576" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B576" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C576" s="29"/>
+      <c r="C576" s="28"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
     </row>
     <row r="577" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A577" s="28" t="s">
+      <c r="A577" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B577" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C577" s="29"/>
+      <c r="C577" s="28"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
     </row>
     <row r="578" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="true">
-      <c r="A578" s="26" t="s">
+      <c r="A578" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="B578" s="26"/>
-      <c r="C578" s="26"/>
+      <c r="B578" s="38"/>
+      <c r="C578" s="38"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -13260,11 +13260,11 @@
       <c r="F581" s="1"/>
     </row>
     <row r="582" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A582" s="26" t="s">
+      <c r="A582" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="B582" s="26"/>
-      <c r="C582" s="26"/>
+      <c r="B582" s="38"/>
+      <c r="C582" s="38"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -13350,9 +13350,9 @@
       <c r="F588" s="1"/>
     </row>
     <row r="589" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A589" s="31"/>
-      <c r="B589" s="31"/>
-      <c r="C589" s="31"/>
+      <c r="A589" s="30"/>
+      <c r="B589" s="30"/>
+      <c r="C589" s="30"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
@@ -13378,13 +13378,13 @@
       <c r="F591" s="1"/>
     </row>
     <row r="592" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A592" s="27" t="s">
+      <c r="A592" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B592" s="27" t="s">
+      <c r="B592" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C592" s="27" t="s">
+      <c r="C592" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D592" s="1"/>
@@ -13406,7 +13406,7 @@
       <c r="F593" s="1"/>
     </row>
     <row r="594" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A594" s="28" t="s">
+      <c r="A594" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B594" s="21" t="s">
@@ -13418,7 +13418,7 @@
       <c r="F594" s="1"/>
     </row>
     <row r="595" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A595" s="28" t="s">
+      <c r="A595" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B595" s="21" t="s">
@@ -13458,13 +13458,13 @@
       <c r="F598" s="1"/>
     </row>
     <row r="599" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A599" s="27" t="s">
+      <c r="A599" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B599" s="27" t="s">
+      <c r="B599" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C599" s="27" t="s">
+      <c r="C599" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D599" s="1"/>
@@ -13486,7 +13486,7 @@
       <c r="F600" s="1"/>
     </row>
     <row r="601" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A601" s="28" t="s">
+      <c r="A601" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B601" s="21" t="s">
@@ -13498,7 +13498,7 @@
       <c r="F601" s="1"/>
     </row>
     <row r="602" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A602" s="28" t="s">
+      <c r="A602" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B602" s="21" t="s">
@@ -13538,13 +13538,13 @@
       <c r="F605" s="1"/>
     </row>
     <row r="606" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A606" s="27" t="s">
+      <c r="A606" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B606" s="27" t="s">
+      <c r="B606" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C606" s="27" t="s">
+      <c r="C606" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D606" s="1"/>
@@ -13566,7 +13566,7 @@
       <c r="F607" s="1"/>
     </row>
     <row r="608" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A608" s="28" t="s">
+      <c r="A608" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B608" s="21" t="s">
@@ -13578,7 +13578,7 @@
       <c r="F608" s="1"/>
     </row>
     <row r="609" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A609" s="28" t="s">
+      <c r="A609" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B609" s="21" t="s">
@@ -13618,13 +13618,13 @@
       <c r="F612" s="1"/>
     </row>
     <row r="613" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A613" s="27" t="s">
+      <c r="A613" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B613" s="27" t="s">
+      <c r="B613" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C613" s="27" t="s">
+      <c r="C613" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D613" s="1"/>
@@ -13646,7 +13646,7 @@
       <c r="F614" s="1"/>
     </row>
     <row r="615" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A615" s="28" t="s">
+      <c r="A615" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B615" s="21" t="s">
@@ -13658,7 +13658,7 @@
       <c r="F615" s="1"/>
     </row>
     <row r="616" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A616" s="28" t="s">
+      <c r="A616" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B616" s="21" t="s">
@@ -13698,13 +13698,13 @@
       <c r="F619" s="1"/>
     </row>
     <row r="620" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A620" s="27" t="s">
+      <c r="A620" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B620" s="27" t="s">
+      <c r="B620" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C620" s="27" t="s">
+      <c r="C620" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D620" s="1"/>
@@ -13726,7 +13726,7 @@
       <c r="F621" s="1"/>
     </row>
     <row r="622" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A622" s="28" t="s">
+      <c r="A622" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B622" s="21" t="s">
@@ -13738,7 +13738,7 @@
       <c r="F622" s="1"/>
     </row>
     <row r="623" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A623" s="28" t="s">
+      <c r="A623" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B623" s="21" t="s">
@@ -13778,13 +13778,13 @@
       <c r="F626" s="1"/>
     </row>
     <row r="627" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A627" s="27" t="s">
+      <c r="A627" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B627" s="27" t="s">
+      <c r="B627" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C627" s="27" t="s">
+      <c r="C627" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D627" s="1"/>
@@ -13834,7 +13834,7 @@
       <c r="F630" s="1"/>
     </row>
     <row r="631" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A631" s="28" t="s">
+      <c r="A631" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B631" s="21" t="s">
@@ -13846,7 +13846,7 @@
       <c r="F631" s="1"/>
     </row>
     <row r="632" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A632" s="28" t="s">
+      <c r="A632" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B632" s="21" t="s">
@@ -13886,13 +13886,13 @@
       <c r="F635" s="1"/>
     </row>
     <row r="636" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A636" s="27" t="s">
+      <c r="A636" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B636" s="27" t="s">
+      <c r="B636" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C636" s="27" t="s">
+      <c r="C636" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D636" s="1"/>
@@ -13942,7 +13942,7 @@
       <c r="F639" s="1"/>
     </row>
     <row r="640" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A640" s="28" t="s">
+      <c r="A640" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B640" s="21" t="s">
@@ -13954,7 +13954,7 @@
       <c r="F640" s="1"/>
     </row>
     <row r="641" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A641" s="28" t="s">
+      <c r="A641" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B641" s="21" t="s">
@@ -13994,13 +13994,13 @@
       <c r="F644" s="1"/>
     </row>
     <row r="645" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A645" s="27" t="s">
+      <c r="A645" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B645" s="27" t="s">
+      <c r="B645" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C645" s="27" t="s">
+      <c r="C645" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D645" s="1"/>
@@ -14050,7 +14050,7 @@
       <c r="F648" s="1"/>
     </row>
     <row r="649" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A649" s="28" t="s">
+      <c r="A649" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B649" s="21" t="s">
@@ -14062,7 +14062,7 @@
       <c r="F649" s="1"/>
     </row>
     <row r="650" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A650" s="28" t="s">
+      <c r="A650" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B650" s="21" t="s">
@@ -14102,13 +14102,13 @@
       <c r="F653" s="1"/>
     </row>
     <row r="654" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A654" s="27" t="s">
+      <c r="A654" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B654" s="27" t="s">
+      <c r="B654" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C654" s="27" t="s">
+      <c r="C654" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D654" s="1"/>
@@ -14130,7 +14130,7 @@
       <c r="F655" s="1"/>
     </row>
     <row r="656" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A656" s="28" t="s">
+      <c r="A656" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B656" s="21" t="s">
@@ -14142,7 +14142,7 @@
       <c r="F656" s="1"/>
     </row>
     <row r="657" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A657" s="28" t="s">
+      <c r="A657" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B657" s="21" t="s">
@@ -14154,8 +14154,8 @@
       <c r="F657" s="1"/>
     </row>
     <row r="658" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A658" s="31"/>
-      <c r="B658" s="31"/>
+      <c r="A658" s="30"/>
+      <c r="B658" s="30"/>
       <c r="C658" s="78"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -14182,13 +14182,13 @@
       <c r="F660" s="1"/>
     </row>
     <row r="661" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A661" s="27" t="s">
+      <c r="A661" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B661" s="27" t="s">
+      <c r="B661" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C661" s="27" t="s">
+      <c r="C661" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D661" s="1"/>
@@ -14210,7 +14210,7 @@
       <c r="F662" s="1"/>
     </row>
     <row r="663" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A663" s="28" t="s">
+      <c r="A663" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B663" s="21" t="s">
@@ -14222,7 +14222,7 @@
       <c r="F663" s="1"/>
     </row>
     <row r="664" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A664" s="28" t="s">
+      <c r="A664" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B664" s="21" t="s">
@@ -14234,8 +14234,8 @@
       <c r="F664" s="1"/>
     </row>
     <row r="665" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A665" s="31"/>
-      <c r="B665" s="31"/>
+      <c r="A665" s="30"/>
+      <c r="B665" s="30"/>
       <c r="C665" s="78"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -14262,13 +14262,13 @@
       <c r="F667" s="1"/>
     </row>
     <row r="668" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A668" s="27" t="s">
+      <c r="A668" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B668" s="27" t="s">
+      <c r="B668" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C668" s="27" t="s">
+      <c r="C668" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D668" s="1"/>
@@ -14290,7 +14290,7 @@
       <c r="F669" s="1"/>
     </row>
     <row r="670" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A670" s="28" t="s">
+      <c r="A670" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B670" s="21" t="s">
@@ -14302,7 +14302,7 @@
       <c r="F670" s="1"/>
     </row>
     <row r="671" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A671" s="28" t="s">
+      <c r="A671" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B671" s="21" t="s">
@@ -14314,8 +14314,8 @@
       <c r="F671" s="1"/>
     </row>
     <row r="672" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A672" s="31"/>
-      <c r="B672" s="31"/>
+      <c r="A672" s="30"/>
+      <c r="B672" s="30"/>
       <c r="C672" s="78"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -14342,13 +14342,13 @@
       <c r="F674" s="1"/>
     </row>
     <row r="675" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A675" s="27" t="s">
+      <c r="A675" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B675" s="27" t="s">
+      <c r="B675" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C675" s="27" t="s">
+      <c r="C675" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D675" s="1"/>
@@ -14370,7 +14370,7 @@
       <c r="F676" s="1"/>
     </row>
     <row r="677" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A677" s="28" t="s">
+      <c r="A677" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B677" s="21" t="s">
@@ -14382,7 +14382,7 @@
       <c r="F677" s="1"/>
     </row>
     <row r="678" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A678" s="28" t="s">
+      <c r="A678" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B678" s="21" t="s">
@@ -14394,8 +14394,8 @@
       <c r="F678" s="1"/>
     </row>
     <row r="679" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A679" s="31"/>
-      <c r="B679" s="31"/>
+      <c r="A679" s="30"/>
+      <c r="B679" s="30"/>
       <c r="C679" s="78"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -14422,13 +14422,13 @@
       <c r="F681" s="1"/>
     </row>
     <row r="682" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A682" s="27" t="s">
+      <c r="A682" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B682" s="27" t="s">
+      <c r="B682" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C682" s="27" t="s">
+      <c r="C682" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D682" s="1"/>
@@ -14450,7 +14450,7 @@
       <c r="F683" s="1"/>
     </row>
     <row r="684" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A684" s="28" t="s">
+      <c r="A684" s="27" t="s">
         <v>537</v>
       </c>
       <c r="B684" s="21" t="s">
@@ -14462,7 +14462,7 @@
       <c r="F684" s="1"/>
     </row>
     <row r="685" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A685" s="28" t="s">
+      <c r="A685" s="27" t="s">
         <v>539</v>
       </c>
       <c r="B685" s="21" t="s">
@@ -14474,248 +14474,248 @@
       <c r="F685" s="1"/>
     </row>
     <row r="686" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A686" s="31"/>
-      <c r="B686" s="31"/>
+      <c r="A686" s="30"/>
+      <c r="B686" s="30"/>
       <c r="C686" s="78"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
     </row>
     <row r="687" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A687" s="31"/>
-      <c r="B687" s="31"/>
+      <c r="A687" s="30"/>
+      <c r="B687" s="30"/>
       <c r="C687" s="78"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
     </row>
     <row r="688" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A688" s="31"/>
-      <c r="B688" s="31"/>
+      <c r="A688" s="30"/>
+      <c r="B688" s="30"/>
       <c r="C688" s="78"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
     </row>
     <row r="689" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A689" s="31"/>
-      <c r="B689" s="31"/>
+      <c r="A689" s="30"/>
+      <c r="B689" s="30"/>
       <c r="C689" s="78"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
     </row>
     <row r="690" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A690" s="31"/>
-      <c r="B690" s="31"/>
+      <c r="A690" s="30"/>
+      <c r="B690" s="30"/>
       <c r="C690" s="78"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
     </row>
     <row r="691" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A691" s="31"/>
-      <c r="B691" s="31"/>
+      <c r="A691" s="30"/>
+      <c r="B691" s="30"/>
       <c r="C691" s="78"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
     </row>
     <row r="692" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A692" s="31"/>
-      <c r="B692" s="31"/>
+      <c r="A692" s="30"/>
+      <c r="B692" s="30"/>
       <c r="C692" s="78"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
     </row>
     <row r="693" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A693" s="31"/>
-      <c r="B693" s="31"/>
+      <c r="A693" s="30"/>
+      <c r="B693" s="30"/>
       <c r="C693" s="78"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
     </row>
     <row r="694" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A694" s="31"/>
-      <c r="B694" s="31"/>
+      <c r="A694" s="30"/>
+      <c r="B694" s="30"/>
       <c r="C694" s="78"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
     </row>
     <row r="695" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A695" s="31"/>
-      <c r="B695" s="31"/>
+      <c r="A695" s="30"/>
+      <c r="B695" s="30"/>
       <c r="C695" s="78"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
     </row>
     <row r="696" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A696" s="31"/>
-      <c r="B696" s="31"/>
+      <c r="A696" s="30"/>
+      <c r="B696" s="30"/>
       <c r="C696" s="78"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
     </row>
     <row r="697" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A697" s="31"/>
-      <c r="B697" s="31"/>
+      <c r="A697" s="30"/>
+      <c r="B697" s="30"/>
       <c r="C697" s="78"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
     </row>
     <row r="698" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A698" s="31"/>
-      <c r="B698" s="31"/>
+      <c r="A698" s="30"/>
+      <c r="B698" s="30"/>
       <c r="C698" s="78"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
     </row>
     <row r="699" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A699" s="31"/>
-      <c r="B699" s="31"/>
+      <c r="A699" s="30"/>
+      <c r="B699" s="30"/>
       <c r="C699" s="78"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
     </row>
     <row r="700" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A700" s="31"/>
-      <c r="B700" s="31"/>
+      <c r="A700" s="30"/>
+      <c r="B700" s="30"/>
       <c r="C700" s="78"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
     </row>
     <row r="701" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A701" s="31"/>
-      <c r="B701" s="31"/>
+      <c r="A701" s="30"/>
+      <c r="B701" s="30"/>
       <c r="C701" s="78"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
     </row>
     <row r="702" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A702" s="31"/>
-      <c r="B702" s="31"/>
+      <c r="A702" s="30"/>
+      <c r="B702" s="30"/>
       <c r="C702" s="78"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
     </row>
     <row r="703" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A703" s="31"/>
-      <c r="B703" s="31"/>
+      <c r="A703" s="30"/>
+      <c r="B703" s="30"/>
       <c r="C703" s="78"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
     </row>
     <row r="704" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A704" s="31"/>
-      <c r="B704" s="31"/>
+      <c r="A704" s="30"/>
+      <c r="B704" s="30"/>
       <c r="C704" s="78"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
     </row>
     <row r="705" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A705" s="31"/>
-      <c r="B705" s="31"/>
+      <c r="A705" s="30"/>
+      <c r="B705" s="30"/>
       <c r="C705" s="78"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
     </row>
     <row r="706" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A706" s="31"/>
-      <c r="B706" s="31"/>
+      <c r="A706" s="30"/>
+      <c r="B706" s="30"/>
       <c r="C706" s="78"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
     </row>
     <row r="707" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A707" s="31"/>
-      <c r="B707" s="31"/>
+      <c r="A707" s="30"/>
+      <c r="B707" s="30"/>
       <c r="C707" s="78"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
     </row>
     <row r="708" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A708" s="31"/>
-      <c r="B708" s="31"/>
+      <c r="A708" s="30"/>
+      <c r="B708" s="30"/>
       <c r="C708" s="78"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
     </row>
     <row r="709" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A709" s="31"/>
-      <c r="B709" s="31"/>
+      <c r="A709" s="30"/>
+      <c r="B709" s="30"/>
       <c r="C709" s="78"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
     </row>
     <row r="710" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A710" s="31"/>
-      <c r="B710" s="31"/>
+      <c r="A710" s="30"/>
+      <c r="B710" s="30"/>
       <c r="C710" s="78"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
     </row>
     <row r="711" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A711" s="31"/>
-      <c r="B711" s="31"/>
+      <c r="A711" s="30"/>
+      <c r="B711" s="30"/>
       <c r="C711" s="78"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
     </row>
     <row r="712" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A712" s="31"/>
-      <c r="B712" s="31"/>
+      <c r="A712" s="30"/>
+      <c r="B712" s="30"/>
       <c r="C712" s="78"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
     <row r="713" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A713" s="31"/>
-      <c r="B713" s="31"/>
+      <c r="A713" s="30"/>
+      <c r="B713" s="30"/>
       <c r="C713" s="78"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
     </row>
     <row r="714" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A714" s="31"/>
-      <c r="B714" s="31"/>
+      <c r="A714" s="30"/>
+      <c r="B714" s="30"/>
       <c r="C714" s="78"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
     </row>
     <row r="715" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A715" s="31"/>
-      <c r="B715" s="31"/>
+      <c r="A715" s="30"/>
+      <c r="B715" s="30"/>
       <c r="C715" s="78"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
     </row>
     <row r="716" s="3" customFormat="true" ht="13.5" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A716" s="31"/>
-      <c r="B716" s="31"/>
+      <c r="A716" s="30"/>
+      <c r="B716" s="30"/>
       <c r="C716" s="78"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -14946,11 +14946,11 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="81" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="82" width="51.13"/>
@@ -14989,7 +14989,7 @@
       <c r="C3" s="90" t="n">
         <v>42365</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>648</v>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       <c r="C4" s="90" t="n">
         <v>42426</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>650</v>
       </c>
       <c r="G4" s="91"/>
@@ -15021,7 +15021,7 @@
       <c r="C5" s="90" t="n">
         <v>42468</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>651</v>
       </c>
       <c r="G5" s="91"/>
@@ -15039,7 +15039,7 @@
       <c r="C6" s="90" t="n">
         <v>42503</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>653</v>
       </c>
       <c r="G6" s="91"/>
@@ -15057,7 +15057,7 @@
       <c r="C7" s="90" t="n">
         <v>43599</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>654</v>
       </c>
     </row>
@@ -15065,7 +15065,7 @@
       <c r="A8" s="88"/>
       <c r="B8" s="89"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="88" t="n">
@@ -15077,7 +15077,7 @@
       <c r="C9" s="90" t="n">
         <v>44119</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>656</v>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="C10" s="90" t="n">
         <v>44123</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>657</v>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       <c r="C11" s="90" t="n">
         <v>44137</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>658</v>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       <c r="C12" s="90" t="n">
         <v>44210</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>659</v>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
       <c r="C13" s="90" t="n">
         <v>44267</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>660</v>
       </c>
     </row>
@@ -15147,7 +15147,7 @@
       <c r="C14" s="90" t="n">
         <v>44316</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>661</v>
       </c>
     </row>
@@ -15177,13 +15177,13 @@
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
       <c r="C17" s="90"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="88"/>
